--- a/prot/356379915/ООО Регионстрой/Трехосные_КД_ПП/1074.xlsx
+++ b/prot/356379915/ООО Регионстрой/Трехосные_КД_ПП/1074.xlsx
@@ -914,24 +914,24 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="168" fontId="27" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="168" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -2738,19 +2738,19 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'1'!$K$65:$K$2000</f>
+              <f>'1'!$K$65:$K$200000</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'1'!$J$65:$J$2000</f>
+              <f>'1'!$J$65:$J$200000</f>
               <numCache>
                 <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </yVal>
@@ -2781,19 +2781,19 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'1'!$M$65:$M$2000</f>
+              <f>'1'!$M$65:$M$200000</f>
               <numCache>
-                <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'1'!$L$65:$L$2000</f>
+              <f>'1'!$L$65:$L$200000</f>
               <numCache>
                 <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </yVal>
@@ -2824,19 +2824,19 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'1'!$O$65:$O$2000</f>
+              <f>'1'!$O$65:$O$200000</f>
               <numCache>
-                <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'1'!$N$65:$N$2000</f>
+              <f>'1'!$N$65:$N$200000</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </yVal>
@@ -3181,19 +3181,19 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'1'!$G$65:$G$2000</f>
+              <f>'1'!$G$65:$G$200000</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'1'!$F$65:$F$2000</f>
+              <f>'1'!$F$65:$F$200000</f>
               <numCache>
-                <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </yVal>
@@ -3399,7 +3399,7 @@
             </a:ln>
           </spPr>
         </title>
-        <numFmt formatCode="0.0000" sourceLinked="1"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
@@ -3508,7 +3508,7 @@
             </a:ln>
           </spPr>
         </title>
-        <numFmt formatCode="0.000" sourceLinked="1"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
@@ -3657,19 +3657,19 @@
           </trendline>
           <xVal>
             <numRef>
-              <f>'1'!$G$65:$G$2000</f>
+              <f>'1'!$G$65:$G$200000</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'1'!$F$65:$F$2000</f>
+              <f>'1'!$F$65:$F$200000</f>
               <numCache>
-                <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </yVal>
@@ -3749,10 +3749,9 @@
             <numRef>
               <f>'1'!$A$81:$A$82</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
-                  <formatCode>General</formatCode>
                   <v>0</v>
                 </pt>
                 <pt idx="1">
@@ -3814,10 +3813,9 @@
             <numRef>
               <f>'1'!$A$75:$A$76</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
-                  <formatCode>General</formatCode>
                   <v>0</v>
                 </pt>
                 <pt idx="1">
@@ -3869,7 +3867,7 @@
             <numRef>
               <f>'1'!$A$85:$A$86</f>
               <numCache>
-                <formatCode>0.000</formatCode>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
                   <v>0</v>
@@ -3923,7 +3921,7 @@
             <numRef>
               <f>'1'!$A$88:$A$89</f>
               <numCache>
-                <formatCode>0.000</formatCode>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
                   <v>#N/A</v>
@@ -3978,7 +3976,7 @@
             <numRef>
               <f>'1'!$A$78:$A$79</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
                   <v>0</v>
@@ -4088,7 +4086,7 @@
             </a:ln>
           </spPr>
         </title>
-        <numFmt formatCode="0.0000" sourceLinked="1"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
@@ -4198,7 +4196,7 @@
             </a:ln>
           </spPr>
         </title>
-        <numFmt formatCode="0.000" sourceLinked="1"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
@@ -4886,8 +4884,8 @@
   </sheetPr>
   <dimension ref="A1:BF264"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A65" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="S81" sqref="S81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -4917,13 +4915,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
-      <c r="A1" s="150" t="inlineStr">
+      <c r="A1" s="153" t="inlineStr">
         <is>
           <t>Общество с ограниченной ответственностью "Инженерная геология" (ООО "ИнжГео")</t>
         </is>
       </c>
-      <c r="L1" s="150" t="n"/>
-      <c r="M1" s="150" t="inlineStr">
+      <c r="L1" s="153" t="n"/>
+      <c r="M1" s="153" t="inlineStr">
         <is>
           <t>Общество с ограниченной ответственностью "Инженерная геология" (ООО "ИнжГео")</t>
         </is>
@@ -4974,13 +4972,13 @@
       <c r="BC1" s="40" t="n"/>
     </row>
     <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="150" t="inlineStr">
+      <c r="A2" s="153" t="inlineStr">
         <is>
           <t>Юр. адрес: 117279, г. Москва, ул. Миклухо-Маклая, 36 а, этаж 5, пом. XXIII к. 76-84</t>
         </is>
       </c>
-      <c r="L2" s="150" t="n"/>
-      <c r="M2" s="150" t="inlineStr">
+      <c r="L2" s="153" t="n"/>
+      <c r="M2" s="153" t="inlineStr">
         <is>
           <t>Юр. адрес: 117279, г. Москва, ул. Миклухо-Маклая, 36 а, этаж 5, пом. XXIII к. 76-84</t>
         </is>
@@ -5096,13 +5094,13 @@
       <c r="BD2" s="50" t="n"/>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="150" t="inlineStr">
+      <c r="A3" s="153" t="inlineStr">
         <is>
           <t>Телефон/факс +7 (495) 132-30-00,  Адрес электронной почты inbox@inj-geo.ru</t>
         </is>
       </c>
-      <c r="L3" s="150" t="n"/>
-      <c r="M3" s="150" t="inlineStr">
+      <c r="L3" s="153" t="n"/>
+      <c r="M3" s="153" t="inlineStr">
         <is>
           <t>Телефон/факс +7 (495) 132-30-00,  Адрес электронной почты inbox@inj-geo.ru</t>
         </is>
@@ -5173,27 +5171,27 @@
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="150" t="n"/>
-      <c r="B4" s="150" t="n"/>
-      <c r="C4" s="150" t="n"/>
-      <c r="D4" s="150" t="n"/>
-      <c r="E4" s="150" t="n"/>
-      <c r="F4" s="150" t="n"/>
-      <c r="G4" s="150" t="n"/>
-      <c r="H4" s="150" t="n"/>
-      <c r="I4" s="150" t="n"/>
-      <c r="J4" s="150" t="n"/>
-      <c r="K4" s="150" t="n"/>
-      <c r="L4" s="150" t="n"/>
-      <c r="M4" s="150" t="n"/>
-      <c r="N4" s="150" t="n"/>
-      <c r="O4" s="150" t="n"/>
-      <c r="P4" s="150" t="n"/>
-      <c r="Q4" s="150" t="n"/>
-      <c r="R4" s="150" t="n"/>
-      <c r="S4" s="150" t="n"/>
-      <c r="T4" s="150" t="n"/>
-      <c r="U4" s="150" t="n"/>
+      <c r="A4" s="153" t="n"/>
+      <c r="B4" s="153" t="n"/>
+      <c r="C4" s="153" t="n"/>
+      <c r="D4" s="153" t="n"/>
+      <c r="E4" s="153" t="n"/>
+      <c r="F4" s="153" t="n"/>
+      <c r="G4" s="153" t="n"/>
+      <c r="H4" s="153" t="n"/>
+      <c r="I4" s="153" t="n"/>
+      <c r="J4" s="153" t="n"/>
+      <c r="K4" s="153" t="n"/>
+      <c r="L4" s="153" t="n"/>
+      <c r="M4" s="153" t="n"/>
+      <c r="N4" s="153" t="n"/>
+      <c r="O4" s="153" t="n"/>
+      <c r="P4" s="153" t="n"/>
+      <c r="Q4" s="153" t="n"/>
+      <c r="R4" s="153" t="n"/>
+      <c r="S4" s="153" t="n"/>
+      <c r="T4" s="153" t="n"/>
+      <c r="U4" s="153" t="n"/>
       <c r="X4" s="66">
         <f>X2-X1</f>
         <v/>
@@ -5256,13 +5254,13 @@
       <c r="BC4" s="58" t="n"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="150" t="inlineStr">
+      <c r="A5" s="153" t="inlineStr">
         <is>
           <t>Испытательная лаборатория ООО «ИнжГео»</t>
         </is>
       </c>
-      <c r="L5" s="150" t="n"/>
-      <c r="M5" s="150" t="inlineStr">
+      <c r="L5" s="153" t="n"/>
+      <c r="M5" s="153" t="inlineStr">
         <is>
           <t>Испытательная лаборатория ООО «ИнжГео»</t>
         </is>
@@ -5377,13 +5375,13 @@
       <c r="BC5" s="58" t="n"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="154" t="inlineStr">
+      <c r="A6" s="152" t="inlineStr">
         <is>
           <t>Адрес места осуществления деятельности лаборатории: г. Москва, просп. Вернадского, д. 51, стр. 1</t>
         </is>
       </c>
-      <c r="L6" s="154" t="n"/>
-      <c r="M6" s="154" t="inlineStr">
+      <c r="L6" s="152" t="n"/>
+      <c r="M6" s="152" t="inlineStr">
         <is>
           <t>Адрес места осуществления деятельности лаборатории: г. Москва, просп. Вернадского, д. 51, стр. 1</t>
         </is>
@@ -5456,13 +5454,13 @@
       <c r="BF6" s="67" t="n"/>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="150" t="inlineStr">
+      <c r="A7" s="153" t="inlineStr">
         <is>
           <t>Телефон +7(910)4557682, E-mail: slg85@mail.ru</t>
         </is>
       </c>
-      <c r="L7" s="150" t="n"/>
-      <c r="M7" s="150" t="inlineStr">
+      <c r="L7" s="153" t="n"/>
+      <c r="M7" s="153" t="inlineStr">
         <is>
           <t>Телефон +7(910)4557682, E-mail: slg85@mail.ru</t>
         </is>
@@ -5624,8 +5622,8 @@
       <c r="BF8" s="67" t="n"/>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="156" t="n"/>
-      <c r="M9" s="156" t="inlineStr">
+      <c r="A9" s="155" t="n"/>
+      <c r="M9" s="155" t="inlineStr">
         <is>
           <t>Протокол испытаний № 13-63/39 от 07-12-2022</t>
         </is>
@@ -6442,13 +6440,13 @@
       <c r="BC17" s="58" t="n"/>
     </row>
     <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="155" t="inlineStr">
+      <c r="A18" s="154" t="inlineStr">
         <is>
           <t>Испытание грунтов методом трехосного сжатия</t>
         </is>
       </c>
-      <c r="L18" s="155" t="n"/>
-      <c r="M18" s="155" t="inlineStr">
+      <c r="L18" s="154" t="n"/>
+      <c r="M18" s="154" t="inlineStr">
         <is>
           <t>Испытание грунтов методом трехосного сжатия</t>
         </is>
@@ -7332,13 +7330,13 @@
       <c r="BC26" s="58" t="n"/>
     </row>
     <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="155" t="inlineStr">
+      <c r="A27" s="154" t="inlineStr">
         <is>
           <t xml:space="preserve">Результаты испытаний </t>
         </is>
       </c>
-      <c r="L27" s="155" t="n"/>
-      <c r="M27" s="155" t="inlineStr">
+      <c r="L27" s="154" t="n"/>
+      <c r="M27" s="154" t="inlineStr">
         <is>
           <t xml:space="preserve">Результаты испытаний </t>
         </is>
@@ -9137,26 +9135,26 @@
       <c r="U59" s="10" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="152" t="inlineStr">
+      <c r="A60" s="156" t="inlineStr">
         <is>
           <t>Лист 1 , всего листов 2</t>
         </is>
       </c>
-      <c r="L60" s="152" t="n"/>
-      <c r="M60" s="152" t="inlineStr">
+      <c r="L60" s="156" t="n"/>
+      <c r="M60" s="156" t="inlineStr">
         <is>
           <t>Лист 2 , всего листов 2</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="153" t="inlineStr">
+      <c r="A61" s="150" t="inlineStr">
         <is>
           <t>Частичное воспроизведение протокола испытаний без письменного разрешения  ООО «ИнжГео» ЗАПРЕЩАЕТСЯ</t>
         </is>
       </c>
-      <c r="L61" s="153" t="n"/>
-      <c r="M61" s="153" t="inlineStr">
+      <c r="L61" s="150" t="n"/>
+      <c r="M61" s="150" t="inlineStr">
         <is>
           <t>Частичное воспроизведение протокола испытаний без письменного разрешения  ООО «ИнжГео» ЗАПРЕЩАЕТСЯ</t>
         </is>
@@ -9261,7 +9259,7 @@
         <v>0.0174681646244358</v>
       </c>
       <c r="B65" t="n">
-        <v>0.001745506350096747</v>
+        <v>0.001746803361320112</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9276,29 +9274,29 @@
         <v/>
       </c>
       <c r="F65" s="170" t="n">
-        <v>-2.499999999999725e-05</v>
+        <v>-0.0001699999999999965</v>
       </c>
       <c r="G65" s="171" t="n">
         <v>0</v>
       </c>
       <c r="H65" s="171" t="n"/>
       <c r="J65" s="170" t="n">
-        <v>-2.499999999999725e-05</v>
+        <v>-0.0001699999999999965</v>
       </c>
       <c r="K65" s="171" t="n">
         <v>0</v>
       </c>
       <c r="L65" s="172" t="n">
-        <v>0.002504999999999979</v>
+        <v>0.01620566997647935</v>
       </c>
       <c r="M65" s="170" t="n">
-        <v>0</v>
+        <v>0.0003334474986410395</v>
       </c>
       <c r="N65" s="171" t="n">
         <v>0.02291395481383174</v>
       </c>
       <c r="O65" s="172" t="n">
-        <v>0.0003247768701804449</v>
+        <v>0.0003117521491043623</v>
       </c>
       <c r="Q65" s="151" t="inlineStr">
         <is>
@@ -9318,29 +9316,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.009083445604706614</v>
+        <v>0.00803535572724047</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0006051088680335389</v>
+        <v>0.0005356863641381677</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.009083445604706614</v>
+        <v>0.00803535572724047</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0006051088680335389</v>
+        <v>0.0005356863641381677</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.01728604797491129</v>
+        <v>0.03601259994773187</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0003655679034694202</v>
+        <v>0.001111491662136798</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.0472267501328118</v>
+        <v>0.05455703527102795</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0006769692535194544</v>
+        <v>0.00111340053251558</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9356,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.01628681082947651</v>
+        <v>0.0174681646244358</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001359823823185594</v>
+        <v>0.001746803361320112</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.01628681082947651</v>
+        <v>0.0174681646244358</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001359823823185594</v>
+        <v>0.001746803361320112</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.03601259994773187</v>
+        <v>0.03637807650307501</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001142399698341939</v>
+        <v>0.001823305933958027</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.05455703527102795</v>
+        <v>0.0558058451446467</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001159917393501589</v>
+        <v>0.001823325118584949</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9398,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.0174681646244358</v>
+        <v>0.01727755083427711</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.001745506350096747</v>
+        <v>0.002744536464241311</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.0174681646244358</v>
+        <v>0.01727755083427711</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.001745506350096747</v>
+        <v>0.002744536464241311</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.04168372470807732</v>
+        <v>0.03558150885864178</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002030643674701685</v>
+        <v>0.002734958900937041</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.06679574333074123</v>
+        <v>0.05428824701530716</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002030907760558363</v>
+        <v>0.002734987677877424</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9445,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.01965068484517253</v>
+        <v>0.01849738087032098</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002719647646371187</v>
+        <v>0.003659381952321748</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01965068484517253</v>
+        <v>0.01849738087032098</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.002719647646371187</v>
+        <v>0.003659381952321748</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.04341426504868953</v>
+        <v>0.03622791064263003</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.002707524899602247</v>
+        <v>0.003646611867916054</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.06968254266925356</v>
+        <v>0.05911866692603096</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.002707877014077817</v>
+        <v>0.003646650237169898</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9482,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.0006051088680335389</v>
+        <v>0.0005356863641381677</v>
       </c>
       <c r="B70" t="n">
-        <v>0.009083445604706614</v>
+        <v>0.00803535572724047</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.01984618915782714</v>
+        <v>0.01868327933232675</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003399559557963984</v>
+        <v>0.004574227440402184</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01984618915782714</v>
+        <v>0.01868327933232675</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003399559557963984</v>
+        <v>0.004574227440402184</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.04274615614334071</v>
+        <v>0.03819557475690766</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003384406124502809</v>
+        <v>0.004558264834895067</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.07370462729723809</v>
+        <v>0.05754802484611671</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003384846267597272</v>
+        <v>0.004558312796462373</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.02070683034463318</v>
+        <v>0.01851208117409145</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004079471469556781</v>
+        <v>0.005489072928482623</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.02070683034463318</v>
+        <v>0.01851208117409145</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004079471469556781</v>
+        <v>0.005489072928482623</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.04503865382554459</v>
+        <v>0.03739782823738755</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.00406128734940337</v>
+        <v>0.005469917801874081</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.07421471910131511</v>
+        <v>0.05620041454613556</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004061815521116727</v>
+        <v>0.005469975355754848</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9552,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.02246343748550132</v>
+        <v>0.01877828349977349</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.004759383381149578</v>
+        <v>0.006403918416563059</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.02246343748550132</v>
+        <v>0.01877828349977349</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.004759383381149578</v>
+        <v>0.006403918416563059</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.04741751687811263</v>
+        <v>0.03670547864445028</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.004738168574303932</v>
+        <v>0.006381570768853095</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.07930691798447903</v>
+        <v>0.056869795558877</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.004738784774636181</v>
+        <v>0.006381637915047323</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9598,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.02361646631416671</v>
+        <v>0.01925206520113455</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.005439295292742375</v>
+        <v>0.007318763904643496</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02361646631416671</v>
+        <v>0.01925206520113455</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.005439295292742375</v>
+        <v>0.007318763904643496</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.04872135046454121</v>
+        <v>0.03791365419462817</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.005415049799204493</v>
+        <v>0.007293223735832108</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.07756694366338529</v>
+        <v>0.05803986925596188</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.005415754028155635</v>
+        <v>0.007293300474339797</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9635,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.02334150758308927</v>
+        <v>0.01834566371553395</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006119207204335172</v>
+        <v>0.008233609392723934</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.02334150758308927</v>
+        <v>0.01834566371553395</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006119207204335172</v>
+        <v>0.008233609392723934</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.05213756452662993</v>
+        <v>0.03944200726211078</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006091931024105055</v>
+        <v>0.008204876702811122</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.07740155890965034</v>
+        <v>0.06195884655963729</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006092723281675089</v>
+        <v>0.008204963033632271</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9679,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.02359364535761194</v>
+        <v>0.01858620808793167</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.006799119115927969</v>
+        <v>0.009148454880804369</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.02359364535761194</v>
+        <v>0.01858620808793167</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.006799119115927969</v>
+        <v>0.009148454880804369</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.05254447997448949</v>
+        <v>0.04137680489333637</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.006768812249005617</v>
+        <v>0.009116529669790135</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.07840559443260536</v>
+        <v>0.05751073689033848</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.006769692535194543</v>
+        <v>0.009116625592924745</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9721,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.02658235264796351</v>
+        <v>0.01913764850543277</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.007479031027520765</v>
+        <v>0.01006330036888481</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.02658235264796351</v>
+        <v>0.01913764850543277</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.007479031027520765</v>
+        <v>0.01006330036888481</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.05462104054135911</v>
+        <v>0.04142092508704728</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.007445693473906179</v>
+        <v>0.01002818263676915</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.08634110523915073</v>
+        <v>0.05978009237771981</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.007446661788713998</v>
+        <v>0.01002828815221722</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9758,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.02506208154635112</v>
+        <v>0.01990334220529506</v>
       </c>
       <c r="G77" t="n">
-        <v>0.008158942939113562</v>
+        <v>0.01097814585696525</v>
       </c>
       <c r="J77" t="n">
-        <v>0.02506208154635112</v>
+        <v>0.01990334220529506</v>
       </c>
       <c r="K77" t="n">
-        <v>0.008158942939113562</v>
+        <v>0.01097814585696525</v>
       </c>
       <c r="L77" t="n">
-        <v>0.05677450637231077</v>
+        <v>0.04122224154112036</v>
       </c>
       <c r="M77" t="n">
-        <v>0.00812257469880674</v>
+        <v>0.01093983560374816</v>
       </c>
       <c r="N77" t="n">
-        <v>0.07849090295915018</v>
+        <v>0.06279334509925483</v>
       </c>
       <c r="O77" t="n">
-        <v>0.008123631042233454</v>
+        <v>0.0109399507115097</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9798,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.0256381763733286</v>
+        <v>0.02007581460121152</v>
       </c>
       <c r="G78" t="n">
-        <v>0.00883885485070636</v>
+        <v>0.01189299134504568</v>
       </c>
       <c r="J78" t="n">
-        <v>0.0256381763733286</v>
+        <v>0.02007581460121152</v>
       </c>
       <c r="K78" t="n">
-        <v>0.00883885485070636</v>
+        <v>0.01189299134504568</v>
       </c>
       <c r="L78" t="n">
-        <v>0.05827333872014709</v>
+        <v>0.03878205578440444</v>
       </c>
       <c r="M78" t="n">
-        <v>0.008799455923707303</v>
+        <v>0.01185148857072718</v>
       </c>
       <c r="N78" t="n">
-        <v>0.08280487488701488</v>
+        <v>0.06319681959347728</v>
       </c>
       <c r="O78" t="n">
-        <v>0.008800600295752907</v>
+        <v>0.01185161327080217</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9840,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.0268965322613598</v>
+        <v>0.01950808897127997</v>
       </c>
       <c r="G79" t="n">
-        <v>0.009518766762299156</v>
+        <v>0.01280783683312612</v>
       </c>
       <c r="J79" t="n">
-        <v>0.0268965322613598</v>
+        <v>0.01950808897127997</v>
       </c>
       <c r="K79" t="n">
-        <v>0.009518766762299156</v>
+        <v>0.01280783683312612</v>
       </c>
       <c r="L79" t="n">
-        <v>0.05776535905391908</v>
+        <v>0.04193502092391538</v>
       </c>
       <c r="M79" t="n">
-        <v>0.009476337148607863</v>
+        <v>0.01276314153770619</v>
       </c>
       <c r="N79" t="n">
-        <v>0.08298151574209012</v>
+        <v>0.06357507587430838</v>
       </c>
       <c r="O79" t="n">
-        <v>0.009477569549272362</v>
+        <v>0.01276327583009465</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9871,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.02732902969123173</v>
+        <v>0.01990533725912844</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01019867867389195</v>
+        <v>0.01372268232120656</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02732902969123173</v>
+        <v>0.01990533725912844</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01019867867389195</v>
+        <v>0.01372268232120656</v>
       </c>
       <c r="L80" t="n">
-        <v>0.05859537122494654</v>
+        <v>0.0401505806032279</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01015321837350842</v>
+        <v>0.0136747945046852</v>
       </c>
       <c r="N80" t="n">
-        <v>0.09297685690421215</v>
+        <v>0.06139317808292</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01015453880279182</v>
+        <v>0.01367493838938712</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9908,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.02659895874939888</v>
+        <v>0.01925468490438074</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01087859058548475</v>
+        <v>0.01463752780928699</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02659895874939888</v>
+        <v>0.01925468490438074</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01087859058548475</v>
+        <v>0.01463752780928699</v>
       </c>
       <c r="L81" t="n">
-        <v>0.05682808961587102</v>
+        <v>0.04077436258342743</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01083009959840899</v>
+        <v>0.01458644747166422</v>
       </c>
       <c r="N81" t="n">
-        <v>0.09407033334410209</v>
+        <v>0.06035326416036763</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01083150805631127</v>
+        <v>0.01458660094867959</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9942,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02991116570859106</v>
+        <v>0.02047258640870718</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01155850249707755</v>
+        <v>0.01555237329736743</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02991116570859106</v>
+        <v>0.02047258640870718</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01155850249707755</v>
+        <v>0.01555237329736743</v>
       </c>
       <c r="L82" t="n">
-        <v>0.05835161377489168</v>
+        <v>0.04289911555193224</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01150698082330955</v>
+        <v>0.01549810043864323</v>
       </c>
       <c r="N82" t="n">
-        <v>0.09226024791512455</v>
+        <v>0.06279741915454384</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01150847730983072</v>
+        <v>0.01549826350797207</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9973,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02821207803461093</v>
+        <v>0.01954958618467012</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01223841440867034</v>
+        <v>0.01646721878544787</v>
       </c>
       <c r="J83" t="n">
-        <v>0.02821207803461093</v>
+        <v>0.01954958618467012</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01223841440867034</v>
+        <v>0.01646721878544787</v>
       </c>
       <c r="L83" t="n">
-        <v>0.05796688701600913</v>
+        <v>0.04154431051473736</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01218386204821011</v>
+        <v>0.01640975340562224</v>
       </c>
       <c r="N83" t="n">
-        <v>0.09868721575231199</v>
+        <v>0.06399866283127426</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01218544656335018</v>
+        <v>0.01640992606726454</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10009,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.03039943695075338</v>
+        <v>0.01917135457517868</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01291832632026314</v>
+        <v>0.0173820642735283</v>
       </c>
       <c r="J84" t="n">
-        <v>0.03039943695075338</v>
+        <v>0.01917135457517868</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01291832632026314</v>
+        <v>0.0173820642735283</v>
       </c>
       <c r="L84" t="n">
-        <v>0.06377600384323245</v>
+        <v>0.04135029573906779</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01286074327311067</v>
+        <v>0.01732140637260126</v>
       </c>
       <c r="N84" t="n">
-        <v>0.09093843431501603</v>
+        <v>0.06469536049172292</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01286241581686963</v>
+        <v>0.01732158862655702</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10049,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.03008646964669026</v>
+        <v>0.01918120483132518</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01359823823185594</v>
+        <v>0.01829690976160874</v>
       </c>
       <c r="J85" t="n">
-        <v>0.03008646964669026</v>
+        <v>0.01918120483132518</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01359823823185594</v>
+        <v>0.01829690976160874</v>
       </c>
       <c r="L85" t="n">
-        <v>0.06488277142974574</v>
+        <v>0.04178341032987293</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01353762449801123</v>
+        <v>0.01823305933958027</v>
       </c>
       <c r="N85" t="n">
-        <v>0.09016793245426652</v>
+        <v>0.06565699615824849</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01353938507038909</v>
+        <v>0.01823325118584949</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10091,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.03121939867243094</v>
+        <v>0.0196896139629741</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01427815014344873</v>
+        <v>0.01921175524968918</v>
       </c>
       <c r="J86" t="n">
-        <v>0.03121939867243094</v>
+        <v>0.0196896139629741</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01427815014344873</v>
+        <v>0.01921175524968918</v>
       </c>
       <c r="L86" t="n">
-        <v>0.066139300241216</v>
+        <v>0.04179134707223803</v>
       </c>
       <c r="M86" t="n">
-        <v>0.0142145057229118</v>
+        <v>0.01914471230655928</v>
       </c>
       <c r="N86" t="n">
-        <v>0.09298983407871697</v>
+        <v>0.06105681629437476</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01421635432390854</v>
+        <v>0.01914491374514197</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10122,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02936228066735581</v>
+        <v>0.02047918438759264</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01495806205504153</v>
+        <v>0.02012660073776961</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02936228066735581</v>
+        <v>0.02047918438759264</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01495806205504153</v>
+        <v>0.02012660073776961</v>
       </c>
       <c r="L87" t="n">
-        <v>0.06171884617070331</v>
+        <v>0.04287825082093244</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01489138694781236</v>
+        <v>0.0200563652735383</v>
       </c>
       <c r="N87" t="n">
-        <v>0.0955292179161607</v>
+        <v>0.06586638890843627</v>
       </c>
       <c r="O87" t="n">
-        <v>0.014893323577428</v>
+        <v>0.02005657630443444</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10157,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.03009993686129957</v>
+        <v>0.01946432043067224</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01563797396663433</v>
+        <v>0.02104144622585005</v>
       </c>
       <c r="J88" t="n">
-        <v>0.03009993686129957</v>
+        <v>0.01946432043067224</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01563797396663433</v>
+        <v>0.02104144622585005</v>
       </c>
       <c r="L88" t="n">
-        <v>0.06643922375410533</v>
+        <v>0.04077463103035456</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01556826817271292</v>
+        <v>0.02096801824051731</v>
       </c>
       <c r="N88" t="n">
-        <v>0.095600021263817</v>
+        <v>0.06593497730822523</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01557029283094745</v>
+        <v>0.02096823886372692</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10191,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.0300901926413837</v>
+        <v>0.02042115395608993</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01631788587822712</v>
+        <v>0.02195629171393049</v>
       </c>
       <c r="J89" t="n">
-        <v>0.0300901926413837</v>
+        <v>0.02042115395608993</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01631788587822712</v>
+        <v>0.02195629171393049</v>
       </c>
       <c r="L89" t="n">
-        <v>0.06575193603791796</v>
+        <v>0.04020936665643662</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01624514939761348</v>
+        <v>0.02187967120749633</v>
       </c>
       <c r="N89" t="n">
-        <v>0.09995674811360677</v>
+        <v>0.06648501059087059</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01624726208446691</v>
+        <v>0.02187990142301939</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.03062870244762177</v>
+        <v>0.02032439270224523</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01699779778981992</v>
+        <v>0.02287113720201093</v>
       </c>
       <c r="J90" t="n">
-        <v>0.03062870244762177</v>
+        <v>0.02032439270224523</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01699779778981992</v>
+        <v>0.02287113720201093</v>
       </c>
       <c r="L90" t="n">
-        <v>0.06846924125112264</v>
+        <v>0.04131658531032248</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01692203062251404</v>
+        <v>0.02279132417447534</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1000087828328431</v>
+        <v>0.06512977941033349</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01692423133798636</v>
+        <v>0.02279156398231186</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.03230407355969703</v>
+        <v>0.02118990578779105</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01767770970141272</v>
+        <v>0.02378598269009136</v>
       </c>
       <c r="J91" t="n">
-        <v>0.03230407355969703</v>
+        <v>0.02118990578779105</v>
       </c>
       <c r="K91" t="n">
-        <v>0.01767770970141272</v>
+        <v>0.02378598269009136</v>
       </c>
       <c r="L91" t="n">
-        <v>0.06480618836230617</v>
+        <v>0.04234049071920773</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01759891184741461</v>
+        <v>0.02370297714145435</v>
       </c>
       <c r="N91" t="n">
-        <v>0.09541764397302732</v>
+        <v>0.06614221108862822</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01760120059150581</v>
+        <v>0.02370322654160434</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.0313307910185233</v>
+        <v>0.02052490146360363</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01835762161300552</v>
+        <v>0.0247008281781718</v>
       </c>
       <c r="J92" t="n">
-        <v>0.0313307910185233</v>
+        <v>0.02052490146360363</v>
       </c>
       <c r="K92" t="n">
-        <v>0.01835762161300552</v>
+        <v>0.0247008281781718</v>
       </c>
       <c r="L92" t="n">
-        <v>0.06167521886992319</v>
+        <v>0.0434290754445012</v>
       </c>
       <c r="M92" t="n">
-        <v>0.01827579307231517</v>
+        <v>0.02461463010843336</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1051880205759509</v>
+        <v>0.06360960830273732</v>
       </c>
       <c r="O92" t="n">
-        <v>0.01827816984502527</v>
+        <v>0.02461488910089681</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.03030437848557939</v>
+        <v>0.02081743709125675</v>
       </c>
       <c r="G93" t="n">
-        <v>0.01903753352459831</v>
+        <v>0.02561567366625224</v>
       </c>
       <c r="J93" t="n">
-        <v>0.03030437848557939</v>
+        <v>0.02081743709125675</v>
       </c>
       <c r="K93" t="n">
-        <v>0.01903753352459831</v>
+        <v>0.02561567366625224</v>
       </c>
       <c r="L93" t="n">
-        <v>0.06611985139412474</v>
+        <v>0.04234072499440802</v>
       </c>
       <c r="M93" t="n">
-        <v>0.01895267429721573</v>
+        <v>0.02552628307541238</v>
       </c>
       <c r="N93" t="n">
-        <v>0.09902797175164518</v>
+        <v>0.06453343735655476</v>
       </c>
       <c r="O93" t="n">
-        <v>0.01895513909854472</v>
+        <v>0.02552655166018929</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.03302690776512955</v>
+        <v>0.02147485627187369</v>
       </c>
       <c r="G94" t="n">
-        <v>0.01971744543619111</v>
+        <v>0.02653051915433268</v>
       </c>
       <c r="J94" t="n">
-        <v>0.03302690776512955</v>
+        <v>0.02147485627187369</v>
       </c>
       <c r="K94" t="n">
-        <v>0.01971744543619111</v>
+        <v>0.02653051915433268</v>
       </c>
       <c r="L94" t="n">
-        <v>0.06360132983824332</v>
+        <v>0.04424161626283354</v>
       </c>
       <c r="M94" t="n">
-        <v>0.01962955552211629</v>
+        <v>0.02643793604239139</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1020568226191625</v>
+        <v>0.06637777263844002</v>
       </c>
       <c r="O94" t="n">
-        <v>0.01963210835206418</v>
+        <v>0.02643821421948176</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.03157306413834272</v>
+        <v>0.02150446661501505</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02039735734778391</v>
+        <v>0.02744536464241311</v>
       </c>
       <c r="J95" t="n">
-        <v>0.03157306413834272</v>
+        <v>0.02150446661501505</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02039735734778391</v>
+        <v>0.02744536464241311</v>
       </c>
       <c r="L95" t="n">
-        <v>0.06199570964759255</v>
+        <v>0.04538297882892772</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02030643674701685</v>
+        <v>0.0273495890093704</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1054096216948632</v>
+        <v>0.06427507362065493</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02030907760558363</v>
+        <v>0.02734987677877423</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.0308038627339953</v>
+        <v>0.02073688863259394</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0210772692593767</v>
+        <v>0.02836021013049355</v>
       </c>
       <c r="J96" t="n">
-        <v>0.0308038627339953</v>
+        <v>0.02073688863259394</v>
       </c>
       <c r="K96" t="n">
-        <v>0.0210772692593767</v>
+        <v>0.02836021013049355</v>
       </c>
       <c r="L96" t="n">
-        <v>0.06922278912420815</v>
+        <v>0.0444617332967957</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02098331797191741</v>
+        <v>0.02826124197634942</v>
       </c>
       <c r="N96" t="n">
-        <v>0.09911182672857316</v>
+        <v>0.06794307122982507</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02098604685910309</v>
+        <v>0.02826153933806672</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.03155409193557325</v>
+        <v>0.0207857562582862</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0217571811709695</v>
+        <v>0.02927505561857398</v>
       </c>
       <c r="J97" t="n">
-        <v>0.03155409193557325</v>
+        <v>0.0207857562582862</v>
       </c>
       <c r="K97" t="n">
-        <v>0.0217571811709695</v>
+        <v>0.02927505561857398</v>
       </c>
       <c r="L97" t="n">
-        <v>0.06901459455886205</v>
+        <v>0.04166727293308736</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02166019919681797</v>
+        <v>0.02917289494332843</v>
       </c>
       <c r="N97" t="n">
-        <v>0.09941130145772659</v>
+        <v>0.06665707855260977</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02166301611262254</v>
+        <v>0.02917320189735919</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.03329538355843151</v>
+        <v>0.02170559662970496</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0224370930825623</v>
+        <v>0.03018990110665442</v>
       </c>
       <c r="J98" t="n">
-        <v>0.03329538355843151</v>
+        <v>0.02170559662970496</v>
       </c>
       <c r="K98" t="n">
-        <v>0.0224370930825623</v>
+        <v>0.03018990110665442</v>
       </c>
       <c r="L98" t="n">
-        <v>0.06470403841226319</v>
+        <v>0.04471232991568591</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02233708042171853</v>
+        <v>0.03008454791030745</v>
       </c>
       <c r="N98" t="n">
-        <v>0.09506093132053761</v>
+        <v>0.06771987748493663</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02233998536614199</v>
+        <v>0.03008486445665166</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.03200821686971761</v>
+        <v>0.02093707912453885</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02311700499415509</v>
+        <v>0.03110474659473486</v>
       </c>
       <c r="J99" t="n">
-        <v>0.03200821686971761</v>
+        <v>0.02093707912453885</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02311700499415509</v>
+        <v>0.03110474659473486</v>
       </c>
       <c r="L99" t="n">
-        <v>0.065213450460298</v>
+        <v>0.04443545410453839</v>
       </c>
       <c r="M99" t="n">
-        <v>0.0230139616466191</v>
+        <v>0.03099620087728646</v>
       </c>
       <c r="N99" t="n">
-        <v>0.09833885641038298</v>
+        <v>0.06501971283525154</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02301695461966145</v>
+        <v>0.03099652701594414</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.0324397281246032</v>
+        <v>0.02137020909071155</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02379691690574789</v>
+        <v>0.0320195920828153</v>
       </c>
       <c r="J100" t="n">
-        <v>0.0324397281246032</v>
+        <v>0.02137020909071155</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02379691690574789</v>
+        <v>0.0320195920828153</v>
       </c>
       <c r="L100" t="n">
-        <v>0.0701382516273352</v>
+        <v>0.04626968211231733</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02369084287151966</v>
+        <v>0.03190785384426548</v>
       </c>
       <c r="N100" t="n">
-        <v>0.09807126149866741</v>
+        <v>0.06596503375284529</v>
       </c>
       <c r="O100" t="n">
-        <v>0.0236939238731809</v>
+        <v>0.03190818957523661</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.03210980915176351</v>
+        <v>0.02167389792960779</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02447682881734069</v>
+        <v>0.03293443757089574</v>
       </c>
       <c r="J101" t="n">
-        <v>0.03210980915176351</v>
+        <v>0.02167389792960779</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02447682881734069</v>
+        <v>0.03293443757089574</v>
       </c>
       <c r="L101" t="n">
-        <v>0.06355597879601535</v>
+        <v>0.04643350697138249</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02436772409642022</v>
+        <v>0.03281950681124449</v>
       </c>
       <c r="N101" t="n">
-        <v>0.09757123794361666</v>
+        <v>0.06933805030964774</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02437089312670036</v>
+        <v>0.03281985213452909</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.03404219770384952</v>
+        <v>0.02185638356181123</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02515674072893348</v>
+        <v>0.03384928305897617</v>
       </c>
       <c r="J102" t="n">
-        <v>0.03404219770384952</v>
+        <v>0.02185638356181123</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02515674072893348</v>
+        <v>0.03384928305897617</v>
       </c>
       <c r="L102" t="n">
-        <v>0.06918597563042098</v>
+        <v>0.04562132975326996</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02504460532132078</v>
+        <v>0.0337311597782235</v>
       </c>
       <c r="N102" t="n">
-        <v>0.09942648483155181</v>
+        <v>0.06635866998041712</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02504786238021981</v>
+        <v>0.03373151469382156</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.03186723074253638</v>
+        <v>0.02130770475053226</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02583665264052628</v>
+        <v>0.03476412854705661</v>
       </c>
       <c r="J103" t="n">
-        <v>0.03186723074253638</v>
+        <v>0.02130770475053226</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02583665264052628</v>
+        <v>0.03476412854705661</v>
       </c>
       <c r="L103" t="n">
-        <v>0.0673310269476606</v>
+        <v>0.0465131591780388</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02572148654622134</v>
+        <v>0.03464281274520251</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1014612196899873</v>
+        <v>0.06532611553456419</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02572483163373927</v>
+        <v>0.03464317725311403</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.0317197070047031</v>
+        <v>0.02222216573321517</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02651656455211908</v>
+        <v>0.03567897403513704</v>
       </c>
       <c r="J104" t="n">
-        <v>0.0317197070047031</v>
+        <v>0.02222216573321517</v>
       </c>
       <c r="K104" t="n">
-        <v>0.02651656455211908</v>
+        <v>0.03567897403513704</v>
       </c>
       <c r="L104" t="n">
-        <v>0.06706935158833865</v>
+        <v>0.04409531225866409</v>
       </c>
       <c r="M104" t="n">
-        <v>0.0263983677711219</v>
+        <v>0.03555446571218152</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1052990872775065</v>
+        <v>0.06807167428826555</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02640180088725872</v>
+        <v>0.03555483981240651</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.03233472421425668</v>
+        <v>0.02281898109195513</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02719647646371188</v>
+        <v>0.03659381952321748</v>
       </c>
       <c r="J105" t="n">
-        <v>0.03233472421425668</v>
+        <v>0.02281898109195513</v>
       </c>
       <c r="K105" t="n">
-        <v>0.02719647646371188</v>
+        <v>0.03659381952321748</v>
       </c>
       <c r="L105" t="n">
-        <v>0.06932359795310156</v>
+        <v>0.04668484970283834</v>
       </c>
       <c r="M105" t="n">
-        <v>0.02707524899602247</v>
+        <v>0.03646611867916054</v>
       </c>
       <c r="N105" t="n">
-        <v>0.09676973677501866</v>
+        <v>0.06783205262266001</v>
       </c>
       <c r="O105" t="n">
-        <v>0.02707877014077817</v>
+        <v>0.03646650237169898</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.03315541119983097</v>
+        <v>0.02179045810997468</v>
       </c>
       <c r="G106" t="n">
-        <v>0.02787638837530467</v>
+        <v>0.03750866501129792</v>
       </c>
       <c r="J106" t="n">
-        <v>0.03315541119983097</v>
+        <v>0.02179045810997468</v>
       </c>
       <c r="K106" t="n">
-        <v>0.02787638837530467</v>
+        <v>0.03750866501129792</v>
       </c>
       <c r="L106" t="n">
-        <v>0.0724939307591681</v>
+        <v>0.04585375584745321</v>
       </c>
       <c r="M106" t="n">
-        <v>0.02775213022092303</v>
+        <v>0.03737777164613956</v>
       </c>
       <c r="N106" t="n">
-        <v>0.09706184280086366</v>
+        <v>0.07062557282474141</v>
       </c>
       <c r="O106" t="n">
-        <v>0.02775573939429763</v>
+        <v>0.03737816493099146</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.03363228174096392</v>
+        <v>0.02257393783823387</v>
       </c>
       <c r="G107" t="n">
-        <v>0.02855630028689747</v>
+        <v>0.03842351049937836</v>
       </c>
       <c r="J107" t="n">
-        <v>0.03363228174096392</v>
+        <v>0.02257393783823387</v>
       </c>
       <c r="K107" t="n">
-        <v>0.02855630028689747</v>
+        <v>0.03842351049937836</v>
       </c>
       <c r="L107" t="n">
-        <v>0.07140747930885258</v>
+        <v>0.04612460050929715</v>
       </c>
       <c r="M107" t="n">
-        <v>0.02842901144582359</v>
+        <v>0.03828942461311857</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1101328279243934</v>
+        <v>0.07305600438160209</v>
       </c>
       <c r="O107" t="n">
-        <v>0.02843270864781708</v>
+        <v>0.03828982749028393</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.03451719113088608</v>
+        <v>0.02245257813791242</v>
       </c>
       <c r="G108" t="n">
-        <v>0.02923621219849026</v>
+        <v>0.03933835598745879</v>
       </c>
       <c r="J108" t="n">
-        <v>0.03451719113088608</v>
+        <v>0.02245257813791242</v>
       </c>
       <c r="K108" t="n">
-        <v>0.02923621219849026</v>
+        <v>0.03933835598745879</v>
       </c>
       <c r="L108" t="n">
-        <v>0.06470121875533166</v>
+        <v>0.04490261376637933</v>
       </c>
       <c r="M108" t="n">
-        <v>0.02910589267072415</v>
+        <v>0.03920107758009758</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1013000328234239</v>
+        <v>0.06870514694849689</v>
       </c>
       <c r="O108" t="n">
-        <v>0.02910967790133654</v>
+        <v>0.0392014900495764</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.0318620288757728</v>
+        <v>0.02197871241731657</v>
       </c>
       <c r="G109" t="n">
-        <v>0.02991612411008306</v>
+        <v>0.04025320147553923</v>
       </c>
       <c r="J109" t="n">
-        <v>0.0318620288757728</v>
+        <v>0.02197871241731657</v>
       </c>
       <c r="K109" t="n">
-        <v>0.02991612411008306</v>
+        <v>0.04025320147553923</v>
       </c>
       <c r="L109" t="n">
-        <v>0.07291034954667386</v>
+        <v>0.04613595469580686</v>
       </c>
       <c r="M109" t="n">
-        <v>0.02978277389562472</v>
+        <v>0.04011273054707659</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1109572536298912</v>
+        <v>0.07023512222830525</v>
       </c>
       <c r="O109" t="n">
-        <v>0.02978664715485599</v>
+        <v>0.04011315260886889</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.03245162607236962</v>
+        <v>0.02263079262729099</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03059603602167586</v>
+        <v>0.04116804696361966</v>
       </c>
       <c r="J110" t="n">
-        <v>0.03245162607236962</v>
+        <v>0.02263079262729099</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03059603602167586</v>
+        <v>0.04116804696361966</v>
       </c>
       <c r="L110" t="n">
-        <v>0.06548609845001976</v>
+        <v>0.04750711695449081</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03045965512052528</v>
+        <v>0.04102438351405561</v>
       </c>
       <c r="N110" t="n">
-        <v>0.09785833754350604</v>
+        <v>0.07381971917938845</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03046361640837545</v>
+        <v>0.04102481516816135</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.0344834882953515</v>
+        <v>0.0232705496462836</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03127594793326866</v>
+        <v>0.0420828924517001</v>
       </c>
       <c r="J111" t="n">
-        <v>0.0344834882953515</v>
+        <v>0.0232705496462836</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03127594793326866</v>
+        <v>0.0420828924517001</v>
       </c>
       <c r="L111" t="n">
-        <v>0.0720201108739445</v>
+        <v>0.04855866756560046</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03113653634542584</v>
+        <v>0.04193603648103462</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1049814405775974</v>
+        <v>0.07088156403028928</v>
       </c>
       <c r="O111" t="n">
-        <v>0.0311405856618949</v>
+        <v>0.04193647772745383</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.03251208719518135</v>
+        <v>0.02228346033650028</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03195585984486145</v>
+        <v>0.04299773793978054</v>
       </c>
       <c r="J112" t="n">
-        <v>0.03251208719518135</v>
+        <v>0.02228346033650028</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03195585984486145</v>
+        <v>0.04299773793978054</v>
       </c>
       <c r="L112" t="n">
-        <v>0.06506821366816931</v>
+        <v>0.04843302398033766</v>
       </c>
       <c r="M112" t="n">
-        <v>0.0318134175703264</v>
+        <v>0.04284768944801363</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1033905044774455</v>
+        <v>0.07128885692194986</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03181755491541436</v>
+        <v>0.04284814028674631</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.03468272627512031</v>
+        <v>0.02282687357431107</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03263577175645425</v>
+        <v>0.04391258342786098</v>
       </c>
       <c r="J113" t="n">
-        <v>0.03468272627512031</v>
+        <v>0.02282687357431107</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03263577175645425</v>
+        <v>0.04391258342786098</v>
       </c>
       <c r="L113" t="n">
-        <v>0.07337363316181303</v>
+        <v>0.04637701276080725</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03249029879522696</v>
+        <v>0.04375934241499265</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1094538815891819</v>
+        <v>0.07330731005898405</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03249452416893382</v>
+        <v>0.04375980284603878</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.03387099690009771</v>
+        <v>0.02234850960318087</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03331568366804705</v>
+        <v>0.04482742891594142</v>
       </c>
       <c r="J114" t="n">
-        <v>0.03387099690009771</v>
+        <v>0.02234850960318087</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03331568366804705</v>
+        <v>0.04482742891594142</v>
       </c>
       <c r="L114" t="n">
-        <v>0.07263015594418448</v>
+        <v>0.04776330933523895</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03316718002012752</v>
+        <v>0.04467099538197166</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1055205140216786</v>
+        <v>0.07425451485311113</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03317149342245326</v>
+        <v>0.04467146540533126</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.03476306547867022</v>
+        <v>0.02383568448521813</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03399559557963985</v>
+        <v>0.04574227440402185</v>
       </c>
       <c r="J115" t="n">
-        <v>0.03476306547867022</v>
+        <v>0.02383568448521813</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03399559557963985</v>
+        <v>0.04574227440402185</v>
       </c>
       <c r="L115" t="n">
-        <v>0.0732191193511838</v>
+        <v>0.04679649170356009</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03384406124502809</v>
+        <v>0.04558264834895067</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1097740218903753</v>
+        <v>0.06958964926879507</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03384846267597272</v>
+        <v>0.04558312796462373</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.03236815021148491</v>
+        <v>0.02279990750395104</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03467550749123264</v>
+        <v>0.04665711989210228</v>
       </c>
       <c r="J116" t="n">
-        <v>0.03236815021148491</v>
+        <v>0.02279990750395104</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03467550749123264</v>
+        <v>0.04665711989210228</v>
       </c>
       <c r="L116" t="n">
-        <v>0.07133389936720891</v>
+        <v>0.04930483033485455</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03452094246992864</v>
+        <v>0.04649430131592969</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1051894752122374</v>
+        <v>0.07572240015034631</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03452543192949217</v>
+        <v>0.0464947905239162</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.03280592654104973</v>
+        <v>0.02335626086110035</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03535541940282544</v>
+        <v>0.04757196538018273</v>
       </c>
       <c r="J117" t="n">
-        <v>0.03280592654104973</v>
+        <v>0.02335626086110035</v>
       </c>
       <c r="K117" t="n">
-        <v>0.03535541940282544</v>
+        <v>0.04757196538018273</v>
       </c>
       <c r="L117" t="n">
-        <v>0.07359542008989328</v>
+        <v>0.04848940540587465</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03519782369482921</v>
+        <v>0.0474059542829087</v>
       </c>
       <c r="N117" t="n">
-        <v>0.109189021326258</v>
+        <v>0.07101760581278133</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03520240118301163</v>
+        <v>0.04740645308320868</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.03330020334377909</v>
+        <v>0.02313452836038578</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03603533131441823</v>
+        <v>0.04848681086826316</v>
       </c>
       <c r="J118" t="n">
-        <v>0.03330020334377909</v>
+        <v>0.02313452836038578</v>
       </c>
       <c r="K118" t="n">
-        <v>0.03603533131441823</v>
+        <v>0.04848681086826316</v>
       </c>
       <c r="L118" t="n">
-        <v>0.06904006432025364</v>
+        <v>0.046073946569159</v>
       </c>
       <c r="M118" t="n">
-        <v>0.03587470491972977</v>
+        <v>0.04831760724988771</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1128237736682956</v>
+        <v>0.07398187265288048</v>
       </c>
       <c r="O118" t="n">
-        <v>0.03587937043653108</v>
+        <v>0.04831811564250116</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.03493632924887161</v>
+        <v>0.02331451325294592</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03671524322601103</v>
+        <v>0.0494016563563436</v>
       </c>
       <c r="J119" t="n">
-        <v>0.03493632924887161</v>
+        <v>0.02331451325294592</v>
       </c>
       <c r="K119" t="n">
-        <v>0.03671524322601103</v>
+        <v>0.0494016563563436</v>
       </c>
       <c r="L119" t="n">
-        <v>0.07493132250775211</v>
+        <v>0.04936477309436582</v>
       </c>
       <c r="M119" t="n">
-        <v>0.03655158614463033</v>
+        <v>0.04922926021686673</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1039070620242671</v>
+        <v>0.07321088926864799</v>
       </c>
       <c r="O119" t="n">
-        <v>0.03655633969005054</v>
+        <v>0.04922977820179363</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.0347901676740373</v>
+        <v>0.02332450728478172</v>
       </c>
       <c r="G120" t="n">
-        <v>0.03739515513760382</v>
+        <v>0.05031650184442404</v>
       </c>
       <c r="J120" t="n">
-        <v>0.0347901676740373</v>
+        <v>0.02332450728478172</v>
       </c>
       <c r="K120" t="n">
-        <v>0.03739515513760382</v>
+        <v>0.05031650184442404</v>
       </c>
       <c r="L120" t="n">
-        <v>0.06869252281254137</v>
+        <v>0.05022699229530453</v>
       </c>
       <c r="M120" t="n">
-        <v>0.03722846736953089</v>
+        <v>0.05014091318384575</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1067618042980847</v>
+        <v>0.07204083719220578</v>
       </c>
       <c r="O120" t="n">
-        <v>0.03723330894356999</v>
+        <v>0.0501414407610861</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.03249102094004337</v>
+        <v>0.02400811568089101</v>
       </c>
       <c r="G121" t="n">
-        <v>0.03807506704919662</v>
+        <v>0.05123134733250447</v>
       </c>
       <c r="J121" t="n">
-        <v>0.03249102094004337</v>
+        <v>0.02400811568089101</v>
       </c>
       <c r="K121" t="n">
-        <v>0.03807506704919662</v>
+        <v>0.05123134733250447</v>
       </c>
       <c r="L121" t="n">
-        <v>0.06860140016053407</v>
+        <v>0.04876345349822131</v>
       </c>
       <c r="M121" t="n">
-        <v>0.03790534859443145</v>
+        <v>0.05105256615082476</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1122289859763865</v>
+        <v>0.07611296199344064</v>
       </c>
       <c r="O121" t="n">
-        <v>0.03791027819708945</v>
+        <v>0.05105310332037858</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.03540821836289136</v>
+        <v>0.02419158198940437</v>
       </c>
       <c r="G122" t="n">
-        <v>0.03875497896078942</v>
+        <v>0.05214619282058491</v>
       </c>
       <c r="J122" t="n">
-        <v>0.03540821836289136</v>
+        <v>0.02419158198940437</v>
       </c>
       <c r="K122" t="n">
-        <v>0.03875497896078942</v>
+        <v>0.05214619282058491</v>
       </c>
       <c r="L122" t="n">
-        <v>0.06692481471768733</v>
+        <v>0.05052320805339464</v>
       </c>
       <c r="M122" t="n">
-        <v>0.03858222981933201</v>
+        <v>0.05196421911780377</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1118201829150922</v>
+        <v>0.07635213064469831</v>
       </c>
       <c r="O122" t="n">
-        <v>0.0385872474506089</v>
+        <v>0.05196476587967105</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.0332935959872504</v>
+        <v>0.02412642175655366</v>
       </c>
       <c r="G123" t="n">
-        <v>0.03943489087238222</v>
+        <v>0.05306103830866536</v>
       </c>
       <c r="J123" t="n">
-        <v>0.0332935959872504</v>
+        <v>0.02412642175655366</v>
       </c>
       <c r="K123" t="n">
-        <v>0.03943489087238222</v>
+        <v>0.05306103830866536</v>
       </c>
       <c r="L123" t="n">
-        <v>0.07198322009721161</v>
+        <v>0.04915180704823041</v>
       </c>
       <c r="M123" t="n">
-        <v>0.03925911104423258</v>
+        <v>0.05287587208478278</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1055388882836789</v>
+        <v>0.07706494822103044</v>
       </c>
       <c r="O123" t="n">
-        <v>0.03926421670412836</v>
+        <v>0.05287642843896353</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.03254192754986783</v>
+        <v>0.02374170475463677</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04011480278397501</v>
+        <v>0.05397588379674579</v>
       </c>
       <c r="J124" t="n">
-        <v>0.03254192754986783</v>
+        <v>0.02374170475463677</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04011480278397501</v>
+        <v>0.05397588379674579</v>
       </c>
       <c r="L124" t="n">
-        <v>0.06676905924497237</v>
+        <v>0.04833418505065837</v>
       </c>
       <c r="M124" t="n">
-        <v>0.03993599226913314</v>
+        <v>0.05378752505176179</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1133836387236637</v>
+        <v>0.07608165821173857</v>
       </c>
       <c r="O124" t="n">
-        <v>0.03994118595764781</v>
+        <v>0.053788090998256</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.03569058121335791</v>
+        <v>0.02419320488472994</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04079471469556781</v>
+        <v>0.05489072928482622</v>
       </c>
       <c r="J125" t="n">
-        <v>0.03569058121335791</v>
+        <v>0.02419320488472994</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04079471469556781</v>
+        <v>0.05489072928482622</v>
       </c>
       <c r="L125" t="n">
-        <v>0.07299562948150651</v>
+        <v>0.05017419988978655</v>
       </c>
       <c r="M125" t="n">
-        <v>0.0406128734940337</v>
+        <v>0.05469917801874081</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1075485355107003</v>
+        <v>0.07667115757447346</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04061815521116726</v>
+        <v>0.05469975355754847</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.03310828753914005</v>
+        <v>0.02429305451979398</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04147462660716061</v>
+        <v>0.05580557477290666</v>
       </c>
       <c r="J126" t="n">
-        <v>0.03310828753914005</v>
+        <v>0.02429305451979398</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04147462660716061</v>
+        <v>0.05580557477290666</v>
       </c>
       <c r="L126" t="n">
-        <v>0.073407400457038</v>
+        <v>0.05107539633221397</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04128975471893426</v>
+        <v>0.05561083098571982</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1146362853224691</v>
+        <v>0.07548104207487227</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04129512446468672</v>
+        <v>0.05561141611684094</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.03260024760834711</v>
+        <v>0.02385546681095786</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04215453851875341</v>
+        <v>0.05672042026098709</v>
       </c>
       <c r="J127" t="n">
-        <v>0.03260024760834711</v>
+        <v>0.02385546681095786</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04215453851875341</v>
+        <v>0.05672042026098709</v>
       </c>
       <c r="L127" t="n">
-        <v>0.06801411661030249</v>
+        <v>0.0505744734989618</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04196663594383482</v>
+        <v>0.05652248395269883</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1018166206154728</v>
+        <v>0.07763779332418558</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04197209371820617</v>
+        <v>0.05652307867613343</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.03321713343723684</v>
+        <v>0.02408734226709144</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0428344504303462</v>
+        <v>0.05763526574906754</v>
       </c>
       <c r="J128" t="n">
-        <v>0.03321713343723684</v>
+        <v>0.02408734226709144</v>
       </c>
       <c r="K128" t="n">
-        <v>0.0428344504303462</v>
+        <v>0.05763526574906754</v>
       </c>
       <c r="L128" t="n">
-        <v>0.06849192494665055</v>
+        <v>0.05201514082410108</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04264351716873539</v>
+        <v>0.05743413691967785</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1021126139413656</v>
+        <v>0.07962739025630572</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04264906297172563</v>
+        <v>0.0574347412354259</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.03573849601397804</v>
+        <v>0.02422670429890382</v>
       </c>
       <c r="G129" t="n">
-        <v>0.043514362341939</v>
+        <v>0.05855011123714797</v>
       </c>
       <c r="J129" t="n">
-        <v>0.03573849601397804</v>
+        <v>0.02422670429890382</v>
       </c>
       <c r="K129" t="n">
-        <v>0.043514362341939</v>
+        <v>0.05855011123714797</v>
       </c>
       <c r="L129" t="n">
-        <v>0.07315911983366677</v>
+        <v>0.05050817820913628</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04332039839363595</v>
+        <v>0.05834578988665686</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1088542434624074</v>
+        <v>0.078192761645548</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04332603222524508</v>
+        <v>0.05834640379471837</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.03349745311767421</v>
+        <v>0.02428860311872902</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04419427425353179</v>
+        <v>0.0594649567252284</v>
       </c>
       <c r="J130" t="n">
-        <v>0.03349745311767421</v>
+        <v>0.02428860311872902</v>
       </c>
       <c r="K130" t="n">
-        <v>0.04419427425353179</v>
+        <v>0.0594649567252284</v>
       </c>
       <c r="L130" t="n">
-        <v>0.07166276526898288</v>
+        <v>0.04952032531169376</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04399727961853651</v>
+        <v>0.05925744285363588</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1009424517761219</v>
+        <v>0.07734469742680816</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04400300147876453</v>
+        <v>0.05925806635401085</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.03358727246209782</v>
+        <v>0.02509066339094847</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04487418616512459</v>
+        <v>0.06037980221330884</v>
       </c>
       <c r="J131" t="n">
-        <v>0.03358727246209782</v>
+        <v>0.02509066339094847</v>
       </c>
       <c r="K131" t="n">
-        <v>0.04487418616512459</v>
+        <v>0.06037980221330884</v>
       </c>
       <c r="L131" t="n">
-        <v>0.0746371275642464</v>
+        <v>0.05059670872065053</v>
       </c>
       <c r="M131" t="n">
-        <v>0.04467416084343707</v>
+        <v>0.06016909582061489</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1074604664823369</v>
+        <v>0.07993888412901112</v>
       </c>
       <c r="O131" t="n">
-        <v>0.04467997073228399</v>
+        <v>0.06016972891330332</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.03432983483988732</v>
+        <v>0.02519558559872646</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04555409807671738</v>
+        <v>0.06129464770138928</v>
       </c>
       <c r="J132" t="n">
-        <v>0.03432983483988732</v>
+        <v>0.02519558559872646</v>
       </c>
       <c r="K132" t="n">
-        <v>0.04555409807671738</v>
+        <v>0.06129464770138928</v>
       </c>
       <c r="L132" t="n">
-        <v>0.07110179724357452</v>
+        <v>0.05071082686022221</v>
       </c>
       <c r="M132" t="n">
-        <v>0.04535104206833764</v>
+        <v>0.0610807487875939</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1088869197516844</v>
+        <v>0.07413974756246156</v>
       </c>
       <c r="O132" t="n">
-        <v>0.04535693998580344</v>
+        <v>0.0610813914725958</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.03381590821939952</v>
+        <v>0.02537033095887287</v>
       </c>
       <c r="G133" t="n">
-        <v>0.04623400998831018</v>
+        <v>0.06220949318946972</v>
       </c>
       <c r="J133" t="n">
-        <v>0.03381590821939952</v>
+        <v>0.02537033095887287</v>
       </c>
       <c r="K133" t="n">
-        <v>0.04623400998831018</v>
+        <v>0.06220949318946972</v>
       </c>
       <c r="L133" t="n">
-        <v>0.07006044939451217</v>
+        <v>0.04983557820214879</v>
       </c>
       <c r="M133" t="n">
-        <v>0.0460279232932382</v>
+        <v>0.06199240175457292</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1042550879316396</v>
+        <v>0.07957450537066724</v>
       </c>
       <c r="O133" t="n">
-        <v>0.0460339092393229</v>
+        <v>0.06199305403188828</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.0351864429857692</v>
+        <v>0.02533256078959625</v>
       </c>
       <c r="G134" t="n">
-        <v>0.04691392189990298</v>
+        <v>0.06312433867755014</v>
       </c>
       <c r="J134" t="n">
-        <v>0.0351864429857692</v>
+        <v>0.02533256078959625</v>
       </c>
       <c r="K134" t="n">
-        <v>0.04691392189990298</v>
+        <v>0.06312433867755014</v>
       </c>
       <c r="L134" t="n">
-        <v>0.07334355668899548</v>
+        <v>0.0529086171527112</v>
       </c>
       <c r="M134" t="n">
-        <v>0.04670480451813876</v>
+        <v>0.06290405472155193</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1011900486966139</v>
+        <v>0.07662792446870287</v>
       </c>
       <c r="O134" t="n">
-        <v>0.04671087849284235</v>
+        <v>0.06290471659118074</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.03576048610339952</v>
+        <v>0.02479605141993096</v>
       </c>
       <c r="G135" t="n">
-        <v>0.04759383381149578</v>
+        <v>0.06403918416563059</v>
       </c>
       <c r="J135" t="n">
-        <v>0.03576048610339952</v>
+        <v>0.02479605141993096</v>
       </c>
       <c r="K135" t="n">
-        <v>0.04759383381149578</v>
+        <v>0.06403918416563059</v>
       </c>
       <c r="L135" t="n">
-        <v>0.07364893919050092</v>
+        <v>0.05171255978579148</v>
       </c>
       <c r="M135" t="n">
-        <v>0.04738168574303932</v>
+        <v>0.06381570768853095</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1097537775390232</v>
+        <v>0.07917305254148538</v>
       </c>
       <c r="O135" t="n">
-        <v>0.0473878477463618</v>
+        <v>0.06381637915047322</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.03372925417024665</v>
+        <v>0.02464077597772565</v>
       </c>
       <c r="G136" t="n">
-        <v>0.04827374572308857</v>
+        <v>0.06495402965371104</v>
       </c>
       <c r="J136" t="n">
-        <v>0.03372925417024665</v>
+        <v>0.02464077597772565</v>
       </c>
       <c r="K136" t="n">
-        <v>0.04827374572308857</v>
+        <v>0.06495402965371104</v>
       </c>
       <c r="L136" t="n">
-        <v>0.07008330345656127</v>
+        <v>0.05303341430762987</v>
       </c>
       <c r="M136" t="n">
-        <v>0.04805856696793988</v>
+        <v>0.06472736065550996</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1107240835840324</v>
+        <v>0.08052009407463767</v>
       </c>
       <c r="O136" t="n">
-        <v>0.04806481699988126</v>
+        <v>0.06472804170976569</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.03380067672097754</v>
+        <v>0.02593564072829643</v>
       </c>
       <c r="G137" t="n">
-        <v>0.04895365763468137</v>
+        <v>0.06586887514179147</v>
       </c>
       <c r="J137" t="n">
-        <v>0.03380067672097754</v>
+        <v>0.02593564072829643</v>
       </c>
       <c r="K137" t="n">
-        <v>0.04895365763468137</v>
+        <v>0.06586887514179147</v>
       </c>
       <c r="L137" t="n">
-        <v>0.06866943221755914</v>
+        <v>0.05112185912294928</v>
       </c>
       <c r="M137" t="n">
-        <v>0.04873544819284044</v>
+        <v>0.06563901362248897</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1145815961633276</v>
+        <v>0.07552219955675332</v>
       </c>
       <c r="O137" t="n">
-        <v>0.04874178625340071</v>
+        <v>0.06563970426905817</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.03329218057082657</v>
+        <v>0.02531069839074605</v>
       </c>
       <c r="G138" t="n">
-        <v>0.04963356954627417</v>
+        <v>0.06678372062987191</v>
       </c>
       <c r="J138" t="n">
-        <v>0.03329218057082657</v>
+        <v>0.02531069839074605</v>
       </c>
       <c r="K138" t="n">
-        <v>0.04963356954627417</v>
+        <v>0.06678372062987191</v>
       </c>
       <c r="L138" t="n">
-        <v>0.06749268847058362</v>
+        <v>0.05144463014186784</v>
       </c>
       <c r="M138" t="n">
-        <v>0.04941232941774101</v>
+        <v>0.066550666589468</v>
       </c>
       <c r="N138" t="n">
-        <v>0.114613350098529</v>
+        <v>0.0768575363185745</v>
       </c>
       <c r="O138" t="n">
-        <v>0.04941875550692017</v>
+        <v>0.06655136682835065</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.03485193801067578</v>
+        <v>0.02580668237037313</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05031348145786697</v>
+        <v>0.06769856611795234</v>
       </c>
       <c r="J139" t="n">
-        <v>0.03485193801067578</v>
+        <v>0.02580668237037313</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05031348145786697</v>
+        <v>0.06769856611795234</v>
       </c>
       <c r="L139" t="n">
-        <v>0.07043999462076136</v>
+        <v>0.05266679345041297</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05008921064264157</v>
+        <v>0.06746231955644701</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1039558357708596</v>
+        <v>0.07986946123609928</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05009572476043962</v>
+        <v>0.06746302938764312</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.0336966330189209</v>
+        <v>0.02473761594446595</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05099339336945976</v>
+        <v>0.06861341160603278</v>
       </c>
       <c r="J140" t="n">
-        <v>0.0336966330189209</v>
+        <v>0.02473761594446595</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05099339336945976</v>
+        <v>0.06861341160603278</v>
       </c>
       <c r="L140" t="n">
-        <v>0.07019708343421854</v>
+        <v>0.05006385652319148</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05076609186754213</v>
+        <v>0.068373972523426</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1144259112582259</v>
+        <v>0.07943584215021365</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05077269401395908</v>
+        <v>0.06837469194693559</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.03348823935330743</v>
+        <v>0.02505937876443483</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05167330528105256</v>
+        <v>0.06952825709411321</v>
       </c>
       <c r="J141" t="n">
-        <v>0.03348823935330743</v>
+        <v>0.02505937876443483</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05167330528105256</v>
+        <v>0.06952825709411321</v>
       </c>
       <c r="L141" t="n">
-        <v>0.07488926593045264</v>
+        <v>0.05342618612494954</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05144297309244269</v>
+        <v>0.06928562549040503</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1072769212150648</v>
+        <v>0.0785289769658058</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05144966326747853</v>
+        <v>0.06928635450622807</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.03508841986025857</v>
+        <v>0.02543004932845004</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05235321719264535</v>
+        <v>0.07044310258219365</v>
       </c>
       <c r="J142" t="n">
-        <v>0.03508841986025857</v>
+        <v>0.02543004932845004</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05235321719264535</v>
+        <v>0.07044310258219365</v>
       </c>
       <c r="L142" t="n">
-        <v>0.07141586041516013</v>
+        <v>0.05148188307984788</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05211985431734325</v>
+        <v>0.07019727845738404</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1055576237903095</v>
+        <v>0.08264549774052099</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05212663252099799</v>
+        <v>0.07019801706552055</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.03590150042728989</v>
+        <v>0.0255956897321636</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05303312910423816</v>
+        <v>0.07135794807027408</v>
       </c>
       <c r="J143" t="n">
-        <v>0.03590150042728989</v>
+        <v>0.0255956897321636</v>
       </c>
       <c r="K143" t="n">
-        <v>0.05303312910423816</v>
+        <v>0.07135794807027408</v>
       </c>
       <c r="L143" t="n">
-        <v>0.06787687292374522</v>
+        <v>0.05347648497046559</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05279673554224381</v>
+        <v>0.07110893142436304</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1076856710763712</v>
+        <v>0.0821000773053579</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05280360177451743</v>
+        <v>0.07110967962481302</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.03631709677714864</v>
+        <v>0.02617691492253399</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05371304101583094</v>
+        <v>0.07227279355835452</v>
       </c>
       <c r="J144" t="n">
-        <v>0.03631709677714864</v>
+        <v>0.02617691492253399</v>
       </c>
       <c r="K144" t="n">
-        <v>0.05371304101583094</v>
+        <v>0.07227279355835452</v>
       </c>
       <c r="L144" t="n">
-        <v>0.07461066998816618</v>
+        <v>0.05259773811958937</v>
       </c>
       <c r="M144" t="n">
-        <v>0.05347361676714437</v>
+        <v>0.07202058439134207</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1152805565584579</v>
+        <v>0.07930405456317446</v>
       </c>
       <c r="O144" t="n">
-        <v>0.0534805710280369</v>
+        <v>0.0720213421841055</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.03434830453782858</v>
+        <v>0.02573951180716284</v>
       </c>
       <c r="G145" t="n">
-        <v>0.05439295292742375</v>
+        <v>0.07318763904643495</v>
       </c>
       <c r="J145" t="n">
-        <v>0.03434830453782858</v>
+        <v>0.02573951180716284</v>
       </c>
       <c r="K145" t="n">
-        <v>0.05439295292742375</v>
+        <v>0.07318763904643495</v>
       </c>
       <c r="L145" t="n">
-        <v>0.07510284257302061</v>
+        <v>0.05226664077622445</v>
       </c>
       <c r="M145" t="n">
-        <v>0.05415049799204494</v>
+        <v>0.07293223735832108</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1040114670416958</v>
+        <v>0.07773680112695464</v>
       </c>
       <c r="O145" t="n">
-        <v>0.05415754028155634</v>
+        <v>0.07293300474339796</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.03607360425469026</v>
+        <v>0.02656507923677114</v>
       </c>
       <c r="G146" t="n">
-        <v>0.05507286483901654</v>
+        <v>0.0741024845345154</v>
       </c>
       <c r="J146" t="n">
-        <v>0.03607360425469026</v>
+        <v>0.02656507923677114</v>
       </c>
       <c r="K146" t="n">
-        <v>0.05507286483901654</v>
+        <v>0.0741024845345154</v>
       </c>
       <c r="L146" t="n">
-        <v>0.07603644785342911</v>
+        <v>0.05280230920506063</v>
       </c>
       <c r="M146" t="n">
-        <v>0.0548273792169455</v>
+        <v>0.07384389032530009</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1104247115944904</v>
+        <v>0.08055454246514715</v>
       </c>
       <c r="O146" t="n">
-        <v>0.05483450953507581</v>
+        <v>0.07384466730269043</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.03505965169747587</v>
+        <v>0.02646063193755303</v>
       </c>
       <c r="G147" t="n">
-        <v>0.05575277675060934</v>
+        <v>0.07501733002259584</v>
       </c>
       <c r="J147" t="n">
-        <v>0.03505965169747587</v>
+        <v>0.02646063193755303</v>
       </c>
       <c r="K147" t="n">
-        <v>0.05575277675060934</v>
+        <v>0.07501733002259584</v>
       </c>
       <c r="L147" t="n">
-        <v>0.07062004820257142</v>
+        <v>0.0533294954944962</v>
       </c>
       <c r="M147" t="n">
-        <v>0.05550426044184607</v>
+        <v>0.07475554329227911</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1106218618315145</v>
+        <v>0.08209599626913927</v>
       </c>
       <c r="O147" t="n">
-        <v>0.05551147878859525</v>
+        <v>0.07475632986198293</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.03515889484580798</v>
+        <v>0.02605897087560127</v>
       </c>
       <c r="G148" t="n">
-        <v>0.05643268866220214</v>
+        <v>0.07593217551067627</v>
       </c>
       <c r="J148" t="n">
-        <v>0.03515889484580798</v>
+        <v>0.02605897087560127</v>
       </c>
       <c r="K148" t="n">
-        <v>0.05643268866220214</v>
+        <v>0.07593217551067627</v>
       </c>
       <c r="L148" t="n">
-        <v>0.07481565354019989</v>
+        <v>0.05446423182549087</v>
       </c>
       <c r="M148" t="n">
-        <v>0.05618114166674661</v>
+        <v>0.07566719625925812</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1076928481601896</v>
+        <v>0.07862370752498549</v>
       </c>
       <c r="O148" t="n">
-        <v>0.05618844804211472</v>
+        <v>0.07566799242127539</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.03464646622529889</v>
+        <v>0.0263075160274221</v>
       </c>
       <c r="G149" t="n">
-        <v>0.05711260057379493</v>
+        <v>0.07684702099875672</v>
       </c>
       <c r="J149" t="n">
-        <v>0.03464646622529889</v>
+        <v>0.0263075160274221</v>
       </c>
       <c r="K149" t="n">
-        <v>0.05711260057379493</v>
+        <v>0.07684702099875672</v>
       </c>
       <c r="L149" t="n">
-        <v>0.07226763390818622</v>
+        <v>0.05226610782872987</v>
       </c>
       <c r="M149" t="n">
-        <v>0.05685802289164718</v>
+        <v>0.07657884922623713</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1131333042505621</v>
+        <v>0.08022237077605926</v>
       </c>
       <c r="O149" t="n">
-        <v>0.05686541729563416</v>
+        <v>0.07657965498056786</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.03597223300861378</v>
+        <v>0.02583530460416619</v>
       </c>
       <c r="G150" t="n">
-        <v>0.05779251248538773</v>
+        <v>0.07776186648683715</v>
       </c>
       <c r="J150" t="n">
-        <v>0.03597223300861378</v>
+        <v>0.02583530460416619</v>
       </c>
       <c r="K150" t="n">
-        <v>0.05779251248538773</v>
+        <v>0.07776186648683715</v>
       </c>
       <c r="L150" t="n">
-        <v>0.07335467539151341</v>
+        <v>0.05436936934165135</v>
       </c>
       <c r="M150" t="n">
-        <v>0.05753490411654774</v>
+        <v>0.07749050219321614</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1068094897990887</v>
+        <v>0.08458104312451492</v>
       </c>
       <c r="O150" t="n">
-        <v>0.05754238654915363</v>
+        <v>0.07749131753986034</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.03399874522508611</v>
+        <v>0.02688966718442015</v>
       </c>
       <c r="G151" t="n">
-        <v>0.05847242439698053</v>
+        <v>0.07867671197491759</v>
       </c>
       <c r="J151" t="n">
-        <v>0.03399874522508611</v>
+        <v>0.02688966718442015</v>
       </c>
       <c r="K151" t="n">
-        <v>0.05847242439698053</v>
+        <v>0.07867671197491759</v>
       </c>
       <c r="L151" t="n">
-        <v>0.07517349264119177</v>
+        <v>0.05589653031092204</v>
       </c>
       <c r="M151" t="n">
-        <v>0.05821178534144831</v>
+        <v>0.07840215516019516</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1044975106476694</v>
+        <v>0.08355856730138961</v>
       </c>
       <c r="O151" t="n">
-        <v>0.05821935580267307</v>
+        <v>0.07840298009915281</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.03320179503963773</v>
+        <v>0.02573584051735366</v>
       </c>
       <c r="G152" t="n">
-        <v>0.05915233630857333</v>
+        <v>0.07959155746299802</v>
       </c>
       <c r="J152" t="n">
-        <v>0.03320179503963773</v>
+        <v>0.02573584051735366</v>
       </c>
       <c r="K152" t="n">
-        <v>0.05915233630857333</v>
+        <v>0.07959155746299802</v>
       </c>
       <c r="L152" t="n">
-        <v>0.07525903843949611</v>
+        <v>0.05475792718055475</v>
       </c>
       <c r="M152" t="n">
-        <v>0.05888866656634887</v>
+        <v>0.07931380812717417</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1103006435058581</v>
+        <v>0.0812075513495038</v>
       </c>
       <c r="O152" t="n">
-        <v>0.05889632505619252</v>
+        <v>0.07931464265844529</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.03395182893653699</v>
+        <v>0.02596424141417075</v>
       </c>
       <c r="G153" t="n">
-        <v>0.05983224822016612</v>
+        <v>0.08050640295107846</v>
       </c>
       <c r="J153" t="n">
-        <v>0.03395182893653699</v>
+        <v>0.02596424141417075</v>
       </c>
       <c r="K153" t="n">
-        <v>0.05983224822016612</v>
+        <v>0.08050640295107846</v>
       </c>
       <c r="L153" t="n">
-        <v>0.07023528052752814</v>
+        <v>0.05256012167704932</v>
       </c>
       <c r="M153" t="n">
-        <v>0.05956554779124943</v>
+        <v>0.08022546109415318</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1081002708545835</v>
+        <v>0.07997968707761899</v>
       </c>
       <c r="O153" t="n">
-        <v>0.05957329430971198</v>
+        <v>0.08022630521773777</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.03374812416533388</v>
+        <v>0.02601833090849519</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06051216013175892</v>
+        <v>0.08142124843915889</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03374812416533388</v>
+        <v>0.02601833090849519</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06051216013175892</v>
+        <v>0.08142124843915889</v>
       </c>
       <c r="L154" t="n">
-        <v>0.06959775851633199</v>
+        <v>0.05457396643554108</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06024242901614998</v>
+        <v>0.08113711406113221</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1154473354068956</v>
+        <v>0.08417746175408819</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06025026356323143</v>
+        <v>0.08113796777703024</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.03444226837740408</v>
+        <v>0.02676085582352956</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06119207204335171</v>
+        <v>0.08233609392723933</v>
       </c>
       <c r="J155" t="n">
-        <v>0.03444226837740408</v>
+        <v>0.02676085582352956</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06119207204335171</v>
+        <v>0.08233609392723933</v>
       </c>
       <c r="L155" t="n">
-        <v>0.06878338002476977</v>
+        <v>0.05477579715947417</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06091931024105055</v>
+        <v>0.08204876702811122</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1145528716554196</v>
+        <v>0.08074939662976038</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06092723281675089</v>
+        <v>0.0820496303363227</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.03495600802553973</v>
+        <v>0.0260621587915453</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06187198395494451</v>
+        <v>0.08325093941531976</v>
       </c>
       <c r="J156" t="n">
-        <v>0.03495600802553973</v>
+        <v>0.0260621587915453</v>
       </c>
       <c r="K156" t="n">
-        <v>0.06187198395494451</v>
+        <v>0.08325093941531976</v>
       </c>
       <c r="L156" t="n">
-        <v>0.07134027172520144</v>
+        <v>0.05339833792182377</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06159619146595111</v>
+        <v>0.08296041999509023</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1099443501280319</v>
+        <v>0.08315091160865312</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06160420207027034</v>
+        <v>0.08296129289561519</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.0337050368038932</v>
+        <v>0.02678934939438836</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06255189586653731</v>
+        <v>0.08416578490340021</v>
       </c>
       <c r="J157" t="n">
-        <v>0.0337050368038932</v>
+        <v>0.02678934939438836</v>
       </c>
       <c r="K157" t="n">
-        <v>0.06255189586653731</v>
+        <v>0.08416578490340021</v>
       </c>
       <c r="L157" t="n">
-        <v>0.06961556054769621</v>
+        <v>0.0548044063180699</v>
       </c>
       <c r="M157" t="n">
-        <v>0.06227307269085167</v>
+        <v>0.08387207296206925</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1080124434741441</v>
+        <v>0.08495393802718743</v>
       </c>
       <c r="O157" t="n">
-        <v>0.0622811713237898</v>
+        <v>0.08387295545490767</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.03635420958494431</v>
+        <v>0.02667242175818954</v>
       </c>
       <c r="G158" t="n">
-        <v>0.0632318077781301</v>
+        <v>0.08508063039148064</v>
       </c>
       <c r="J158" t="n">
-        <v>0.03635420958494431</v>
+        <v>0.02667242175818954</v>
       </c>
       <c r="K158" t="n">
-        <v>0.0632318077781301</v>
+        <v>0.08508063039148064</v>
       </c>
       <c r="L158" t="n">
-        <v>0.07544241346334646</v>
+        <v>0.05607787271260245</v>
       </c>
       <c r="M158" t="n">
-        <v>0.06294995391575224</v>
+        <v>0.08478372592904826</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1054724396469464</v>
+        <v>0.0808819015565313</v>
       </c>
       <c r="O158" t="n">
-        <v>0.06295814057730925</v>
+        <v>0.08478461801420013</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.03326449144330543</v>
+        <v>0.02627072956621708</v>
       </c>
       <c r="G159" t="n">
-        <v>0.0639117196897229</v>
+        <v>0.08599547587956108</v>
       </c>
       <c r="J159" t="n">
-        <v>0.03326449144330543</v>
+        <v>0.02627072956621708</v>
       </c>
       <c r="K159" t="n">
-        <v>0.0639117196897229</v>
+        <v>0.08599547587956108</v>
       </c>
       <c r="L159" t="n">
-        <v>0.07299903733014093</v>
+        <v>0.05352208703486325</v>
       </c>
       <c r="M159" t="n">
-        <v>0.0636268351406528</v>
+        <v>0.08569537889602727</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1049697555436334</v>
+        <v>0.08311746729936476</v>
       </c>
       <c r="O159" t="n">
-        <v>0.06363510983082872</v>
+        <v>0.08569628057349261</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.03432728622221828</v>
+        <v>0.0263449487422948</v>
       </c>
       <c r="G160" t="n">
-        <v>0.0645916316013157</v>
+        <v>0.08691032136764151</v>
       </c>
       <c r="J160" t="n">
-        <v>0.03432728622221828</v>
+        <v>0.0263449487422948</v>
       </c>
       <c r="K160" t="n">
-        <v>0.0645916316013157</v>
+        <v>0.08691032136764151</v>
       </c>
       <c r="L160" t="n">
-        <v>0.07172480128384337</v>
+        <v>0.05532571868965722</v>
       </c>
       <c r="M160" t="n">
-        <v>0.06430371636555336</v>
+        <v>0.08660703186300629</v>
       </c>
       <c r="N160" t="n">
-        <v>0.103444385255297</v>
+        <v>0.08097734236750315</v>
       </c>
       <c r="O160" t="n">
-        <v>0.06431207908434816</v>
+        <v>0.08660794313278508</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.03623194508964274</v>
+        <v>0.02678906799539461</v>
       </c>
       <c r="G161" t="n">
-        <v>0.06527154351290849</v>
+        <v>0.08782516685572196</v>
       </c>
       <c r="J161" t="n">
-        <v>0.03623194508964274</v>
+        <v>0.02678906799539461</v>
       </c>
       <c r="K161" t="n">
-        <v>0.06527154351290849</v>
+        <v>0.08782516685572196</v>
       </c>
       <c r="L161" t="n">
-        <v>0.06934194834211516</v>
+        <v>0.05414690037797718</v>
       </c>
       <c r="M161" t="n">
-        <v>0.06498059759045392</v>
+        <v>0.0875186848299853</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1085884907061971</v>
+        <v>0.08134109175523557</v>
       </c>
       <c r="O161" t="n">
-        <v>0.06498904833786763</v>
+        <v>0.08751960569207756</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.03511409371748128</v>
+        <v>0.02704134085955338</v>
       </c>
       <c r="G162" t="n">
-        <v>0.06595145542450129</v>
+        <v>0.0887400123438024</v>
       </c>
       <c r="J162" t="n">
-        <v>0.03511409371748128</v>
+        <v>0.02704134085955338</v>
       </c>
       <c r="K162" t="n">
-        <v>0.06595145542450129</v>
+        <v>0.0887400123438024</v>
       </c>
       <c r="L162" t="n">
-        <v>0.06902447000473569</v>
+        <v>0.05491648485532183</v>
       </c>
       <c r="M162" t="n">
-        <v>0.06565747881535448</v>
+        <v>0.0884303377969643</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1141787313025712</v>
+        <v>0.08475235959262323</v>
       </c>
       <c r="O162" t="n">
-        <v>0.06566601759138707</v>
+        <v>0.08843126825137004</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.03614463682729353</v>
+        <v>0.02645062341932727</v>
       </c>
       <c r="G163" t="n">
-        <v>0.06663136733609409</v>
+        <v>0.08965485783188283</v>
       </c>
       <c r="J163" t="n">
-        <v>0.03614463682729353</v>
+        <v>0.02645062341932727</v>
       </c>
       <c r="K163" t="n">
-        <v>0.06663136733609409</v>
+        <v>0.08965485783188283</v>
       </c>
       <c r="L163" t="n">
-        <v>0.07421493949489871</v>
+        <v>0.05801933056763911</v>
       </c>
       <c r="M163" t="n">
-        <v>0.06633436004025504</v>
+        <v>0.08934199076394332</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1082148031080041</v>
+        <v>0.08592206145953152</v>
       </c>
       <c r="O163" t="n">
-        <v>0.06634298684490653</v>
+        <v>0.08934293081066251</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.03422961485202738</v>
+        <v>0.0272741820503897</v>
       </c>
       <c r="G164" t="n">
-        <v>0.06731127924768689</v>
+        <v>0.09056970331996327</v>
       </c>
       <c r="J164" t="n">
-        <v>0.03422961485202738</v>
+        <v>0.0272741820503897</v>
       </c>
       <c r="K164" t="n">
-        <v>0.06731127924768689</v>
+        <v>0.09056970331996327</v>
       </c>
       <c r="L164" t="n">
-        <v>0.07411194884938979</v>
+        <v>0.05711587262307904</v>
       </c>
       <c r="M164" t="n">
-        <v>0.0670112412651556</v>
+        <v>0.09025364373092233</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1069724046793751</v>
+        <v>0.08568424481363796</v>
       </c>
       <c r="O164" t="n">
-        <v>0.06701995609842598</v>
+        <v>0.09025459336995498</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.03302597964250058</v>
+        <v>0.02773560718520235</v>
       </c>
       <c r="G165" t="n">
-        <v>0.06799119115927969</v>
+        <v>0.0914845488080437</v>
       </c>
       <c r="J165" t="n">
-        <v>0.03302597964250058</v>
+        <v>0.02773560718520235</v>
       </c>
       <c r="K165" t="n">
-        <v>0.06799119115927969</v>
+        <v>0.0914845488080437</v>
       </c>
       <c r="L165" t="n">
-        <v>0.07324930068578769</v>
+        <v>0.05625705879428514</v>
       </c>
       <c r="M165" t="n">
-        <v>0.06768812249005618</v>
+        <v>0.09116529669790134</v>
       </c>
       <c r="N165" t="n">
-        <v>0.104963430992301</v>
+        <v>0.08429917539649195</v>
       </c>
       <c r="O165" t="n">
-        <v>0.06769692535194544</v>
+        <v>0.09116625592924746</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.03316384787849193</v>
+        <v>0.02716016255417576</v>
       </c>
       <c r="G166" t="n">
-        <v>0.06867110307087247</v>
+        <v>0.09239939429612413</v>
       </c>
       <c r="J166" t="n">
-        <v>0.03316384787849193</v>
+        <v>0.02716016255417576</v>
       </c>
       <c r="K166" t="n">
-        <v>0.06867110307087247</v>
+        <v>0.09239939429612413</v>
       </c>
       <c r="L166" t="n">
-        <v>0.068608984216285</v>
+        <v>0.05798248122312044</v>
       </c>
       <c r="M166" t="n">
-        <v>0.06836500371495673</v>
+        <v>0.09207694966488036</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1026636992119929</v>
+        <v>0.08204978656925227</v>
       </c>
       <c r="O166" t="n">
-        <v>0.06837389460546489</v>
+        <v>0.09207791848853994</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.03389174482179295</v>
+        <v>0.02791519150996648</v>
       </c>
       <c r="G167" t="n">
-        <v>0.06935101498246528</v>
+        <v>0.09331423978420457</v>
       </c>
       <c r="J167" t="n">
-        <v>0.03389174482179295</v>
+        <v>0.02791519150996648</v>
       </c>
       <c r="K167" t="n">
-        <v>0.06935101498246528</v>
+        <v>0.09331423978420457</v>
       </c>
       <c r="L167" t="n">
-        <v>0.07202524586602205</v>
+        <v>0.05854917840686666</v>
       </c>
       <c r="M167" t="n">
-        <v>0.06904188493985729</v>
+        <v>0.09298860263185937</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1015329839816153</v>
+        <v>0.08351623645107342</v>
       </c>
       <c r="O167" t="n">
-        <v>0.06905086385898435</v>
+        <v>0.09298958104783241</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.03419134703870494</v>
+        <v>0.0274143368676813</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07003092689405807</v>
+        <v>0.09422908527228502</v>
       </c>
       <c r="J168" t="n">
-        <v>0.03419134703870494</v>
+        <v>0.0274143368676813</v>
       </c>
       <c r="K168" t="n">
-        <v>0.07003092689405807</v>
+        <v>0.09422908527228502</v>
       </c>
       <c r="L168" t="n">
-        <v>0.07201883486641089</v>
+        <v>0.05614271042327709</v>
       </c>
       <c r="M168" t="n">
-        <v>0.06971876616475785</v>
+        <v>0.09390025559883838</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1020244306905435</v>
+        <v>0.08499200922603689</v>
       </c>
       <c r="O168" t="n">
-        <v>0.0697278331125038</v>
+        <v>0.09390124360712489</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.03321746400384995</v>
+        <v>0.0267120906934132</v>
       </c>
       <c r="G169" t="n">
-        <v>0.07071083880565088</v>
+        <v>0.09514393076036545</v>
       </c>
       <c r="J169" t="n">
-        <v>0.03321746400384995</v>
+        <v>0.0267120906934132</v>
       </c>
       <c r="K169" t="n">
-        <v>0.07071083880565088</v>
+        <v>0.09514393076036545</v>
       </c>
       <c r="L169" t="n">
-        <v>0.07028811235249502</v>
+        <v>0.05503004642193343</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07039564738965842</v>
+        <v>0.09481190856581741</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1047401771632922</v>
+        <v>0.08958668759923266</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07040480236602326</v>
+        <v>0.09481290616641735</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.03311564817439756</v>
+        <v>0.02696917940496985</v>
       </c>
       <c r="G170" t="n">
-        <v>0.07139075071724366</v>
+        <v>0.09605877624844589</v>
       </c>
       <c r="J170" t="n">
-        <v>0.03311564817439756</v>
+        <v>0.02696917940496985</v>
       </c>
       <c r="K170" t="n">
-        <v>0.07139075071724366</v>
+        <v>0.09605877624844589</v>
       </c>
       <c r="L170" t="n">
-        <v>0.06775508779918693</v>
+        <v>0.05640559410275217</v>
       </c>
       <c r="M170" t="n">
-        <v>0.07107252861455898</v>
+        <v>0.09572356153279642</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1138169783446172</v>
+        <v>0.08685320565815591</v>
       </c>
       <c r="O170" t="n">
-        <v>0.07108177161954271</v>
+        <v>0.09572456872570982</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.0332298781533813</v>
+        <v>0.02747306845698103</v>
       </c>
       <c r="G171" t="n">
-        <v>0.07207066262883646</v>
+        <v>0.09697362173652632</v>
       </c>
       <c r="J171" t="n">
-        <v>0.0332298781533813</v>
+        <v>0.02747306845698103</v>
       </c>
       <c r="K171" t="n">
-        <v>0.07207066262883646</v>
+        <v>0.09697362173652632</v>
       </c>
       <c r="L171" t="n">
-        <v>0.0736659874706404</v>
+        <v>0.05617276951800254</v>
       </c>
       <c r="M171" t="n">
-        <v>0.07174940983945954</v>
+        <v>0.09663521449977543</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1118317633829171</v>
+        <v>0.08856362281324159</v>
       </c>
       <c r="O171" t="n">
-        <v>0.07175874087306217</v>
+        <v>0.09663623128500232</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.03508257461875501</v>
+        <v>0.02759823889550968</v>
       </c>
       <c r="G172" t="n">
-        <v>0.07275057454042927</v>
+        <v>0.09788846722460676</v>
       </c>
       <c r="J172" t="n">
-        <v>0.03508257461875501</v>
+        <v>0.02759823889550968</v>
       </c>
       <c r="K172" t="n">
-        <v>0.07275057454042927</v>
+        <v>0.09788846722460676</v>
       </c>
       <c r="L172" t="n">
-        <v>0.07246846762171963</v>
+        <v>0.05647365010577238</v>
       </c>
       <c r="M172" t="n">
-        <v>0.07242629106436009</v>
+        <v>0.09754686746675445</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1142402194326498</v>
+        <v>0.08465012705121994</v>
       </c>
       <c r="O172" t="n">
-        <v>0.07243571012658161</v>
+        <v>0.09754789384429478</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.03557512717355928</v>
+        <v>0.02719566954106291</v>
       </c>
       <c r="G173" t="n">
-        <v>0.07343048645202206</v>
+        <v>0.09880331271268719</v>
       </c>
       <c r="J173" t="n">
-        <v>0.03557512717355928</v>
+        <v>0.02719566954106291</v>
       </c>
       <c r="K173" t="n">
-        <v>0.07343048645202206</v>
+        <v>0.09880331271268719</v>
       </c>
       <c r="L173" t="n">
-        <v>0.07239186597836372</v>
+        <v>0.05599480118566058</v>
       </c>
       <c r="M173" t="n">
-        <v>0.07310317228926067</v>
+        <v>0.09845852043373346</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1102149734107013</v>
+        <v>0.08403636856776331</v>
       </c>
       <c r="O173" t="n">
-        <v>0.07311267938010108</v>
+        <v>0.09845955640358725</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.03251525373926549</v>
+        <v>0.02751776823890775</v>
       </c>
       <c r="G174" t="n">
-        <v>0.07411039836361485</v>
+        <v>0.09971815820076764</v>
       </c>
       <c r="J174" t="n">
-        <v>0.03251525373926549</v>
+        <v>0.02751776823890775</v>
       </c>
       <c r="K174" t="n">
-        <v>0.07411039836361485</v>
+        <v>0.09971815820076764</v>
       </c>
       <c r="L174" t="n">
-        <v>0.06933566667570698</v>
+        <v>0.05934969246238028</v>
       </c>
       <c r="M174" t="n">
-        <v>0.07378005351416123</v>
+        <v>0.09937017340071247</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1101762906427337</v>
+        <v>0.09063345976675929</v>
       </c>
       <c r="O174" t="n">
-        <v>0.07378964863362052</v>
+        <v>0.09937121896287973</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.03575671090081617</v>
+        <v>0.02748104183354827</v>
       </c>
       <c r="G175" t="n">
-        <v>0.07479031027520765</v>
+        <v>0.1006330036888481</v>
       </c>
       <c r="J175" t="n">
-        <v>0.03575671090081617</v>
+        <v>0.02748104183354827</v>
       </c>
       <c r="K175" t="n">
-        <v>0.07479031027520765</v>
+        <v>0.1006330036888481</v>
       </c>
       <c r="L175" t="n">
-        <v>0.06913256283250865</v>
+        <v>0.05716281951474442</v>
       </c>
       <c r="M175" t="n">
-        <v>0.07445693473906179</v>
+        <v>0.1002818263676915</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1052606557036678</v>
+        <v>0.08678575328453841</v>
       </c>
       <c r="O175" t="n">
-        <v>0.07446661788713999</v>
+        <v>0.1002828815221722</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.03249890649585033</v>
+        <v>0.02781308975881318</v>
       </c>
       <c r="G176" t="n">
-        <v>0.07547022218680045</v>
+        <v>0.1015478491769285</v>
       </c>
       <c r="J176" t="n">
-        <v>0.03249890649585033</v>
+        <v>0.02781308975881318</v>
       </c>
       <c r="K176" t="n">
-        <v>0.07547022218680045</v>
+        <v>0.1015478491769285</v>
       </c>
       <c r="L176" t="n">
-        <v>0.07034396324626882</v>
+        <v>0.0584120093028761</v>
       </c>
       <c r="M176" t="n">
-        <v>0.07513381596396235</v>
+        <v>0.1011934793346705</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1096250922157468</v>
+        <v>0.08667739150659343</v>
       </c>
       <c r="O176" t="n">
-        <v>0.07514358714065943</v>
+        <v>0.1011945440814647</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.03387969941164383</v>
+        <v>0.02873870804210546</v>
       </c>
       <c r="G177" t="n">
-        <v>0.07615013409839325</v>
+        <v>0.1024626946650089</v>
       </c>
       <c r="J177" t="n">
-        <v>0.03387969941164383</v>
+        <v>0.02873870804210546</v>
       </c>
       <c r="K177" t="n">
-        <v>0.07615013409839325</v>
+        <v>0.1024626946650089</v>
       </c>
       <c r="L177" t="n">
-        <v>0.0670951974074902</v>
+        <v>0.05843277105202652</v>
       </c>
       <c r="M177" t="n">
-        <v>0.07581069718886291</v>
+        <v>0.1021051323016495</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1070783891244193</v>
+        <v>0.08709963489167888</v>
       </c>
       <c r="O177" t="n">
-        <v>0.0758205563941789</v>
+        <v>0.1021062066407572</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.03507326386267613</v>
+        <v>0.02781946861059649</v>
       </c>
       <c r="G178" t="n">
-        <v>0.07683004600998604</v>
+        <v>0.1033775401530894</v>
       </c>
       <c r="J178" t="n">
-        <v>0.03507326386267613</v>
+        <v>0.02781946861059649</v>
       </c>
       <c r="K178" t="n">
-        <v>0.07683004600998604</v>
+        <v>0.1033775401530894</v>
       </c>
       <c r="L178" t="n">
-        <v>0.07414706306776087</v>
+        <v>0.05702400649468822</v>
       </c>
       <c r="M178" t="n">
-        <v>0.07648757841376347</v>
+        <v>0.1030167852686285</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1074206181401523</v>
+        <v>0.0889108411802933</v>
       </c>
       <c r="O178" t="n">
-        <v>0.07649752564769834</v>
+        <v>0.1030178692000496</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.03454049235981053</v>
+        <v>0.02826061012245179</v>
       </c>
       <c r="G179" t="n">
-        <v>0.07750995792157883</v>
+        <v>0.1042923856411698</v>
       </c>
       <c r="J179" t="n">
-        <v>0.03454049235981053</v>
+        <v>0.02826061012245179</v>
       </c>
       <c r="K179" t="n">
-        <v>0.07750995792157883</v>
+        <v>0.1042923856411698</v>
       </c>
       <c r="L179" t="n">
-        <v>0.06969579872848422</v>
+        <v>0.05953797168630237</v>
       </c>
       <c r="M179" t="n">
-        <v>0.07716445963866403</v>
+        <v>0.1039284382356075</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1076033939187853</v>
+        <v>0.0869379455778288</v>
       </c>
       <c r="O179" t="n">
-        <v>0.0771744949012178</v>
+        <v>0.1039295317593421</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.0344391912605215</v>
+        <v>0.02791183263280057</v>
       </c>
       <c r="G180" t="n">
-        <v>0.07818986983317164</v>
+        <v>0.1052072311292503</v>
       </c>
       <c r="J180" t="n">
-        <v>0.0344391912605215</v>
+        <v>0.02791183263280057</v>
       </c>
       <c r="K180" t="n">
-        <v>0.07818986983317164</v>
+        <v>0.1052072311292503</v>
       </c>
       <c r="L180" t="n">
-        <v>0.07410615618578373</v>
+        <v>0.05885028093020062</v>
       </c>
       <c r="M180" t="n">
-        <v>0.07784134086356459</v>
+        <v>0.1048400912025866</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1096021109842871</v>
+        <v>0.08940090804501322</v>
       </c>
       <c r="O180" t="n">
-        <v>0.07785146415473725</v>
+        <v>0.1048411943186346</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.03243120622458863</v>
+        <v>0.02805701593293435</v>
       </c>
       <c r="G181" t="n">
-        <v>0.07886978174476443</v>
+        <v>0.1061220766173307</v>
       </c>
       <c r="J181" t="n">
-        <v>0.03243120622458863</v>
+        <v>0.02805701593293435</v>
       </c>
       <c r="K181" t="n">
-        <v>0.07886978174476443</v>
+        <v>0.1061220766173307</v>
       </c>
       <c r="L181" t="n">
-        <v>0.06592470942329912</v>
+        <v>0.05737587663931831</v>
       </c>
       <c r="M181" t="n">
-        <v>0.07851822208846515</v>
+        <v>0.1057517441695656</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1046832896530692</v>
+        <v>0.0898979012125895</v>
       </c>
       <c r="O181" t="n">
-        <v>0.07852843340825671</v>
+        <v>0.1057528568779271</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.03281084563259125</v>
+        <v>0.02919647570137421</v>
       </c>
       <c r="G182" t="n">
-        <v>0.07954969365635722</v>
+        <v>0.1070369221054111</v>
       </c>
       <c r="J182" t="n">
-        <v>0.03281084563259125</v>
+        <v>0.02919647570137421</v>
       </c>
       <c r="K182" t="n">
-        <v>0.07954969365635722</v>
+        <v>0.1070369221054111</v>
       </c>
       <c r="L182" t="n">
-        <v>0.067398403859072</v>
+        <v>0.06069161506549731</v>
       </c>
       <c r="M182" t="n">
-        <v>0.07919510331336573</v>
+        <v>0.1066633971365446</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1130368315284173</v>
+        <v>0.09142985329542164</v>
       </c>
       <c r="O182" t="n">
-        <v>0.07920540266177616</v>
+        <v>0.1066645194372195</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.0340716995072618</v>
+        <v>0.02898904043804984</v>
       </c>
       <c r="G183" t="n">
-        <v>0.08022960556795003</v>
+        <v>0.1079517675934916</v>
       </c>
       <c r="J183" t="n">
-        <v>0.0340716995072618</v>
+        <v>0.02898904043804984</v>
       </c>
       <c r="K183" t="n">
-        <v>0.08022960556795003</v>
+        <v>0.1079517675934916</v>
       </c>
       <c r="L183" t="n">
-        <v>0.07031354884642294</v>
+        <v>0.05874391688326849</v>
       </c>
       <c r="M183" t="n">
-        <v>0.07987198453826629</v>
+        <v>0.1075750501035236</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1061571181836162</v>
+        <v>0.09194953173022002</v>
       </c>
       <c r="O183" t="n">
-        <v>0.07988237191529561</v>
+        <v>0.107576181996512</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.03339058742766671</v>
+        <v>0.02880732136638525</v>
       </c>
       <c r="G184" t="n">
-        <v>0.08090951747954282</v>
+        <v>0.108866613081572</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03339058742766671</v>
+        <v>0.02880732136638525</v>
       </c>
       <c r="K184" t="n">
-        <v>0.08090951747954282</v>
+        <v>0.108866613081572</v>
       </c>
       <c r="L184" t="n">
-        <v>0.07303524247630849</v>
+        <v>0.06038005684190953</v>
       </c>
       <c r="M184" t="n">
-        <v>0.08054886576316683</v>
+        <v>0.1084867030705026</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1057699096833298</v>
+        <v>0.08913537107432334</v>
       </c>
       <c r="O184" t="n">
-        <v>0.08055934116881507</v>
+        <v>0.1084878445558045</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03391395197288133</v>
+        <v>0.02819541098106663</v>
       </c>
       <c r="G185" t="n">
-        <v>0.08158942939113563</v>
+        <v>0.1097814585696524</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03391395197288133</v>
+        <v>0.02819541098106663</v>
       </c>
       <c r="K185" t="n">
-        <v>0.08158942939113563</v>
+        <v>0.1097814585696524</v>
       </c>
       <c r="L185" t="n">
-        <v>0.07410818129399183</v>
+        <v>0.05842031022458205</v>
       </c>
       <c r="M185" t="n">
-        <v>0.08122574698806739</v>
+        <v>0.1093983560374816</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1116871030298188</v>
+        <v>0.0879904710489704</v>
       </c>
       <c r="O185" t="n">
-        <v>0.08123631042233452</v>
+        <v>0.1093995071150969</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.03512558028591384</v>
+        <v>0.02942504588639998</v>
       </c>
       <c r="G186" t="n">
-        <v>0.08226934130272841</v>
+        <v>0.1106963040577329</v>
       </c>
       <c r="J186" t="n">
-        <v>0.03512558028591384</v>
+        <v>0.02942504588639998</v>
       </c>
       <c r="K186" t="n">
-        <v>0.08226934130272841</v>
+        <v>0.1106963040577329</v>
       </c>
       <c r="L186" t="n">
-        <v>0.06712313200289483</v>
+        <v>0.05853478419194269</v>
       </c>
       <c r="M186" t="n">
-        <v>0.08190262821296797</v>
+        <v>0.1103100090044606</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1037833644247056</v>
+        <v>0.0887358765075219</v>
       </c>
       <c r="O186" t="n">
-        <v>0.08191327967585398</v>
+        <v>0.1103111696743894</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.03288652444705249</v>
+        <v>0.02958049442552191</v>
       </c>
       <c r="G187" t="n">
-        <v>0.08294925321432121</v>
+        <v>0.1116111495458133</v>
       </c>
       <c r="J187" t="n">
-        <v>0.03288652444705249</v>
+        <v>0.02958049442552191</v>
       </c>
       <c r="K187" t="n">
-        <v>0.08294925321432121</v>
+        <v>0.1116111495458133</v>
       </c>
       <c r="L187" t="n">
-        <v>0.06682301248508382</v>
+        <v>0.06050957993428352</v>
       </c>
       <c r="M187" t="n">
-        <v>0.08257950943786853</v>
+        <v>0.1112216619714396</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1011609841117981</v>
+        <v>0.08913139417884325</v>
       </c>
       <c r="O187" t="n">
-        <v>0.08259024892937343</v>
+        <v>0.1112228322336819</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03524129599084454</v>
+        <v>0.02901963060348456</v>
       </c>
       <c r="G188" t="n">
-        <v>0.08362916512591401</v>
+        <v>0.1125259950338938</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03524129599084454</v>
+        <v>0.02901963060348456</v>
       </c>
       <c r="K188" t="n">
-        <v>0.08362916512591401</v>
+        <v>0.1125259950338938</v>
       </c>
       <c r="L188" t="n">
-        <v>0.06859050180977927</v>
+        <v>0.05797884135440229</v>
       </c>
       <c r="M188" t="n">
-        <v>0.08325639066276909</v>
+        <v>0.1121333149384187</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1011172930611917</v>
+        <v>0.08957253268818183</v>
       </c>
       <c r="O188" t="n">
-        <v>0.08326721818289289</v>
+        <v>0.1121344947929744</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03351792628576981</v>
+        <v>0.02972331392809192</v>
       </c>
       <c r="G189" t="n">
-        <v>0.08430907703750681</v>
+        <v>0.1134408405219742</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03351792628576981</v>
+        <v>0.02972331392809192</v>
       </c>
       <c r="K189" t="n">
-        <v>0.08430907703750681</v>
+        <v>0.1134408405219742</v>
       </c>
       <c r="L189" t="n">
-        <v>0.06872670050297525</v>
+        <v>0.05846460473395479</v>
       </c>
       <c r="M189" t="n">
-        <v>0.08393327188766965</v>
+        <v>0.1130449679053977</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1120602371511752</v>
+        <v>0.09363365155184544</v>
       </c>
       <c r="O189" t="n">
-        <v>0.08394418743641234</v>
+        <v>0.1130461573522669</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03336483669670366</v>
+        <v>0.02900852648126966</v>
       </c>
       <c r="G190" t="n">
-        <v>0.08498898894909961</v>
+        <v>0.1143556860100546</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03336483669670366</v>
+        <v>0.02900852648126966</v>
       </c>
       <c r="K190" t="n">
-        <v>0.08498898894909961</v>
+        <v>0.1143556860100546</v>
       </c>
       <c r="L190" t="n">
-        <v>0.07210352874837753</v>
+        <v>0.06084309178679964</v>
       </c>
       <c r="M190" t="n">
-        <v>0.08461015311257021</v>
+        <v>0.1139566208723767</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1091140705420559</v>
+        <v>0.09099570325808237</v>
       </c>
       <c r="O190" t="n">
-        <v>0.0846211566899318</v>
+        <v>0.1139578199115593</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03563426682520145</v>
+        <v>0.02841331382963172</v>
       </c>
       <c r="G191" t="n">
-        <v>0.0856689008606924</v>
+        <v>0.1152705314981351</v>
       </c>
       <c r="J191" t="n">
-        <v>0.03563426682520145</v>
+        <v>0.02841331382963172</v>
       </c>
       <c r="K191" t="n">
-        <v>0.0856689008606924</v>
+        <v>0.1152705314981351</v>
       </c>
       <c r="L191" t="n">
-        <v>0.06993225097856498</v>
+        <v>0.06208383109769677</v>
       </c>
       <c r="M191" t="n">
-        <v>0.08528703433747077</v>
+        <v>0.1148682738393557</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1019961164346775</v>
+        <v>0.09382733262620835</v>
       </c>
       <c r="O191" t="n">
-        <v>0.08529812594345125</v>
+        <v>0.1148694824708518</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03342721200818197</v>
+        <v>0.02906393462358246</v>
       </c>
       <c r="G192" t="n">
-        <v>0.08634881277228519</v>
+        <v>0.1161853769862155</v>
       </c>
       <c r="J192" t="n">
-        <v>0.03342721200818197</v>
+        <v>0.02906393462358246</v>
       </c>
       <c r="K192" t="n">
-        <v>0.08634881277228519</v>
+        <v>0.1161853769862155</v>
       </c>
       <c r="L192" t="n">
-        <v>0.07232495332476513</v>
+        <v>0.0606841687468378</v>
       </c>
       <c r="M192" t="n">
-        <v>0.08596391556237133</v>
+        <v>0.1157799268063347</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1027936303857973</v>
+        <v>0.09321970468361351</v>
       </c>
       <c r="O192" t="n">
-        <v>0.08597509519697071</v>
+        <v>0.1157811450301443</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03579751422444581</v>
+        <v>0.02836757185413789</v>
       </c>
       <c r="G193" t="n">
-        <v>0.087028724683878</v>
+        <v>0.1171002224742959</v>
       </c>
       <c r="J193" t="n">
-        <v>0.03579751422444581</v>
+        <v>0.02836757185413789</v>
       </c>
       <c r="K193" t="n">
-        <v>0.087028724683878</v>
+        <v>0.1171002224742959</v>
       </c>
       <c r="L193" t="n">
-        <v>0.06971279628041679</v>
+        <v>0.06260074815155683</v>
       </c>
       <c r="M193" t="n">
-        <v>0.08664079678727189</v>
+        <v>0.1166915797733137</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1137782738330358</v>
+        <v>0.09449090317527242</v>
       </c>
       <c r="O193" t="n">
-        <v>0.08665206445049016</v>
+        <v>0.1166928075894367</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03557345404698121</v>
+        <v>0.02910199183579255</v>
       </c>
       <c r="G194" t="n">
-        <v>0.08770863659547079</v>
+        <v>0.1180150679623764</v>
       </c>
       <c r="J194" t="n">
-        <v>0.03557345404698121</v>
+        <v>0.02910199183579255</v>
       </c>
       <c r="K194" t="n">
-        <v>0.08770863659547079</v>
+        <v>0.1180150679623764</v>
       </c>
       <c r="L194" t="n">
-        <v>0.06741960283174378</v>
+        <v>0.06030402163284446</v>
       </c>
       <c r="M194" t="n">
-        <v>0.08731767801217245</v>
+        <v>0.1176032327402927</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1005077666893003</v>
+        <v>0.09326272531267682</v>
       </c>
       <c r="O194" t="n">
-        <v>0.08732903370400961</v>
+        <v>0.1176044701487292</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03442355595379912</v>
+        <v>0.02999889777904179</v>
       </c>
       <c r="G195" t="n">
-        <v>0.08838854850706358</v>
+        <v>0.1189299134504568</v>
       </c>
       <c r="J195" t="n">
-        <v>0.03442355595379912</v>
+        <v>0.02999889777904179</v>
       </c>
       <c r="K195" t="n">
-        <v>0.08838854850706358</v>
+        <v>0.1189299134504568</v>
       </c>
       <c r="L195" t="n">
-        <v>0.07091957569516005</v>
+        <v>0.0610418158542026</v>
       </c>
       <c r="M195" t="n">
-        <v>0.08799455923707303</v>
+        <v>0.1185148857072718</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1077617793244028</v>
+        <v>0.09358416861546603</v>
       </c>
       <c r="O195" t="n">
-        <v>0.08800600295752907</v>
+        <v>0.1185161327080217</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.03288116798333116</v>
+        <v>0.02998984491396689</v>
       </c>
       <c r="G196" t="n">
-        <v>0.08906846041865639</v>
+        <v>0.1198447589385372</v>
       </c>
       <c r="J196" t="n">
-        <v>0.03288116798333116</v>
+        <v>0.02998984491396689</v>
       </c>
       <c r="K196" t="n">
-        <v>0.08906846041865639</v>
+        <v>0.1198447589385372</v>
       </c>
       <c r="L196" t="n">
-        <v>0.07256840751495586</v>
+        <v>0.06223078963426237</v>
       </c>
       <c r="M196" t="n">
-        <v>0.08867144046197359</v>
+        <v>0.1194265386742508</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1085783109770629</v>
+        <v>0.09481312621850391</v>
       </c>
       <c r="O196" t="n">
-        <v>0.08868297221104852</v>
+        <v>0.1194277952673142</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03383385519646204</v>
+        <v>0.02941577923612408</v>
       </c>
       <c r="G197" t="n">
-        <v>0.08974837233024918</v>
+        <v>0.1207596044266177</v>
       </c>
       <c r="J197" t="n">
-        <v>0.03383385519646204</v>
+        <v>0.02941577923612408</v>
       </c>
       <c r="K197" t="n">
-        <v>0.08974837233024918</v>
+        <v>0.1207596044266177</v>
       </c>
       <c r="L197" t="n">
-        <v>0.07202519989546374</v>
+        <v>0.05917661062732399</v>
       </c>
       <c r="M197" t="n">
-        <v>0.08934832168687414</v>
+        <v>0.1203381916412298</v>
       </c>
       <c r="N197" t="n">
-        <v>0.108053317071059</v>
+        <v>0.09281851199920249</v>
       </c>
       <c r="O197" t="n">
-        <v>0.08935994146456798</v>
+        <v>0.1203394578266066</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.03327243721581673</v>
+        <v>0.03031229399413138</v>
       </c>
       <c r="G198" t="n">
-        <v>0.09042828424184197</v>
+        <v>0.1216744499146981</v>
       </c>
       <c r="J198" t="n">
-        <v>0.03327243721581673</v>
+        <v>0.03031229399413138</v>
       </c>
       <c r="K198" t="n">
-        <v>0.09042828424184197</v>
+        <v>0.1216744499146981</v>
       </c>
       <c r="L198" t="n">
-        <v>0.07109281424979333</v>
+        <v>0.05977064666375409</v>
       </c>
       <c r="M198" t="n">
-        <v>0.0900252029117747</v>
+        <v>0.1212498446082088</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1132233751734924</v>
+        <v>0.09569911684524363</v>
       </c>
       <c r="O198" t="n">
-        <v>0.09003691071808743</v>
+        <v>0.1212511203858991</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03312088957510793</v>
+        <v>0.02920604326854576</v>
       </c>
       <c r="G199" t="n">
-        <v>0.09110819615343477</v>
+        <v>0.1225892954027786</v>
       </c>
       <c r="J199" t="n">
-        <v>0.03312088957510793</v>
+        <v>0.02920604326854576</v>
       </c>
       <c r="K199" t="n">
-        <v>0.09110819615343477</v>
+        <v>0.1225892954027786</v>
       </c>
       <c r="L199" t="n">
-        <v>0.06790558992657442</v>
+        <v>0.05954327056658298</v>
       </c>
       <c r="M199" t="n">
-        <v>0.09070208413667527</v>
+        <v>0.1221614975751878</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1043786857859988</v>
+        <v>0.09533472207722371</v>
       </c>
       <c r="O199" t="n">
-        <v>0.09071387997160689</v>
+        <v>0.1221627829451916</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.03389331161147188</v>
+        <v>0.02946469913975679</v>
       </c>
       <c r="G200" t="n">
-        <v>0.09178810806502757</v>
+        <v>0.123504140890859</v>
       </c>
       <c r="J200" t="n">
-        <v>0.03389331161147188</v>
+        <v>0.02946469913975679</v>
       </c>
       <c r="K200" t="n">
-        <v>0.09178810806502757</v>
+        <v>0.123504140890859</v>
       </c>
       <c r="L200" t="n">
-        <v>0.07387025036435454</v>
+        <v>0.06304617091453213</v>
       </c>
       <c r="M200" t="n">
-        <v>0.09137896536157583</v>
+        <v>0.1230731505421668</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1039669182830338</v>
+        <v>0.09678634168144162</v>
       </c>
       <c r="O200" t="n">
-        <v>0.09139084922512634</v>
+        <v>0.1230744455044841</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.03495256311837754</v>
+        <v>0.02987996727867374</v>
       </c>
       <c r="G201" t="n">
-        <v>0.09246801997662037</v>
+        <v>0.1244189863789394</v>
       </c>
       <c r="J201" t="n">
-        <v>0.03495256311837754</v>
+        <v>0.02987996727867374</v>
       </c>
       <c r="K201" t="n">
-        <v>0.09246801997662037</v>
+        <v>0.1244189863789394</v>
       </c>
       <c r="L201" t="n">
-        <v>0.07377343337305081</v>
+        <v>0.06283039359026155</v>
       </c>
       <c r="M201" t="n">
-        <v>0.09205584658647639</v>
+        <v>0.1239848035091458</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1132178708868996</v>
+        <v>0.09354217926791791</v>
       </c>
       <c r="O201" t="n">
-        <v>0.0920678184786458</v>
+        <v>0.1239861080637766</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.03473415524344242</v>
+        <v>0.02957919315196914</v>
       </c>
       <c r="G202" t="n">
-        <v>0.09314793188821317</v>
+        <v>0.1253338318670199</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03473415524344242</v>
+        <v>0.02957919315196914</v>
       </c>
       <c r="K202" t="n">
-        <v>0.09314793188821317</v>
+        <v>0.1253338318670199</v>
       </c>
       <c r="L202" t="n">
-        <v>0.06831580917264507</v>
+        <v>0.06115395917279126</v>
       </c>
       <c r="M202" t="n">
-        <v>0.09273272781137695</v>
+        <v>0.1248964564761249</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1089562402661817</v>
+        <v>0.09096623623399358</v>
       </c>
       <c r="O202" t="n">
-        <v>0.09274478773216525</v>
+        <v>0.124897770623069</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.03481559892374363</v>
+        <v>0.02941847519337064</v>
       </c>
       <c r="G203" t="n">
-        <v>0.09382784379980595</v>
+        <v>0.1262486773551003</v>
       </c>
       <c r="J203" t="n">
-        <v>0.03481559892374363</v>
+        <v>0.02941847519337064</v>
       </c>
       <c r="K203" t="n">
-        <v>0.09382784379980595</v>
+        <v>0.1262486773551003</v>
       </c>
       <c r="L203" t="n">
-        <v>0.07243326803147437</v>
+        <v>0.05978174806888883</v>
       </c>
       <c r="M203" t="n">
-        <v>0.09340960903627751</v>
+        <v>0.1258081094431039</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1087210816084891</v>
+        <v>0.09295981335608333</v>
       </c>
       <c r="O203" t="n">
-        <v>0.09342175698568471</v>
+        <v>0.1258094331823615</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.03556939194194809</v>
+        <v>0.03003608302848701</v>
       </c>
       <c r="G204" t="n">
-        <v>0.09450775571139876</v>
+        <v>0.1271635228431807</v>
       </c>
       <c r="J204" t="n">
-        <v>0.03556939194194809</v>
+        <v>0.03003608302848701</v>
       </c>
       <c r="K204" t="n">
-        <v>0.09450775571139876</v>
+        <v>0.1271635228431807</v>
       </c>
       <c r="L204" t="n">
-        <v>0.07200731880072953</v>
+        <v>0.06110231465512211</v>
       </c>
       <c r="M204" t="n">
-        <v>0.09408649026117807</v>
+        <v>0.1267197624100829</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1107235246430962</v>
+        <v>0.09434671531699595</v>
       </c>
       <c r="O204" t="n">
-        <v>0.09409872623920416</v>
+        <v>0.126721095741654</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.0336182599996611</v>
+        <v>0.03080620309933553</v>
       </c>
       <c r="G205" t="n">
-        <v>0.09518766762299156</v>
+        <v>0.1280783683312612</v>
       </c>
       <c r="J205" t="n">
-        <v>0.0336182599996611</v>
+        <v>0.03080620309933553</v>
       </c>
       <c r="K205" t="n">
-        <v>0.09518766762299156</v>
+        <v>0.1280783683312612</v>
       </c>
       <c r="L205" t="n">
-        <v>0.07064632881536412</v>
+        <v>0.060662676291033</v>
       </c>
       <c r="M205" t="n">
-        <v>0.09476337148607863</v>
+        <v>0.1276314153770619</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1156364615234033</v>
+        <v>0.09599529208836988</v>
       </c>
       <c r="O205" t="n">
-        <v>0.09477569549272361</v>
+        <v>0.1276327583009464</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.03615445347450548</v>
+        <v>0.03034126973065236</v>
       </c>
       <c r="G206" t="n">
-        <v>0.09586757953458436</v>
+        <v>0.1289932138193416</v>
       </c>
       <c r="J206" t="n">
-        <v>0.03615445347450548</v>
+        <v>0.03034126973065236</v>
       </c>
       <c r="K206" t="n">
-        <v>0.09586757953458436</v>
+        <v>0.1289932138193416</v>
       </c>
       <c r="L206" t="n">
-        <v>0.07510258016792262</v>
+        <v>0.0623269772785327</v>
       </c>
       <c r="M206" t="n">
-        <v>0.0954402527109792</v>
+        <v>0.1285430683440409</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1064262415614997</v>
+        <v>0.09518678474130399</v>
       </c>
       <c r="O206" t="n">
-        <v>0.09545266474624307</v>
+        <v>0.1285444208602389</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.03351277587240348</v>
+        <v>0.03111845797643598</v>
       </c>
       <c r="G207" t="n">
-        <v>0.09654749144617715</v>
+        <v>0.1299080593074221</v>
       </c>
       <c r="J207" t="n">
-        <v>0.03351277587240348</v>
+        <v>0.03111845797643598</v>
       </c>
       <c r="K207" t="n">
-        <v>0.09654749144617715</v>
+        <v>0.1299080593074221</v>
       </c>
       <c r="L207" t="n">
-        <v>0.06990731822836901</v>
+        <v>0.06022071316840943</v>
       </c>
       <c r="M207" t="n">
-        <v>0.09611713393587977</v>
+        <v>0.1294547213110199</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1059177086368085</v>
+        <v>0.09365334946123233</v>
       </c>
       <c r="O207" t="n">
-        <v>0.09612963399976251</v>
+        <v>0.1294560834195314</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.03586614256120498</v>
+        <v>0.03033938653582562</v>
       </c>
       <c r="G208" t="n">
-        <v>0.09722740335776994</v>
+        <v>0.1308229047955025</v>
       </c>
       <c r="J208" t="n">
-        <v>0.03586614256120498</v>
+        <v>0.03033938653582562</v>
       </c>
       <c r="K208" t="n">
-        <v>0.09722740335776994</v>
+        <v>0.1308229047955025</v>
       </c>
       <c r="L208" t="n">
-        <v>0.06968999163927062</v>
+        <v>0.06363898243263275</v>
       </c>
       <c r="M208" t="n">
-        <v>0.09679401516078033</v>
+        <v>0.1303663742779989</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1150372452353615</v>
+        <v>0.09185558829647189</v>
       </c>
       <c r="O208" t="n">
-        <v>0.09680660325328198</v>
+        <v>0.1303677459788239</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.03649457737089803</v>
+        <v>0.03017035939852919</v>
       </c>
       <c r="G209" t="n">
-        <v>0.09790731526936275</v>
+        <v>0.1317377502835829</v>
       </c>
       <c r="J209" t="n">
-        <v>0.03649457737089803</v>
+        <v>0.03017035939852919</v>
       </c>
       <c r="K209" t="n">
-        <v>0.09790731526936275</v>
+        <v>0.1317377502835829</v>
       </c>
       <c r="L209" t="n">
-        <v>0.07104601978141306</v>
+        <v>0.06493567039429152</v>
       </c>
       <c r="M209" t="n">
-        <v>0.09747089638568088</v>
+        <v>0.1312780272449779</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1138962914397806</v>
+        <v>0.09359807108611184</v>
       </c>
       <c r="O209" t="n">
-        <v>0.09748357250680142</v>
+        <v>0.1312794085381163</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.03462449698912956</v>
+        <v>0.03041924155093806</v>
       </c>
       <c r="G210" t="n">
-        <v>0.09858722718095554</v>
+        <v>0.1326525957716634</v>
       </c>
       <c r="J210" t="n">
-        <v>0.03462449698912956</v>
+        <v>0.03041924155093806</v>
       </c>
       <c r="K210" t="n">
-        <v>0.09858722718095554</v>
+        <v>0.1326525957716634</v>
       </c>
       <c r="L210" t="n">
-        <v>0.07316447984158647</v>
+        <v>0.06112965039880033</v>
       </c>
       <c r="M210" t="n">
-        <v>0.09814777761058144</v>
+        <v>0.132189680211957</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1064894041309528</v>
+        <v>0.09581911504302082</v>
       </c>
       <c r="O210" t="n">
-        <v>0.09816054176032089</v>
+        <v>0.1321910710974088</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.03496854850912061</v>
+        <v>0.03124670064845855</v>
       </c>
       <c r="G211" t="n">
-        <v>0.09926713909254833</v>
+        <v>0.1335674412597438</v>
       </c>
       <c r="J211" t="n">
-        <v>0.03496854850912061</v>
+        <v>0.03124670064845855</v>
       </c>
       <c r="K211" t="n">
-        <v>0.09926713909254833</v>
+        <v>0.1335674412597438</v>
       </c>
       <c r="L211" t="n">
-        <v>0.07348613411119131</v>
+        <v>0.06434949008572388</v>
       </c>
       <c r="M211" t="n">
-        <v>0.09882465883548201</v>
+        <v>0.133101333178936</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1067548054074579</v>
+        <v>0.09592023423169038</v>
       </c>
       <c r="O211" t="n">
-        <v>0.09883751101384033</v>
+        <v>0.1331027336567013</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.03555615043856611</v>
+        <v>0.03141730453008874</v>
       </c>
       <c r="G212" t="n">
-        <v>0.09994705100414113</v>
+        <v>0.1344822867478243</v>
       </c>
       <c r="J212" t="n">
-        <v>0.03555615043856611</v>
+        <v>0.03141730453008874</v>
       </c>
       <c r="K212" t="n">
-        <v>0.09994705100414113</v>
+        <v>0.1344822867478243</v>
       </c>
       <c r="L212" t="n">
-        <v>0.07085733291510918</v>
+        <v>0.06253746553707834</v>
       </c>
       <c r="M212" t="n">
-        <v>0.09950154006038257</v>
+        <v>0.134012986145915</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1090805062907664</v>
+        <v>0.09639426175477367</v>
       </c>
       <c r="O212" t="n">
-        <v>0.0995144802673598</v>
+        <v>0.1340143962159938</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.03545196548794033</v>
+        <v>0.03105084182383661</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1006269629157339</v>
+        <v>0.1353971322359047</v>
       </c>
       <c r="J213" t="n">
-        <v>0.03545196548794033</v>
+        <v>0.03105084182383661</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1006269629157339</v>
+        <v>0.1353971322359047</v>
       </c>
       <c r="L213" t="n">
-        <v>0.07855051124656129</v>
+        <v>0.06213394478010958</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1001784212852831</v>
+        <v>0.134924639112894</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1136082535644858</v>
+        <v>0.09514422516106957</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1001914495208792</v>
+        <v>0.1349260587752862</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.03405754595711744</v>
+        <v>0.03024580420339273</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1013068748273267</v>
+        <v>0.1363119777239851</v>
       </c>
       <c r="J214" t="n">
-        <v>0.03405754595711744</v>
+        <v>0.03024580420339273</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1013068748273267</v>
+        <v>0.1363119777239851</v>
       </c>
       <c r="L214" t="n">
-        <v>0.07118130479175838</v>
+        <v>0.06417004766666418</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1008553025101837</v>
+        <v>0.135836292079873</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1179836396613712</v>
+        <v>0.09576460332046682</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1008684187743987</v>
+        <v>0.1358377213345787</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.03440090729377883</v>
+        <v>0.03039109058628053</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1019867867389195</v>
+        <v>0.1372268232120656</v>
       </c>
       <c r="J215" t="n">
-        <v>0.03440090729377883</v>
+        <v>0.03039109058628053</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1019867867389195</v>
+        <v>0.1372268232120656</v>
       </c>
       <c r="L215" t="n">
-        <v>0.0727269708066009</v>
+        <v>0.06463045268348161</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1015321837350843</v>
+        <v>0.136747945046852</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1187891309784816</v>
+        <v>0.09476776155006</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1015453880279182</v>
+        <v>0.1367493838938712</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.0368176615388334</v>
+        <v>0.03030904388281522</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1026666986505123</v>
+        <v>0.138141668700146</v>
       </c>
       <c r="J216" t="n">
-        <v>0.0368176615388334</v>
+        <v>0.03030904388281522</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1026666986505123</v>
+        <v>0.138141668700146</v>
       </c>
       <c r="L216" t="n">
-        <v>0.07571923569317313</v>
+        <v>0.06396316318485223</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1022090649599848</v>
+        <v>0.137659598013831</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1123676791706085</v>
+        <v>0.09447484576473664</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1022223572814376</v>
+        <v>0.1376610464531637</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.03443112619875649</v>
+        <v>0.03034088415814358</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1033466105621051</v>
+        <v>0.1390565141882264</v>
       </c>
       <c r="J217" t="n">
-        <v>0.03443112619875649</v>
+        <v>0.03034088415814358</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1033466105621051</v>
+        <v>0.1390565141882264</v>
       </c>
       <c r="L217" t="n">
-        <v>0.07177600885449828</v>
+        <v>0.06471743307233363</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1028859461848854</v>
+        <v>0.1385712509808101</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1139488747327111</v>
+        <v>0.09542484050939987</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1028993265349571</v>
+        <v>0.1385727090124561</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.03418805116523788</v>
+        <v>0.03129112900807086</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1040265224736979</v>
+        <v>0.1399713596763069</v>
       </c>
       <c r="J218" t="n">
-        <v>0.03418805116523788</v>
+        <v>0.03129112900807086</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1040265224736979</v>
+        <v>0.1399713596763069</v>
       </c>
       <c r="L218" t="n">
-        <v>0.07123450730824277</v>
+        <v>0.0642774629324977</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1035628274097859</v>
+        <v>0.1394829039477891</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1093670115275425</v>
+        <v>0.09708064675070266</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1035762957884765</v>
+        <v>0.1394843715717486</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.03598228869635277</v>
+        <v>0.0316160394320557</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1047064343852907</v>
+        <v>0.1408862051643873</v>
       </c>
       <c r="J219" t="n">
-        <v>0.03598228869635277</v>
+        <v>0.0316160394320557</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1047064343852907</v>
+        <v>0.1408862051643873</v>
       </c>
       <c r="L219" t="n">
-        <v>0.07133698868204547</v>
+        <v>0.06381468805142898</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1042397086346865</v>
+        <v>0.1403945569147681</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1047761841902381</v>
+        <v>0.0949434446815105</v>
       </c>
       <c r="O219" t="n">
-        <v>0.104253265041996</v>
+        <v>0.1403960341310411</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.03497134389884173</v>
+        <v>0.0314604813252251</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1053863462968835</v>
+        <v>0.1418010506524677</v>
       </c>
       <c r="J220" t="n">
-        <v>0.03497134389884173</v>
+        <v>0.0314604813252251</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1053863462968835</v>
+        <v>0.1418010506524677</v>
       </c>
       <c r="L220" t="n">
-        <v>0.07377676257536606</v>
+        <v>0.06300191563483115</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1049165898595871</v>
+        <v>0.1413062098817471</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1168871608729605</v>
+        <v>0.09816294317349655</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1049302342955154</v>
+        <v>0.1413076966903336</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.03442726210083272</v>
+        <v>0.0311450740185738</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1060662582084763</v>
+        <v>0.1427158961405482</v>
       </c>
       <c r="J221" t="n">
-        <v>0.03442726210083272</v>
+        <v>0.0311450740185738</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1060662582084763</v>
+        <v>0.1427158961405482</v>
       </c>
       <c r="L221" t="n">
-        <v>0.07162354967617768</v>
+        <v>0.06691715344831212</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1055934710844876</v>
+        <v>0.1422178628487261</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1112940169644447</v>
+        <v>0.09931454022543018</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1056072035490349</v>
+        <v>0.142219359249626</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.03529839327963311</v>
+        <v>0.03054133866687561</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1067461701200691</v>
+        <v>0.1436307416286286</v>
       </c>
       <c r="J222" t="n">
-        <v>0.03529839327963311</v>
+        <v>0.03054133866687561</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1067461701200691</v>
+        <v>0.1436307416286286</v>
       </c>
       <c r="L222" t="n">
-        <v>0.07052284915864712</v>
+        <v>0.06506992584225824</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1062703523093882</v>
+        <v>0.1431295158157051</v>
       </c>
       <c r="N222" t="n">
-        <v>0.111300306526275</v>
+        <v>0.09518443649199143</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1062841728025544</v>
+        <v>0.1431310218089185</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.0352602100288763</v>
+        <v>0.03211430679288976</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1074260820316619</v>
+        <v>0.144545587116709</v>
       </c>
       <c r="J223" t="n">
-        <v>0.0352602100288763</v>
+        <v>0.03211430679288976</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1074260820316619</v>
+        <v>0.144545587116709</v>
       </c>
       <c r="L223" t="n">
-        <v>0.06982464022305598</v>
+        <v>0.06479211129175233</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1069472335342887</v>
+        <v>0.1440411687826841</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1169135656404976</v>
+        <v>0.0965618644234314</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1069611420560738</v>
+        <v>0.144042684368211</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.03595184965172341</v>
+        <v>0.03093540117646536</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1081059939432547</v>
+        <v>0.1454604326047895</v>
       </c>
       <c r="J224" t="n">
-        <v>0.03595184965172341</v>
+        <v>0.03093540117646536</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1081059939432547</v>
+        <v>0.1454604326047895</v>
       </c>
       <c r="L224" t="n">
-        <v>0.07572889354038409</v>
+        <v>0.06480336246257198</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1076241147591893</v>
+        <v>0.1449528217496631</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1155240236057377</v>
+        <v>0.09997509550927625</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1076381113095932</v>
+        <v>0.1449543469275035</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.03636556184464203</v>
+        <v>0.03249032217263916</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1087859058548475</v>
+        <v>0.1463752780928699</v>
       </c>
       <c r="J225" t="n">
-        <v>0.03636556184464203</v>
+        <v>0.03249032217263916</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1087859058548475</v>
+        <v>0.1463752780928699</v>
       </c>
       <c r="L225" t="n">
-        <v>0.07665252322911362</v>
+        <v>0.06356154292647626</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1083009959840899</v>
+        <v>0.1458644747166422</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1038329124672762</v>
+        <v>0.1005931663186979</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1083150805631127</v>
+        <v>0.1458660094867959</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.03459504435429187</v>
+        <v>0.03104154159012837</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1094658177664403</v>
+        <v>0.1472901235809504</v>
       </c>
       <c r="J226" t="n">
-        <v>0.03459504435429187</v>
+        <v>0.03104154159012837</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1094658177664403</v>
+        <v>0.1472901235809504</v>
       </c>
       <c r="L226" t="n">
-        <v>0.07316946477211883</v>
+        <v>0.06681404968753818</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1089778772089904</v>
+        <v>0.1467761276836212</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1127349253300842</v>
+        <v>0.09860920107646071</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1089920498166321</v>
+        <v>0.1467776720460884</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.03421895077611553</v>
+        <v>0.03159651742911598</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1101457296780331</v>
+        <v>0.1482049690690308</v>
       </c>
       <c r="J227" t="n">
-        <v>0.03421895077611553</v>
+        <v>0.03159651742911598</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1101457296780331</v>
+        <v>0.1482049690690308</v>
       </c>
       <c r="L227" t="n">
-        <v>0.07053042639635279</v>
+        <v>0.06771831657613259</v>
       </c>
       <c r="M227" t="n">
-        <v>0.109654758433891</v>
+        <v>0.1476877806506002</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1029339482973762</v>
+        <v>0.09930716910735193</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1096690190701516</v>
+        <v>0.1476893346053809</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.03524618296482143</v>
+        <v>0.03161850112435542</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1108256415896259</v>
+        <v>0.1491198145571112</v>
       </c>
       <c r="J228" t="n">
-        <v>0.03524618296482143</v>
+        <v>0.03161850112435542</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1108256415896259</v>
+        <v>0.1491198145571112</v>
       </c>
       <c r="L228" t="n">
-        <v>0.07258107253569596</v>
+        <v>0.06389672761695611</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1103316396587916</v>
+        <v>0.1485994336175792</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1091786573542599</v>
+        <v>0.09776884319271645</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1103459883236711</v>
+        <v>0.1486009971646733</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.03433990530180352</v>
+        <v>0.03246071939693591</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1115055535012187</v>
+        <v>0.1500346600451917</v>
       </c>
       <c r="J229" t="n">
-        <v>0.03433990530180352</v>
+        <v>0.03246071939693591</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1115055535012187</v>
+        <v>0.1500346600451917</v>
       </c>
       <c r="L229" t="n">
-        <v>0.07133215671677079</v>
+        <v>0.06781306825040026</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1110085208836921</v>
+        <v>0.1495110865845582</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1038688425147691</v>
+        <v>0.1030343356365049</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1110229575771905</v>
+        <v>0.1495126597239659</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.03411708416587973</v>
+        <v>0.03182358353584677</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1121854654128115</v>
+        <v>0.1509495055332721</v>
       </c>
       <c r="J230" t="n">
-        <v>0.03411708416587973</v>
+        <v>0.03182358353584677</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1121854654128115</v>
+        <v>0.1509495055332721</v>
       </c>
       <c r="L230" t="n">
-        <v>0.07273082245969162</v>
+        <v>0.06667287478133596</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1116854021085927</v>
+        <v>0.1504227395515372</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1069974816612739</v>
+        <v>0.1003877154334946</v>
       </c>
       <c r="O230" t="n">
-        <v>0.11169992683071</v>
+        <v>0.1504243222832583</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.03548044317672377</v>
+        <v>0.03194972904712928</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1128653773244043</v>
+        <v>0.1518643510213525</v>
       </c>
       <c r="J231" t="n">
-        <v>0.03548044317672377</v>
+        <v>0.03194972904712928</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1128653773244043</v>
+        <v>0.1518643510213525</v>
       </c>
       <c r="L231" t="n">
-        <v>0.06840937475335945</v>
+        <v>0.06791248111284032</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1123622833334932</v>
+        <v>0.1513343925185162</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1138743258249923</v>
+        <v>0.09774942418355215</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1123768960842294</v>
+        <v>0.1513359848425508</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.03322731751776935</v>
+        <v>0.03200198411235719</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1135452892359971</v>
+        <v>0.152779196509433</v>
       </c>
       <c r="J232" t="n">
-        <v>0.03322731751776935</v>
+        <v>0.03200198411235719</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1135452892359971</v>
+        <v>0.152779196509433</v>
       </c>
       <c r="L232" t="n">
-        <v>0.07280488165295279</v>
+        <v>0.06685162803074199</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1130391645583938</v>
+        <v>0.1522460454854953</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1113762747324751</v>
+        <v>0.1002261419237026</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1130538653377489</v>
+        <v>0.1522476474018432</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.03576803700781304</v>
+        <v>0.03213063535607784</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1142252011475899</v>
+        <v>0.1536940419975134</v>
       </c>
       <c r="J233" t="n">
-        <v>0.03576803700781304</v>
+        <v>0.03213063535607784</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1142252011475899</v>
+        <v>0.1536940419975134</v>
       </c>
       <c r="L233" t="n">
-        <v>0.07620223349064567</v>
+        <v>0.06703355031042776</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1137160457832944</v>
+        <v>0.1531576984524743</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1067428933044759</v>
+        <v>0.09941537420784796</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1137308345912683</v>
+        <v>0.1531593099611357</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.03327557230748192</v>
+        <v>0.03158848868593397</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1149051130591827</v>
+        <v>0.1546088874855939</v>
       </c>
       <c r="J234" t="n">
-        <v>0.03327557230748192</v>
+        <v>0.03158848868593397</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1149051130591827</v>
+        <v>0.1546088874855939</v>
       </c>
       <c r="L234" t="n">
-        <v>0.07332106201321628</v>
+        <v>0.06615251904719943</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1143929270081949</v>
+        <v>0.1540693514194533</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1092358842327679</v>
+        <v>0.09859406825753186</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1144078038447878</v>
+        <v>0.1540709725204282</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.03502434755265271</v>
+        <v>0.0328001735201663</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1155850249707755</v>
+        <v>0.1555237329736743</v>
       </c>
       <c r="J235" t="n">
-        <v>0.03502434755265271</v>
+        <v>0.0328001735201663</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1155850249707755</v>
+        <v>0.1555237329736743</v>
       </c>
       <c r="L235" t="n">
-        <v>0.06791951957253042</v>
+        <v>0.06768262265644023</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1150698082330955</v>
+        <v>0.1549810043864323</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1075113169248429</v>
+        <v>0.104514825279582</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1150847730983073</v>
+        <v>0.1549826350797207</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.03573316830158228</v>
+        <v>0.03205131876713187</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1162649368823682</v>
+        <v>0.1564385784617547</v>
       </c>
       <c r="J236" t="n">
-        <v>0.03573316830158228</v>
+        <v>0.03205131876713187</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1162649368823682</v>
+        <v>0.1564385784617547</v>
       </c>
       <c r="L236" t="n">
-        <v>0.07022321982965088</v>
+        <v>0.06513840232190451</v>
       </c>
       <c r="M236" t="n">
-        <v>0.115746689457996</v>
+        <v>0.1558926573534113</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1070317126161236</v>
+        <v>0.104719905390969</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1157617423518267</v>
+        <v>0.1558942976390132</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.03489394300696919</v>
+        <v>0.03331210418334928</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1169448487939611</v>
+        <v>0.1573534239498352</v>
       </c>
       <c r="J237" t="n">
-        <v>0.03489394300696919</v>
+        <v>0.03331210418334928</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1169448487939611</v>
+        <v>0.1573534239498352</v>
       </c>
       <c r="L237" t="n">
-        <v>0.06747296943132011</v>
+        <v>0.06847607115108895</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1164235706828966</v>
+        <v>0.1568043103203903</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1099299715648634</v>
+        <v>0.1036435281361177</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1164387116053461</v>
+        <v>0.1568059601983056</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.03546212221046363</v>
+        <v>0.0333419625580252</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1176247607055539</v>
+        <v>0.1582682694379156</v>
       </c>
       <c r="J238" t="n">
-        <v>0.03546212221046363</v>
+        <v>0.0333419625580252</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1176247607055539</v>
+        <v>0.1582682694379156</v>
       </c>
       <c r="L238" t="n">
-        <v>0.07437788350733418</v>
+        <v>0.06747967031130234</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1171004519077972</v>
+        <v>0.1577159632873693</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1043091850140554</v>
+        <v>0.1049179084961826</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1171156808588656</v>
+        <v>0.1577176227575981</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.03551848406477261</v>
+        <v>0.03220162437081396</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1183046726171467</v>
+        <v>0.159183114925996</v>
       </c>
       <c r="J239" t="n">
-        <v>0.03551848406477261</v>
+        <v>0.03220162437081396</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1183046726171467</v>
+        <v>0.159183114925996</v>
       </c>
       <c r="L239" t="n">
-        <v>0.07111699221257542</v>
+        <v>0.06647149166097749</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1177773331326977</v>
+        <v>0.1586276162543483</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1152307886351296</v>
+        <v>0.101380494731193</v>
       </c>
       <c r="O239" t="n">
-        <v>0.117792650112385</v>
+        <v>0.1586292853168906</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.03463246400319708</v>
+        <v>0.03313407971692769</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1189845845287394</v>
+        <v>0.1600979604140765</v>
       </c>
       <c r="J240" t="n">
-        <v>0.03463246400319708</v>
+        <v>0.03313407971692769</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1189845845287394</v>
+        <v>0.1600979604140765</v>
       </c>
       <c r="L240" t="n">
-        <v>0.06766340082545644</v>
+        <v>0.06948952422807206</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1184542143575983</v>
+        <v>0.1595392692213274</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1136755280658855</v>
+        <v>0.09990450246633004</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1184696193659045</v>
+        <v>0.159540947876183</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.0348271710736747</v>
+        <v>0.03251473378943585</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1196644964403322</v>
+        <v>0.1610128059021569</v>
       </c>
       <c r="J241" t="n">
-        <v>0.0348271710736747</v>
+        <v>0.03251473378943585</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1196644964403322</v>
+        <v>0.1610128059021569</v>
       </c>
       <c r="L241" t="n">
-        <v>0.06971497756210845</v>
+        <v>0.06956806729473947</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1191310955824989</v>
+        <v>0.1604509221883064</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1125805771971826</v>
+        <v>0.1048962881787527</v>
       </c>
       <c r="O241" t="n">
-        <v>0.119146588619424</v>
+        <v>0.1604526104354755</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.03396270633367471</v>
+        <v>0.03241780498368968</v>
       </c>
       <c r="G242" t="n">
-        <v>0.120344408351925</v>
+        <v>0.1619276513902373</v>
       </c>
       <c r="J242" t="n">
-        <v>0.03396270633367471</v>
+        <v>0.03241780498368968</v>
       </c>
       <c r="K242" t="n">
-        <v>0.120344408351925</v>
+        <v>0.1619276513902373</v>
       </c>
       <c r="L242" t="n">
-        <v>0.06839958800266246</v>
+        <v>0.06621863486249502</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1198079768073994</v>
+        <v>0.1613625751552854</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1031549364833818</v>
+        <v>0.1049393957068473</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1198235578729434</v>
+        <v>0.161364272994768</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.03335100746654439</v>
+        <v>0.03303712299320508</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1210243202635178</v>
+        <v>0.1628424968783178</v>
       </c>
       <c r="J243" t="n">
-        <v>0.03335100746654439</v>
+        <v>0.03303712299320508</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1210243202635178</v>
+        <v>0.1628424968783178</v>
       </c>
       <c r="L243" t="n">
-        <v>0.07167296651779478</v>
+        <v>0.06833685622433849</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1204848580323</v>
+        <v>0.1622742281222644</v>
       </c>
       <c r="N243" t="n">
-        <v>0.1052199911656928</v>
+        <v>0.1039100729738704</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1205005271264629</v>
+        <v>0.1622759355540605</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.03292549956903888</v>
+        <v>0.0325318853025045</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1217042321751106</v>
+        <v>0.1637573423663982</v>
       </c>
       <c r="J244" t="n">
-        <v>0.03292549956903888</v>
+        <v>0.0325318853025045</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1217042321751106</v>
+        <v>0.1637573423663982</v>
       </c>
       <c r="L244" t="n">
-        <v>0.07385750014226963</v>
+        <v>0.06655706597927671</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1211617392572005</v>
+        <v>0.1631858810892434</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1024434445682948</v>
+        <v>0.1067234512346326</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1211774963799823</v>
+        <v>0.163187598113353</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.03546740275251896</v>
+        <v>0.03270145341252188</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1223841440867034</v>
+        <v>0.1646721878544787</v>
       </c>
       <c r="J245" t="n">
-        <v>0.03546740275251896</v>
+        <v>0.03270145341252188</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1223841440867034</v>
+        <v>0.1646721878544787</v>
       </c>
       <c r="L245" t="n">
-        <v>0.07077536792301481</v>
+        <v>0.06856580629940104</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1218386204821011</v>
+        <v>0.1640975340562224</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1068744738983327</v>
+        <v>0.1011943583290089</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1218544656335018</v>
+        <v>0.1640992606726454</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.03552347690761502</v>
+        <v>0.03384006264837064</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1230640559982962</v>
+        <v>0.1655870333425591</v>
       </c>
       <c r="J246" t="n">
-        <v>0.03552347690761502</v>
+        <v>0.03384006264837064</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1230640559982962</v>
+        <v>0.1655870333425591</v>
       </c>
       <c r="L246" t="n">
-        <v>0.06770668070025757</v>
+        <v>0.0699941823170146</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1225155017070017</v>
+        <v>0.1650091870232014</v>
       </c>
       <c r="N246" t="n">
-        <v>0.1095705664434843</v>
+        <v>0.1020241483518394</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1225314348870212</v>
+        <v>0.1650109232319379</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.03512450253777434</v>
+        <v>0.03360993915206886</v>
       </c>
       <c r="G247" t="n">
-        <v>0.123743967909889</v>
+        <v>0.1665018788306395</v>
       </c>
       <c r="J247" t="n">
-        <v>0.03512450253777434</v>
+        <v>0.03360993915206886</v>
       </c>
       <c r="K247" t="n">
-        <v>0.123743967909889</v>
+        <v>0.1665018788306395</v>
       </c>
       <c r="L247" t="n">
-        <v>0.06883105856535923</v>
+        <v>0.06726869289151927</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1231923829319022</v>
+        <v>0.1659208399901805</v>
       </c>
       <c r="N247" t="n">
-        <v>0.1121023626673107</v>
+        <v>0.1071070458933852</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1232084041405407</v>
+        <v>0.1659225857912304</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.03248523794506723</v>
+        <v>0.03341248758690979</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1244238798214818</v>
+        <v>0.16741672431872</v>
       </c>
       <c r="J248" t="n">
-        <v>0.03248523794506723</v>
+        <v>0.03341248758690979</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1244238798214818</v>
+        <v>0.16741672431872</v>
       </c>
       <c r="L248" t="n">
-        <v>0.06795246485965747</v>
+        <v>0.07128631920565043</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1238692641568028</v>
+        <v>0.1668324929571595</v>
       </c>
       <c r="N248" t="n">
-        <v>0.1054217399290278</v>
+        <v>0.1044797418966191</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1238853733940601</v>
+        <v>0.1668342483505229</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.03439740078463009</v>
+        <v>0.03393433443539887</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1251037917330746</v>
+        <v>0.1683315698068004</v>
       </c>
       <c r="J249" t="n">
-        <v>0.03439740078463009</v>
+        <v>0.03393433443539887</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1251037917330746</v>
+        <v>0.1683315698068004</v>
       </c>
       <c r="L249" t="n">
-        <v>0.0687024529401607</v>
+        <v>0.0691968291440421</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1245461453817033</v>
+        <v>0.1677441459241385</v>
       </c>
       <c r="N249" t="n">
-        <v>0.113652836434355</v>
+        <v>0.1021119061451138</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1245623426475796</v>
+        <v>0.1677459109098153</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.03503733536115974</v>
+        <v>0.033811292142593</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1257837036446674</v>
+        <v>0.1692464152948809</v>
       </c>
       <c r="J250" t="n">
-        <v>0.03503733536115974</v>
+        <v>0.033811292142593</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1257837036446674</v>
+        <v>0.1692464152948809</v>
       </c>
       <c r="L250" t="n">
-        <v>0.06882326259050742</v>
+        <v>0.07150938776271171</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1252230266066039</v>
+        <v>0.1686557988911175</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1090708859624775</v>
+        <v>0.1052841138060312</v>
       </c>
       <c r="O250" t="n">
-        <v>0.125239311901099</v>
+        <v>0.1686575734691078</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.03512223580135325</v>
+        <v>0.03430096930358131</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1264636155562602</v>
+        <v>0.1701612607829613</v>
       </c>
       <c r="J251" t="n">
-        <v>0.03512223580135325</v>
+        <v>0.03430096930358131</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1264636155562602</v>
+        <v>0.1701612607829613</v>
       </c>
       <c r="L251" t="n">
-        <v>0.07171632901093886</v>
+        <v>0.06773757103430753</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1258999078315045</v>
+        <v>0.1695674518580965</v>
       </c>
       <c r="N251" t="n">
-        <v>0.1145186769046855</v>
+        <v>0.1021877150431516</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1259162811546185</v>
+        <v>0.1695692360284003</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.03419907093831458</v>
+        <v>0.03455624173114644</v>
       </c>
       <c r="G252" t="n">
-        <v>0.127143527467853</v>
+        <v>0.1710761062710417</v>
       </c>
       <c r="J252" t="n">
-        <v>0.03419907093831458</v>
+        <v>0.03455624173114644</v>
       </c>
       <c r="K252" t="n">
-        <v>0.127143527467853</v>
+        <v>0.1710761062710417</v>
       </c>
       <c r="L252" t="n">
-        <v>0.06762169249102004</v>
+        <v>0.06763945917014452</v>
       </c>
       <c r="M252" t="n">
-        <v>0.126576789056405</v>
+        <v>0.1704791048250755</v>
       </c>
       <c r="N252" t="n">
-        <v>0.1120742954566768</v>
+        <v>0.1035699333187589</v>
       </c>
       <c r="O252" t="n">
-        <v>0.126593250408138</v>
+        <v>0.1704808985876927</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.03366768245482156</v>
+        <v>0.03370210077307759</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1278234393794458</v>
+        <v>0.1719909517591222</v>
       </c>
       <c r="J253" t="n">
-        <v>0.03366768245482156</v>
+        <v>0.03370210077307759</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1278234393794458</v>
+        <v>0.1719909517591222</v>
       </c>
       <c r="L253" t="n">
-        <v>0.06777345736190149</v>
+        <v>0.07101508597746478</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1272536702813056</v>
+        <v>0.1713907577920545</v>
       </c>
       <c r="N253" t="n">
-        <v>0.1084811534249769</v>
+        <v>0.1049270361346136</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1272702196616574</v>
+        <v>0.1713925611469852</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.03414665997188755</v>
+        <v>0.03342040868388055</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1285033512910386</v>
+        <v>0.1729057972472026</v>
       </c>
       <c r="J254" t="n">
-        <v>0.03414665997188755</v>
+        <v>0.03342040868388055</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1285033512910386</v>
+        <v>0.1729057972472026</v>
       </c>
       <c r="L254" t="n">
-        <v>0.06939246951345271</v>
+        <v>0.07202519989546374</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1279305515062062</v>
+        <v>0.1723024107590335</v>
       </c>
       <c r="N254" t="n">
-        <v>0.1062469700162066</v>
+        <v>0.109128809404498</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1279471889151769</v>
+        <v>0.1723042237062777</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.03360220884961278</v>
+        <v>0.0332047336098784</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1291832632026314</v>
+        <v>0.173820642735283</v>
       </c>
       <c r="J255" t="n">
-        <v>0.03360220884961278</v>
+        <v>0.0332047336098784</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1291832632026314</v>
+        <v>0.173820642735283</v>
       </c>
       <c r="L255" t="n">
-        <v>0.06722169780988724</v>
+        <v>0.07054871863795215</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1286074327311067</v>
+        <v>0.1732140637260126</v>
       </c>
       <c r="N255" t="n">
-        <v>0.1030402253289507</v>
+        <v>0.1066984579029249</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1286241581686963</v>
+        <v>0.1732158862655702</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.03432709000019089</v>
+        <v>0.03466174983464915</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1298631751142242</v>
+        <v>0.1747354882233635</v>
       </c>
       <c r="J256" t="n">
-        <v>0.03432709000019089</v>
+        <v>0.03466174983464915</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1298631751142242</v>
+        <v>0.1747354882233635</v>
       </c>
       <c r="L256" t="n">
-        <v>0.07549244026089669</v>
+        <v>0.07254231975988221</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1292843139560073</v>
+        <v>0.1741257166929916</v>
       </c>
       <c r="N256" t="n">
-        <v>0.1129781429498622</v>
+        <v>0.1028858416724004</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1293011274222158</v>
+        <v>0.1741275488248626</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.0349034647643636</v>
+        <v>0.03345923345481497</v>
       </c>
       <c r="G257" t="n">
-        <v>0.130543087025817</v>
+        <v>0.1756503337114439</v>
       </c>
       <c r="J257" t="n">
-        <v>0.0349034647643636</v>
+        <v>0.03345923345481497</v>
       </c>
       <c r="K257" t="n">
-        <v>0.130543087025817</v>
+        <v>0.1756503337114439</v>
       </c>
       <c r="L257" t="n">
-        <v>0.07284385512805167</v>
+        <v>0.07235294787477181</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1299611951809078</v>
+        <v>0.1750373696599706</v>
       </c>
       <c r="N257" t="n">
-        <v>0.1026293158325303</v>
+        <v>0.1091140705420559</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1299780966757353</v>
+        <v>0.1750392113841551</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.03541132931135209</v>
+        <v>0.03493632924887161</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1312229989374098</v>
+        <v>0.1765651791995244</v>
       </c>
       <c r="J258" t="n">
-        <v>0.03541132931135209</v>
+        <v>0.03493632924887161</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1312229989374098</v>
+        <v>0.1765651791995244</v>
       </c>
       <c r="L258" t="n">
-        <v>0.06982781750075306</v>
+        <v>0.06946484517226659</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1306380764058084</v>
+        <v>0.1759490226269496</v>
       </c>
       <c r="N258" t="n">
-        <v>0.1073210668000604</v>
+        <v>0.1095718637244208</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1306550659292547</v>
+        <v>0.1759508739434476</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.03389278538812267</v>
+        <v>0.0340022827714991</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1319029108490026</v>
+        <v>0.1774800246876048</v>
       </c>
       <c r="J259" t="n">
-        <v>0.03389278538812267</v>
+        <v>0.0340022827714991</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1319029108490026</v>
+        <v>0.1774800246876048</v>
       </c>
       <c r="L259" t="n">
-        <v>0.06879934772232796</v>
+        <v>0.06874994124922534</v>
       </c>
       <c r="M259" t="n">
-        <v>0.131314957630709</v>
+        <v>0.1768606755939286</v>
       </c>
       <c r="N259" t="n">
-        <v>0.115270568541919</v>
+        <v>0.1095751912417261</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1313320351827741</v>
+        <v>0.1768625365027401</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.03574453914608954</v>
+        <v>0.03363650350078265</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1325828227605954</v>
+        <v>0.1783948701756852</v>
       </c>
       <c r="J260" t="n">
-        <v>0.03574453914608954</v>
+        <v>0.03363650350078265</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1325828227605954</v>
+        <v>0.1783948701756852</v>
       </c>
       <c r="L260" t="n">
-        <v>0.07143844980595568</v>
+        <v>0.06896476306851868</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1319918388556095</v>
+        <v>0.1777723285609076</v>
       </c>
       <c r="N260" t="n">
-        <v>0.1116722885617758</v>
+        <v>0.1072132591884697</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1320090044362936</v>
+        <v>0.1777741990620325</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.03514598616486923</v>
+        <v>0.03496802224392591</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1332627346721882</v>
+        <v>0.1793097156637657</v>
       </c>
       <c r="J261" t="n">
-        <v>0.03514598616486923</v>
+        <v>0.03496802224392591</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1332627346721882</v>
+        <v>0.1793097156637657</v>
       </c>
       <c r="L261" t="n">
-        <v>0.07334954174198943</v>
+        <v>0.07250416227280529</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1326687200805101</v>
+        <v>0.1786839815278866</v>
       </c>
       <c r="N261" t="n">
-        <v>0.1060506405576083</v>
+        <v>0.1072368219237244</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1326859736898131</v>
+        <v>0.178685861621325</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.03579712626922753</v>
+        <v>0.0353386648111657</v>
       </c>
       <c r="G262" t="n">
-        <v>0.133942646583781</v>
+        <v>0.1802245611518461</v>
       </c>
       <c r="J262" t="n">
-        <v>0.03579712626922753</v>
+        <v>0.0353386648111657</v>
       </c>
       <c r="K262" t="n">
-        <v>0.133942646583781</v>
+        <v>0.1802245611518461</v>
       </c>
       <c r="L262" t="n">
-        <v>0.07528486504140913</v>
+        <v>0.06993806078973122</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1333456013054106</v>
+        <v>0.1795956344948657</v>
       </c>
       <c r="N262" t="n">
-        <v>0.1093862542200146</v>
+        <v>0.1088572111395742</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1333629429433325</v>
+        <v>0.1795975241806175</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.03443252293327086</v>
+        <v>0.03497652363170504</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1346225584953738</v>
+        <v>0.1811394066399265</v>
       </c>
       <c r="J263" t="n">
-        <v>0.03443252293327086</v>
+        <v>0.03497652363170504</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1346225584953738</v>
+        <v>0.1811394066399265</v>
       </c>
       <c r="L263" t="n">
-        <v>0.07160231234938036</v>
+        <v>0.07291707796746419</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1340224825303112</v>
+        <v>0.1805072874618447</v>
       </c>
       <c r="N263" t="n">
-        <v>0.1149101423474437</v>
+        <v>0.1055137852858374</v>
       </c>
       <c r="O263" t="n">
-        <v>0.134039912196852</v>
+        <v>0.18050918673991</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.03418156086903761</v>
+        <v>0.03519963186954311</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1353024704069666</v>
+        <v>0.182054252128007</v>
       </c>
       <c r="J264" t="n">
-        <v>0.03418156086903761</v>
+        <v>0.03519963186954311</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1353024704069666</v>
+        <v>0.182054252128007</v>
       </c>
       <c r="L264" t="n">
-        <v>0.06968428260675047</v>
+        <v>0.07170317469556828</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1346993637552118</v>
+        <v>0.1814189404288237</v>
       </c>
       <c r="N264" t="n">
-        <v>0.1108213484267055</v>
+        <v>0.1112792488852298</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1347168814503714</v>
+        <v>0.1814208492992024</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/356379915/ООО Регионстрой/Трехосные_КД_ПП/1074.xlsx
+++ b/prot/356379915/ООО Регионстрой/Трехосные_КД_ПП/1074.xlsx
@@ -4882,7 +4882,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A65" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="S81" sqref="S81"/>
@@ -8809,7 +8809,7 @@
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
       <c r="J51" s="144" t="n">
-        <v>0.06746816462443581</v>
+        <v>0.1006139320975862</v>
       </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
@@ -9256,10 +9256,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.0174681646244358</v>
+        <v>0.05061393209758616</v>
       </c>
       <c r="B65" t="n">
-        <v>0.001746803361320112</v>
+        <v>0.005061355249309544</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9274,29 +9274,29 @@
         <v/>
       </c>
       <c r="F65" s="170" t="n">
-        <v>-0.0001699999999999965</v>
+        <v>0</v>
       </c>
       <c r="G65" s="171" t="n">
         <v>0</v>
       </c>
       <c r="H65" s="171" t="n"/>
       <c r="J65" s="170" t="n">
-        <v>-0.0001699999999999965</v>
+        <v>1.999999999999919e-05</v>
       </c>
       <c r="K65" s="171" t="n">
         <v>0</v>
       </c>
       <c r="L65" s="172" t="n">
-        <v>0.01620566997647935</v>
+        <v>6.000000000000449e-05</v>
       </c>
       <c r="M65" s="170" t="n">
-        <v>0.0003334474986410395</v>
+        <v>0</v>
       </c>
       <c r="N65" s="171" t="n">
-        <v>0.02291395481383174</v>
+        <v>0.02891522869364482</v>
       </c>
       <c r="O65" s="172" t="n">
-        <v>0.0003117521491043623</v>
+        <v>0.0004015973865198559</v>
       </c>
       <c r="Q65" s="151" t="inlineStr">
         <is>
@@ -9316,29 +9316,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.00803535572724047</v>
+        <v>0.007848086982238427</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0005356863641381677</v>
+        <v>0.00045516217423545</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.00803535572724047</v>
+        <v>0.008559400665973542</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0005356863641381677</v>
+        <v>0.0005706224313645697</v>
       </c>
       <c r="L66" s="172" t="n">
         <v>0.03601259994773187</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001111491662136798</v>
+        <v>0.001277032973518874</v>
       </c>
       <c r="N66" s="171" t="n">
         <v>0.05455703527102795</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.00111340053251558</v>
+        <v>0.001136596376942988</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9356,10 +9356,10 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.0174681646244358</v>
+        <v>0.0151812285652731</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001746803361320112</v>
+        <v>0.0009103243484708999</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
@@ -9369,16 +9369,16 @@
         <v>0.001746803361320112</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.03637807650307501</v>
+        <v>0.03554984292702076</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001823305933958027</v>
+        <v>0.001824969665730711</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.0558058451446467</v>
+        <v>0.05246563494647971</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001823325118584949</v>
+        <v>0.001823558242649546</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9398,29 +9398,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.01727755083427711</v>
+        <v>0.02157893907239446</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002744536464241311</v>
+        <v>0.00136548652270635</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01727755083427711</v>
+        <v>0.01829717660224027</v>
       </c>
       <c r="K68" s="171" t="n">
         <v>0.002744536464241311</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.03558150885864178</v>
+        <v>0.03777314815130547</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002734958900937041</v>
+        <v>0.002737454498596067</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.05428824701530716</v>
+        <v>0.0588525539864474</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002734987677877424</v>
+        <v>0.002735337363974319</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9445,29 +9445,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.01849738087032098</v>
+        <v>0.02530696604879308</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003659381952321748</v>
+        <v>0.001687118416436514</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01849738087032098</v>
+        <v>0.01787058603414249</v>
       </c>
       <c r="K69" s="171" t="n">
         <v>0.003659381952321748</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.03622791064263003</v>
+        <v>0.03801241675670852</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003646611867916054</v>
+        <v>0.003649939331461422</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.05911866692603096</v>
+        <v>0.05449486238408746</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003646650237169898</v>
+        <v>0.003647116485299093</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9482,62 +9482,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.0005356863641381677</v>
+        <v>0.001687118416436514</v>
       </c>
       <c r="B70" t="n">
-        <v>0.00803535572724047</v>
+        <v>0.02530696604879308</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.01868327933232675</v>
+        <v>0.03138562773942012</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.004574227440402184</v>
+        <v>0.00227581087117725</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01868327933232675</v>
+        <v>0.01795293765814665</v>
       </c>
       <c r="K70" s="171" t="n">
         <v>0.004574227440402184</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.03819557475690766</v>
+        <v>0.03862943179488496</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.004558264834895067</v>
+        <v>0.004562424164326778</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.05754802484611671</v>
+        <v>0.05697559244003175</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.004558312796462373</v>
+        <v>0.004558895606623866</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.01851208117409145</v>
+        <v>0.03590351268165734</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.005489072928482623</v>
+        <v>0.0027309730454127</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01851208117409145</v>
+        <v>0.01849657134975358</v>
       </c>
       <c r="K71" s="171" t="n">
         <v>0.005489072928482623</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.03739782823738755</v>
+        <v>0.03930861075450093</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.005469917801874081</v>
+        <v>0.005474908997192133</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.05620041454613556</v>
+        <v>0.0576649756710948</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.005469975355754848</v>
+        <v>0.005470674727948638</v>
       </c>
     </row>
     <row r="72">
@@ -9552,29 +9552,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01877828349977349</v>
+        <v>0.04009441586339473</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.006403918416563059</v>
+        <v>0.00318613521964815</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01877828349977349</v>
+        <v>0.01833761238400154</v>
       </c>
       <c r="K72" s="171" t="n">
         <v>0.006403918416563059</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.03670547864445028</v>
+        <v>0.03860488072652399</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.006381570768853095</v>
+        <v>0.006387393830057489</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.056869795558877</v>
+        <v>0.06006463441955928</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.006381637915047323</v>
+        <v>0.006382453849273412</v>
       </c>
     </row>
     <row r="73">
@@ -9598,29 +9598,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01925206520113455</v>
+        <v>0.04380504926466551</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.007318763904643496</v>
+        <v>0.0036412973938836</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01925206520113455</v>
+        <v>0.01868579602565369</v>
       </c>
       <c r="K73" s="171" t="n">
         <v>0.007318763904643496</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.03791365419462817</v>
+        <v>0.04066367961989054</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.007293223735832108</v>
+        <v>0.007299878662922844</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.05803986925596188</v>
+        <v>0.05866453733588506</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.007293300474339797</v>
+        <v>0.007294232970598185</v>
       </c>
     </row>
     <row r="74">
@@ -9635,29 +9635,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01834566371553395</v>
+        <v>0.04688212486550304</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.008233609392723934</v>
+        <v>0.00409645956811905</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01834566371553395</v>
+        <v>0.01847769666627241</v>
       </c>
       <c r="K74" s="171" t="n">
         <v>0.008233609392723934</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.03944200726211078</v>
+        <v>0.04077966369144723</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.008204876702811122</v>
+        <v>0.008212363495788201</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.06195884655963729</v>
+        <v>0.05760123359730085</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.008204963033632271</v>
+        <v>0.008206012091922959</v>
       </c>
     </row>
     <row r="75">
@@ -9679,29 +9679,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01858620808793167</v>
+        <v>0.04917235464594054</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.009148454880804369</v>
+        <v>0.0045516217423545</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01858620808793167</v>
+        <v>0.01888095222591012</v>
       </c>
       <c r="K75" s="171" t="n">
         <v>0.009148454880804369</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.04137680489333637</v>
+        <v>0.04084968292512989</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.009116529669790135</v>
+        <v>0.009124848328653555</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.05751073689033848</v>
+        <v>0.0582747170525123</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.009116625592924745</v>
+        <v>0.009117791213247732</v>
       </c>
     </row>
     <row r="76">
@@ -9721,29 +9721,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01913764850543277</v>
+        <v>0.05061393209758616</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01006330036888481</v>
+        <v>0.005061355249309544</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01913764850543277</v>
+        <v>0.02019568027804407</v>
       </c>
       <c r="K76" s="171" t="n">
         <v>0.01006330036888481</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.04142092508704728</v>
+        <v>0.03881080698315242</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01002818263676915</v>
+        <v>0.01003733316151891</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.05978009237771981</v>
+        <v>0.06371362514116946</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01002828815221722</v>
+        <v>0.0100295703345725</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9758,28 +9758,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01990334220529506</v>
+        <v>0.05122247676604967</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01097814585696525</v>
+        <v>0.0054619460908254</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01990334220529506</v>
+        <v>0.0189084458243738</v>
       </c>
       <c r="K77" t="n">
         <v>0.01097814585696525</v>
       </c>
       <c r="L77" t="n">
-        <v>0.04122224154112036</v>
+        <v>0.03965912252648779</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01093983560374816</v>
+        <v>0.01094981799438427</v>
       </c>
       <c r="N77" t="n">
-        <v>0.06279334509925483</v>
+        <v>0.06175705616916505</v>
       </c>
       <c r="O77" t="n">
-        <v>0.0109399507115097</v>
+        <v>0.01094134945589728</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9798,28 +9798,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.02007581460121152</v>
+        <v>0.05190267352700431</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01189299134504568</v>
+        <v>0.00591710826506085</v>
       </c>
       <c r="J78" t="n">
-        <v>0.02007581460121152</v>
+        <v>0.01953019199451089</v>
       </c>
       <c r="K78" t="n">
         <v>0.01189299134504568</v>
       </c>
       <c r="L78" t="n">
-        <v>0.03878205578440444</v>
+        <v>0.0402378944953955</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01185148857072718</v>
+        <v>0.01186230282724962</v>
       </c>
       <c r="N78" t="n">
-        <v>0.06319681959347728</v>
+        <v>0.0582275171252819</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01185161327080217</v>
+        <v>0.01185312857722205</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9840,28 +9840,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01950808897127997</v>
+        <v>0.05257099489715768</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01280783683312612</v>
+        <v>0.0063722704392963</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01950808897127997</v>
+        <v>0.02045739711993333</v>
       </c>
       <c r="K79" t="n">
         <v>0.01280783683312612</v>
       </c>
       <c r="L79" t="n">
-        <v>0.04193502092391538</v>
+        <v>0.04124860771609273</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01276314153770619</v>
+        <v>0.01277478766011498</v>
       </c>
       <c r="N79" t="n">
-        <v>0.06357507587430838</v>
+        <v>0.06370125001960647</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01276327583009465</v>
+        <v>0.01276490769854682</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9871,28 +9871,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01990533725912844</v>
+        <v>0.05322753472188137</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01372268232120656</v>
+        <v>0.00682743261353175</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01990533725912844</v>
+        <v>0.02042219781328709</v>
       </c>
       <c r="K80" t="n">
         <v>0.01372268232120656</v>
       </c>
       <c r="L80" t="n">
-        <v>0.0401505806032279</v>
+        <v>0.04003574264584639</v>
       </c>
       <c r="M80" t="n">
-        <v>0.0136747945046852</v>
+        <v>0.01368727249298033</v>
       </c>
       <c r="N80" t="n">
-        <v>0.06139317808292</v>
+        <v>0.06310514880622436</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01367493838938712</v>
+        <v>0.0136766868198716</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9908,28 +9908,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01925468490438074</v>
+        <v>0.05387238684654701</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01463752780928699</v>
+        <v>0.007282594787767199</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01925468490438074</v>
+        <v>0.02007985847338391</v>
       </c>
       <c r="K81" t="n">
         <v>0.01463752780928699</v>
       </c>
       <c r="L81" t="n">
-        <v>0.04077436258342743</v>
+        <v>0.03884835107533599</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01458644747166422</v>
+        <v>0.01459975732584569</v>
       </c>
       <c r="N81" t="n">
-        <v>0.06035326416036763</v>
+        <v>0.06223610063071644</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01458660094867959</v>
+        <v>0.01458846594119637</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9942,28 +9942,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02047258640870718</v>
+        <v>0.05450564511652622</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01555237329736743</v>
+        <v>0.00773775696200265</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02047258640870718</v>
+        <v>0.01908348701379918</v>
       </c>
       <c r="K82" t="n">
         <v>0.01555237329736743</v>
       </c>
       <c r="L82" t="n">
-        <v>0.04289911555193224</v>
+        <v>0.04023892205342694</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01549810043864323</v>
+        <v>0.01551224215871105</v>
       </c>
       <c r="N82" t="n">
-        <v>0.06279741915454384</v>
+        <v>0.06421228272563884</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01549826350797207</v>
+        <v>0.01550024506252114</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9973,28 +9973,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01954958618467012</v>
+        <v>0.05512740337719062</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01646721878544787</v>
+        <v>0.008192919136238101</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01954958618467012</v>
+        <v>0.02069700878064266</v>
       </c>
       <c r="K83" t="n">
         <v>0.01646721878544787</v>
       </c>
       <c r="L83" t="n">
-        <v>0.04154431051473736</v>
+        <v>0.04262019217204852</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01640975340562224</v>
+        <v>0.0164247269915764</v>
       </c>
       <c r="N83" t="n">
-        <v>0.06399866283127426</v>
+        <v>0.06103648239274589</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01640992606726454</v>
+        <v>0.01641202418384592</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10009,28 +10009,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01917135457517868</v>
+        <v>0.05573775547391183</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0173820642735283</v>
+        <v>0.00864808131047355</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01917135457517868</v>
+        <v>0.02007415191178943</v>
       </c>
       <c r="K84" t="n">
         <v>0.0173820642735283</v>
       </c>
       <c r="L84" t="n">
-        <v>0.04135029573906779</v>
+        <v>0.0431808638069667</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01732140637260126</v>
+        <v>0.01733721182444176</v>
       </c>
       <c r="N84" t="n">
-        <v>0.06469536049172292</v>
+        <v>0.06537888766114963</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01732158862655702</v>
+        <v>0.01732380330517069</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10049,28 +10049,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01918120483132518</v>
+        <v>0.05633679525206146</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01829690976160874</v>
+        <v>0.009103243484709001</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01918120483132518</v>
+        <v>0.02019825800987071</v>
       </c>
       <c r="K85" t="n">
         <v>0.01829690976160874</v>
       </c>
       <c r="L85" t="n">
-        <v>0.04178341032987293</v>
+        <v>0.04169037046988686</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01823305933958027</v>
+        <v>0.01824969665730711</v>
       </c>
       <c r="N85" t="n">
-        <v>0.06565699615824849</v>
+        <v>0.06140917275181251</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01823325118584949</v>
+        <v>0.01823558242649546</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10091,28 +10091,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.0196896139629741</v>
+        <v>0.05692461655701116</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01921175524968918</v>
+        <v>0.00955840565894445</v>
       </c>
       <c r="J86" t="n">
-        <v>0.0196896139629741</v>
+        <v>0.02057949205915846</v>
       </c>
       <c r="K86" t="n">
         <v>0.01921175524968918</v>
       </c>
       <c r="L86" t="n">
-        <v>0.04179134707223803</v>
+        <v>0.04212118217784239</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01914471230655928</v>
+        <v>0.01916218149017247</v>
       </c>
       <c r="N86" t="n">
-        <v>0.06105681629437476</v>
+        <v>0.05998792344031456</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01914491374514197</v>
+        <v>0.01914736154782024</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10122,28 +10122,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02047918438759264</v>
+        <v>0.05750131323413252</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02012660073776961</v>
+        <v>0.0100135678331799</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02047918438759264</v>
+        <v>0.02029490448430146</v>
       </c>
       <c r="K87" t="n">
         <v>0.02012660073776961</v>
       </c>
       <c r="L87" t="n">
-        <v>0.04287825082093244</v>
+        <v>0.04008765822719756</v>
       </c>
       <c r="M87" t="n">
-        <v>0.0200563652735383</v>
+        <v>0.02007466632303782</v>
       </c>
       <c r="N87" t="n">
-        <v>0.06586638890843627</v>
+        <v>0.06560969649238563</v>
       </c>
       <c r="O87" t="n">
-        <v>0.02005657630443444</v>
+        <v>0.02005914066914501</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10157,28 +10157,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01946432043067224</v>
+        <v>0.05806697912879716</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02104144622585005</v>
+        <v>0.01046873000741535</v>
       </c>
       <c r="J88" t="n">
-        <v>0.01946432043067224</v>
+        <v>0.0201045744073127</v>
       </c>
       <c r="K88" t="n">
         <v>0.02104144622585005</v>
       </c>
       <c r="L88" t="n">
-        <v>0.04077463103035456</v>
+        <v>0.04234460230428258</v>
       </c>
       <c r="M88" t="n">
-        <v>0.02096801824051731</v>
+        <v>0.02098715115590318</v>
       </c>
       <c r="N88" t="n">
-        <v>0.06593497730822523</v>
+        <v>0.06384362857079035</v>
       </c>
       <c r="O88" t="n">
-        <v>0.02096823886372692</v>
+        <v>0.02097091979046978</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10191,1726 +10191,1726 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02042115395608993</v>
+        <v>0.05862170808637672</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02195629171393049</v>
+        <v>0.0109238921816508</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02042115395608993</v>
+        <v>0.02075932881521425</v>
       </c>
       <c r="K89" t="n">
         <v>0.02195629171393049</v>
       </c>
       <c r="L89" t="n">
-        <v>0.04020936665643662</v>
+        <v>0.04406812018176615</v>
       </c>
       <c r="M89" t="n">
-        <v>0.02187967120749633</v>
+        <v>0.02189963598876853</v>
       </c>
       <c r="N89" t="n">
-        <v>0.06648501059087059</v>
+        <v>0.06114351759245068</v>
       </c>
       <c r="O89" t="n">
-        <v>0.02187990142301939</v>
+        <v>0.02188269891179455</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02032439270224523</v>
+        <v>0.05916559395224281</v>
       </c>
       <c r="G90" t="n">
-        <v>0.02287113720201093</v>
+        <v>0.01137905435588625</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02032439270224523</v>
+        <v>0.01996330475021001</v>
       </c>
       <c r="K90" t="n">
         <v>0.02287113720201093</v>
       </c>
       <c r="L90" t="n">
-        <v>0.04131658531032248</v>
+        <v>0.04094275123646027</v>
       </c>
       <c r="M90" t="n">
-        <v>0.02279132417447534</v>
+        <v>0.02281212082163389</v>
       </c>
       <c r="N90" t="n">
-        <v>0.06512977941033349</v>
+        <v>0.06643340928817559</v>
       </c>
       <c r="O90" t="n">
-        <v>0.02279156398231186</v>
+        <v>0.02279447803311933</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02118990578779105</v>
+        <v>0.05969873057176707</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02378598269009136</v>
+        <v>0.0118342165301217</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02118990578779105</v>
+        <v>0.01993070335717742</v>
       </c>
       <c r="K91" t="n">
         <v>0.02378598269009136</v>
       </c>
       <c r="L91" t="n">
-        <v>0.04234049071920773</v>
+        <v>0.04121566709299074</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02370297714145435</v>
+        <v>0.02372460565449925</v>
       </c>
       <c r="N91" t="n">
-        <v>0.06614221108862822</v>
+        <v>0.06292668012484254</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02370322654160434</v>
+        <v>0.0237062571544441</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02052490146360363</v>
+        <v>0.0602212117903211</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0247008281781718</v>
+        <v>0.01228937870435715</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02052490146360363</v>
+        <v>0.02111875151314013</v>
       </c>
       <c r="K92" t="n">
         <v>0.0247008281781718</v>
       </c>
       <c r="L92" t="n">
-        <v>0.0434290754445012</v>
+        <v>0.04412619419211544</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02461463010843336</v>
+        <v>0.0246370904873646</v>
       </c>
       <c r="N92" t="n">
-        <v>0.06360960830273732</v>
+        <v>0.06794563969584883</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02461488910089681</v>
+        <v>0.02461803627576887</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02081743709125675</v>
+        <v>0.06073313145327652</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02561567366625224</v>
+        <v>0.0127445408785926</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02081743709125675</v>
+        <v>0.02009335735648238</v>
       </c>
       <c r="K93" t="n">
         <v>0.02561567366625224</v>
       </c>
       <c r="L93" t="n">
-        <v>0.04234072499440802</v>
+        <v>0.04409729583537789</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02552628307541238</v>
+        <v>0.02554957532022996</v>
       </c>
       <c r="N93" t="n">
-        <v>0.06453343735655476</v>
+        <v>0.06482507899142392</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02552655166018929</v>
+        <v>0.02552981539709365</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02147485627187369</v>
+        <v>0.06123458340600496</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02653051915433268</v>
+        <v>0.01319970305282805</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02147485627187369</v>
+        <v>0.02083499450714875</v>
       </c>
       <c r="K94" t="n">
         <v>0.02653051915433268</v>
       </c>
       <c r="L94" t="n">
-        <v>0.04424161626283354</v>
+        <v>0.04414664924128869</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02643793604239139</v>
+        <v>0.02646206015309531</v>
       </c>
       <c r="N94" t="n">
-        <v>0.06637777263844002</v>
+        <v>0.06716470896726195</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02643821421948176</v>
+        <v>0.02644159451841842</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02150446661501505</v>
+        <v>0.06172566149387802</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02744536464241311</v>
+        <v>0.0136548652270635</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02150446661501505</v>
+        <v>0.02129140710936099</v>
       </c>
       <c r="K95" t="n">
         <v>0.02744536464241311</v>
       </c>
       <c r="L95" t="n">
-        <v>0.04538297882892772</v>
+        <v>0.04254437878518444</v>
       </c>
       <c r="M95" t="n">
-        <v>0.0273495890093704</v>
+        <v>0.02737454498596067</v>
       </c>
       <c r="N95" t="n">
-        <v>0.06427507362065493</v>
+        <v>0.06818300240579511</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02734987677877423</v>
+        <v>0.02735337363974319</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02073688863259394</v>
+        <v>0.06220645956226735</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02836021013049355</v>
+        <v>0.01411002740129895</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02073688863259394</v>
+        <v>0.02116470521982727</v>
       </c>
       <c r="K96" t="n">
         <v>0.02836021013049355</v>
       </c>
       <c r="L96" t="n">
-        <v>0.0444617332967957</v>
+        <v>0.04351249683370023</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02826124197634942</v>
+        <v>0.02828702981882603</v>
       </c>
       <c r="N96" t="n">
-        <v>0.06794307122982507</v>
+        <v>0.0658924776762288</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02826153933806672</v>
+        <v>0.02826515276106797</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.0207857562582862</v>
+        <v>0.06267707145654454</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02927505561857398</v>
+        <v>0.0145651895755344</v>
       </c>
       <c r="J97" t="n">
-        <v>0.0207857562582862</v>
+        <v>0.02115685234712827</v>
       </c>
       <c r="K97" t="n">
         <v>0.02927505561857398</v>
       </c>
       <c r="L97" t="n">
-        <v>0.04166727293308736</v>
+        <v>0.04199055407341085</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02917289494332843</v>
+        <v>0.02919951465169138</v>
       </c>
       <c r="N97" t="n">
-        <v>0.06665707855260977</v>
+        <v>0.06483797188029389</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02917320189735919</v>
+        <v>0.02917693188239274</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02170559662970496</v>
+        <v>0.06313759102208125</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03018990110665442</v>
+        <v>0.01502035174976985</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02170559662970496</v>
+        <v>0.02144099234574291</v>
       </c>
       <c r="K98" t="n">
         <v>0.03018990110665442</v>
       </c>
       <c r="L98" t="n">
-        <v>0.04471232991568591</v>
+        <v>0.04243060972783683</v>
       </c>
       <c r="M98" t="n">
-        <v>0.03008454791030745</v>
+        <v>0.03011199948455673</v>
       </c>
       <c r="N98" t="n">
-        <v>0.06771987748493663</v>
+        <v>0.0687961341374444</v>
       </c>
       <c r="O98" t="n">
-        <v>0.03008486445665166</v>
+        <v>0.03008871100371751</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02093707912453885</v>
+        <v>0.06358811210424906</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03110474659473486</v>
+        <v>0.0154755139240053</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02093707912453885</v>
+        <v>0.02082991882584857</v>
       </c>
       <c r="K99" t="n">
         <v>0.03110474659473486</v>
       </c>
       <c r="L99" t="n">
-        <v>0.04443545410453839</v>
+        <v>0.04398168286739154</v>
       </c>
       <c r="M99" t="n">
-        <v>0.03099620087728646</v>
+        <v>0.03102448431742209</v>
       </c>
       <c r="N99" t="n">
-        <v>0.06501971283525154</v>
+        <v>0.06720791509197016</v>
       </c>
       <c r="O99" t="n">
-        <v>0.03099652701594414</v>
+        <v>0.03100049012504229</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02137020909071155</v>
+        <v>0.06402872854841959</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0320195920828153</v>
+        <v>0.01593067609824075</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02137020909071155</v>
+        <v>0.02142797997170649</v>
       </c>
       <c r="K100" t="n">
         <v>0.0320195920828153</v>
       </c>
       <c r="L100" t="n">
-        <v>0.04626968211231733</v>
+        <v>0.04384384451826781</v>
       </c>
       <c r="M100" t="n">
-        <v>0.03190785384426548</v>
+        <v>0.03193696915028745</v>
       </c>
       <c r="N100" t="n">
-        <v>0.06596503375284529</v>
+        <v>0.06533565210287073</v>
       </c>
       <c r="O100" t="n">
-        <v>0.03190818957523661</v>
+        <v>0.03191226924636706</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02167389792960779</v>
+        <v>0.06445953419996449</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03293443757089574</v>
+        <v>0.0163858382724762</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02167389792960779</v>
+        <v>0.02190373528913421</v>
       </c>
       <c r="K101" t="n">
         <v>0.03293443757089574</v>
       </c>
       <c r="L101" t="n">
-        <v>0.04643350697138249</v>
+        <v>0.04314920559145338</v>
       </c>
       <c r="M101" t="n">
-        <v>0.03281950681124449</v>
+        <v>0.0328494539831528</v>
       </c>
       <c r="N101" t="n">
-        <v>0.06933805030964774</v>
+        <v>0.07031819291144686</v>
       </c>
       <c r="O101" t="n">
-        <v>0.03281985213452909</v>
+        <v>0.03282404836769184</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02185638356181123</v>
+        <v>0.06488062290425539</v>
       </c>
       <c r="G102" t="n">
-        <v>0.03384928305897617</v>
+        <v>0.01684100044671165</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02185638356181123</v>
+        <v>0.02212973044401127</v>
       </c>
       <c r="K102" t="n">
         <v>0.03384928305897617</v>
       </c>
       <c r="L102" t="n">
-        <v>0.04562132975326996</v>
+        <v>0.04703046357443519</v>
       </c>
       <c r="M102" t="n">
-        <v>0.0337311597782235</v>
+        <v>0.03376193881601815</v>
       </c>
       <c r="N102" t="n">
-        <v>0.06635866998041712</v>
+        <v>0.06821441679250984</v>
       </c>
       <c r="O102" t="n">
-        <v>0.03373151469382156</v>
+        <v>0.03373582748901661</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02130770475053226</v>
+        <v>0.06529208850666386</v>
       </c>
       <c r="G103" t="n">
-        <v>0.03476412854705661</v>
+        <v>0.0172961626209471</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02130770475053226</v>
+        <v>0.02255402566677944</v>
       </c>
       <c r="K103" t="n">
         <v>0.03476412854705661</v>
       </c>
       <c r="L103" t="n">
-        <v>0.0465131591780388</v>
+        <v>0.04605704616671497</v>
       </c>
       <c r="M103" t="n">
-        <v>0.03464281274520251</v>
+        <v>0.03467442364888351</v>
       </c>
       <c r="N103" t="n">
-        <v>0.06532611553456419</v>
+        <v>0.06555979308510396</v>
       </c>
       <c r="O103" t="n">
-        <v>0.03464317725311403</v>
+        <v>0.03464760661034138</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02222216573321517</v>
+        <v>0.06569402485256158</v>
       </c>
       <c r="G104" t="n">
-        <v>0.03567897403513704</v>
+        <v>0.01775132479518255</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02222216573321517</v>
+        <v>0.02227988493970617</v>
       </c>
       <c r="K104" t="n">
         <v>0.03567897403513704</v>
       </c>
       <c r="L104" t="n">
-        <v>0.04409531225866409</v>
+        <v>0.04398957190394634</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03555446571218152</v>
+        <v>0.03558690848174887</v>
       </c>
       <c r="N104" t="n">
-        <v>0.06807167428826555</v>
+        <v>0.06825911863989598</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03555483981240651</v>
+        <v>0.03555938573166615</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02281898109195513</v>
+        <v>0.06608652578732011</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03659381952321748</v>
+        <v>0.018206486969418</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02281898109195513</v>
+        <v>0.02155682687281268</v>
       </c>
       <c r="K105" t="n">
         <v>0.03659381952321748</v>
       </c>
       <c r="L105" t="n">
-        <v>0.04668484970283834</v>
+        <v>0.04426646024661127</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03646611867916054</v>
+        <v>0.03649939331461422</v>
       </c>
       <c r="N105" t="n">
-        <v>0.06783205262266001</v>
+        <v>0.07083532292566114</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03646650237169898</v>
+        <v>0.03647116485299093</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02179045810997468</v>
+        <v>0.06646968515631112</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03750866501129792</v>
+        <v>0.01866164914365345</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02179045810997468</v>
+        <v>0.02170362514597672</v>
       </c>
       <c r="K106" t="n">
         <v>0.03750866501129792</v>
       </c>
       <c r="L106" t="n">
-        <v>0.04585375584745321</v>
+        <v>0.04554621095856662</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03737777164613956</v>
+        <v>0.03741187814747957</v>
       </c>
       <c r="N106" t="n">
-        <v>0.07062557282474141</v>
+        <v>0.07193106888253187</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03737816493099146</v>
+        <v>0.0373829439743157</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02257393783823387</v>
+        <v>0.0668435968049062</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03842351049937836</v>
+        <v>0.0191168113178889</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02257393783823387</v>
+        <v>0.02185798329841859</v>
       </c>
       <c r="K107" t="n">
         <v>0.03842351049937836</v>
       </c>
       <c r="L107" t="n">
-        <v>0.04612460050929715</v>
+        <v>0.04759393346811949</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03828942461311857</v>
+        <v>0.03832436298034494</v>
       </c>
       <c r="N107" t="n">
-        <v>0.07305600438160209</v>
+        <v>0.06839293639740973</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03828982749028393</v>
+        <v>0.03829472309564047</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02245257813791242</v>
+        <v>0.06720835457847699</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03933835598745879</v>
+        <v>0.01957197349212435</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02245257813791242</v>
+        <v>0.02247434874432405</v>
       </c>
       <c r="K108" t="n">
         <v>0.03933835598745879</v>
       </c>
       <c r="L108" t="n">
-        <v>0.04490261376637933</v>
+        <v>0.04647215994136381</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03920107758009758</v>
+        <v>0.0392368478132103</v>
       </c>
       <c r="N108" t="n">
-        <v>0.06870514694849689</v>
+        <v>0.07184124521465152</v>
       </c>
       <c r="O108" t="n">
-        <v>0.0392014900495764</v>
+        <v>0.03920650221696525</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02197871241731657</v>
+        <v>0.06756405232239508</v>
       </c>
       <c r="G109" t="n">
-        <v>0.04025320147553923</v>
+        <v>0.0200271356663598</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02197871241731657</v>
+        <v>0.02261647882782143</v>
       </c>
       <c r="K109" t="n">
         <v>0.04025320147553923</v>
       </c>
       <c r="L109" t="n">
-        <v>0.04613595469580686</v>
+        <v>0.04744807730755682</v>
       </c>
       <c r="M109" t="n">
-        <v>0.04011273054707659</v>
+        <v>0.04014933264607565</v>
       </c>
       <c r="N109" t="n">
-        <v>0.07023512222830525</v>
+        <v>0.07169548696838945</v>
       </c>
       <c r="O109" t="n">
-        <v>0.04011315260886889</v>
+        <v>0.04011828133829002</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02263079262729099</v>
+        <v>0.06791078388203213</v>
       </c>
       <c r="G110" t="n">
-        <v>0.04116804696361966</v>
+        <v>0.02048229784059525</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02263079262729099</v>
+        <v>0.02301836887689418</v>
       </c>
       <c r="K110" t="n">
         <v>0.04116804696361966</v>
       </c>
       <c r="L110" t="n">
-        <v>0.04750711695449081</v>
+        <v>0.04671254236553346</v>
       </c>
       <c r="M110" t="n">
-        <v>0.04102438351405561</v>
+        <v>0.041061817478941</v>
       </c>
       <c r="N110" t="n">
-        <v>0.07381971917938845</v>
+        <v>0.07154643884294781</v>
       </c>
       <c r="O110" t="n">
-        <v>0.04102481516816135</v>
+        <v>0.04103006045961479</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.0232705496462836</v>
+        <v>0.06824864310275973</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0420828924517001</v>
+        <v>0.0209374600148307</v>
       </c>
       <c r="J111" t="n">
-        <v>0.0232705496462836</v>
+        <v>0.0231009195791429</v>
       </c>
       <c r="K111" t="n">
         <v>0.0420828924517001</v>
       </c>
       <c r="L111" t="n">
-        <v>0.04855866756560046</v>
+        <v>0.04615022650084624</v>
       </c>
       <c r="M111" t="n">
-        <v>0.04193603648103462</v>
+        <v>0.04197430231180636</v>
       </c>
       <c r="N111" t="n">
-        <v>0.07088156403028928</v>
+        <v>0.07391261692461165</v>
       </c>
       <c r="O111" t="n">
-        <v>0.04193647772745383</v>
+        <v>0.04194183958093957</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02228346033650028</v>
+        <v>0.06857772382994952</v>
       </c>
       <c r="G112" t="n">
-        <v>0.04299773793978054</v>
+        <v>0.02139262218906615</v>
       </c>
       <c r="J112" t="n">
-        <v>0.02228346033650028</v>
+        <v>0.02297967248820491</v>
       </c>
       <c r="K112" t="n">
         <v>0.04299773793978054</v>
       </c>
       <c r="L112" t="n">
-        <v>0.04843302398033766</v>
+        <v>0.04909842532272024</v>
       </c>
       <c r="M112" t="n">
-        <v>0.04284768944801363</v>
+        <v>0.04288678714467171</v>
       </c>
       <c r="N112" t="n">
-        <v>0.07128885692194986</v>
+        <v>0.06778577241090378</v>
       </c>
       <c r="O112" t="n">
-        <v>0.04284814028674631</v>
+        <v>0.04285361870226434</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02282687357431107</v>
+        <v>0.06889811990897311</v>
       </c>
       <c r="G113" t="n">
-        <v>0.04391258342786098</v>
+        <v>0.0218477843633016</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02282687357431107</v>
+        <v>0.02278073214230325</v>
       </c>
       <c r="K113" t="n">
         <v>0.04391258342786098</v>
       </c>
       <c r="L113" t="n">
-        <v>0.04637701276080725</v>
+        <v>0.04762035902909767</v>
       </c>
       <c r="M113" t="n">
-        <v>0.04375934241499265</v>
+        <v>0.04379927197753707</v>
       </c>
       <c r="N113" t="n">
-        <v>0.07330731005898405</v>
+        <v>0.07314252495397167</v>
       </c>
       <c r="O113" t="n">
-        <v>0.04375980284603878</v>
+        <v>0.0437653978235891</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02234850960318087</v>
+        <v>0.06920992518520212</v>
       </c>
       <c r="G114" t="n">
-        <v>0.04482742891594142</v>
+        <v>0.02230294653753705</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02234850960318087</v>
+        <v>0.02338506003416153</v>
       </c>
       <c r="K114" t="n">
         <v>0.04482742891594142</v>
       </c>
       <c r="L114" t="n">
-        <v>0.04776330933523895</v>
+        <v>0.04736028796621505</v>
       </c>
       <c r="M114" t="n">
-        <v>0.04467099538197166</v>
+        <v>0.04471175681040242</v>
       </c>
       <c r="N114" t="n">
-        <v>0.07425451485311113</v>
+        <v>0.07345523315002717</v>
       </c>
       <c r="O114" t="n">
-        <v>0.04467146540533126</v>
+        <v>0.04467717694491388</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02383568448521813</v>
+        <v>0.06951323350400819</v>
       </c>
       <c r="G115" t="n">
-        <v>0.04574227440402185</v>
+        <v>0.0227581087117725</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02383568448521813</v>
+        <v>0.02333530116869759</v>
       </c>
       <c r="K115" t="n">
         <v>0.04574227440402185</v>
       </c>
       <c r="L115" t="n">
-        <v>0.04679649170356009</v>
+        <v>0.04741770796584754</v>
       </c>
       <c r="M115" t="n">
-        <v>0.04558264834895067</v>
+        <v>0.04562424164326778</v>
       </c>
       <c r="N115" t="n">
-        <v>0.06958964926879507</v>
+        <v>0.07008720657783796</v>
       </c>
       <c r="O115" t="n">
-        <v>0.04558312796462373</v>
+        <v>0.04558895606623865</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02279990750395104</v>
+        <v>0.06980813871076291</v>
       </c>
       <c r="G116" t="n">
-        <v>0.04665711989210228</v>
+        <v>0.02321327088600795</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02279990750395104</v>
+        <v>0.02374894647220198</v>
       </c>
       <c r="K116" t="n">
         <v>0.04665711989210228</v>
       </c>
       <c r="L116" t="n">
-        <v>0.04930483033485455</v>
+        <v>0.04812965194929081</v>
       </c>
       <c r="M116" t="n">
-        <v>0.04649430131592969</v>
+        <v>0.04653672647613314</v>
       </c>
       <c r="N116" t="n">
-        <v>0.07572240015034631</v>
+        <v>0.07315509521225499</v>
       </c>
       <c r="O116" t="n">
-        <v>0.0464947905239162</v>
+        <v>0.04650073518756342</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02335626086110035</v>
+        <v>0.07009473465083792</v>
       </c>
       <c r="G117" t="n">
-        <v>0.04757196538018273</v>
+        <v>0.0236684330602434</v>
       </c>
       <c r="J117" t="n">
-        <v>0.02335626086110035</v>
+        <v>0.02283641728566718</v>
       </c>
       <c r="K117" t="n">
         <v>0.04757196538018273</v>
       </c>
       <c r="L117" t="n">
-        <v>0.04848940540587465</v>
+        <v>0.04868202157157572</v>
       </c>
       <c r="M117" t="n">
-        <v>0.0474059542829087</v>
+        <v>0.04744921130899849</v>
       </c>
       <c r="N117" t="n">
-        <v>0.07101760581278133</v>
+        <v>0.07032160285716021</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04740645308320868</v>
+        <v>0.0474125143088882</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02313452836038578</v>
+        <v>0.07037311516960483</v>
       </c>
       <c r="G118" t="n">
-        <v>0.04848681086826316</v>
+        <v>0.02412359523447885</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02313452836038578</v>
+        <v>0.02390095098832785</v>
       </c>
       <c r="K118" t="n">
         <v>0.04848681086826316</v>
       </c>
       <c r="L118" t="n">
-        <v>0.046073946569159</v>
+        <v>0.04926861407984429</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04831760724988771</v>
+        <v>0.04836169614186384</v>
       </c>
       <c r="N118" t="n">
-        <v>0.07398187265288048</v>
+        <v>0.0736643984276879</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04831811564250116</v>
+        <v>0.04832429343021297</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02331451325294592</v>
+        <v>0.07064337411243526</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0494016563563436</v>
+        <v>0.0245787574087143</v>
       </c>
       <c r="J119" t="n">
-        <v>0.02331451325294592</v>
+        <v>0.02290405546881634</v>
       </c>
       <c r="K119" t="n">
         <v>0.0494016563563436</v>
       </c>
       <c r="L119" t="n">
-        <v>0.04936477309436582</v>
+        <v>0.0483054196392767</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04922926021686673</v>
+        <v>0.0492741809747292</v>
       </c>
       <c r="N119" t="n">
-        <v>0.07321088926864799</v>
+        <v>0.07503387931358851</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04922977820179363</v>
+        <v>0.04923607255153774</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.02332450728478172</v>
+        <v>0.07090560532470085</v>
       </c>
       <c r="G120" t="n">
-        <v>0.05031650184442404</v>
+        <v>0.02503391958294975</v>
       </c>
       <c r="J120" t="n">
-        <v>0.02332450728478172</v>
+        <v>0.02369315739682185</v>
       </c>
       <c r="K120" t="n">
         <v>0.05031650184442404</v>
       </c>
       <c r="L120" t="n">
-        <v>0.05022699229530453</v>
+        <v>0.04775663087681151</v>
       </c>
       <c r="M120" t="n">
-        <v>0.05014091318384575</v>
+        <v>0.05018666580759456</v>
       </c>
       <c r="N120" t="n">
-        <v>0.07204083719220578</v>
+        <v>0.07518089791393517</v>
       </c>
       <c r="O120" t="n">
-        <v>0.0501414407610861</v>
+        <v>0.05014785167286252</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02400811568089101</v>
+        <v>0.0711599026517732</v>
       </c>
       <c r="G121" t="n">
-        <v>0.05123134733250447</v>
+        <v>0.0254890817571852</v>
       </c>
       <c r="J121" t="n">
-        <v>0.02400811568089101</v>
+        <v>0.0242859694115643</v>
       </c>
       <c r="K121" t="n">
         <v>0.05123134733250447</v>
       </c>
       <c r="L121" t="n">
-        <v>0.04876345349822131</v>
+        <v>0.04674543824027413</v>
       </c>
       <c r="M121" t="n">
-        <v>0.05105256615082476</v>
+        <v>0.05109915064045991</v>
       </c>
       <c r="N121" t="n">
-        <v>0.07611296199344064</v>
+        <v>0.07678667107889753</v>
       </c>
       <c r="O121" t="n">
-        <v>0.05105310332037858</v>
+        <v>0.05105963079418729</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02419158198940437</v>
+        <v>0.07140635993902396</v>
       </c>
       <c r="G122" t="n">
-        <v>0.05214619282058491</v>
+        <v>0.02594424393142065</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02419158198940437</v>
+        <v>0.02339334146731241</v>
       </c>
       <c r="K122" t="n">
         <v>0.05214619282058491</v>
       </c>
       <c r="L122" t="n">
-        <v>0.05052320805339464</v>
+        <v>0.04878369004420227</v>
       </c>
       <c r="M122" t="n">
-        <v>0.05196421911780377</v>
+        <v>0.05201163547332527</v>
       </c>
       <c r="N122" t="n">
-        <v>0.07635213064469831</v>
+        <v>0.07403392682242282</v>
       </c>
       <c r="O122" t="n">
-        <v>0.05196476587967105</v>
+        <v>0.05197140991551207</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.02412642175655366</v>
+        <v>0.07164507103182467</v>
       </c>
       <c r="G123" t="n">
-        <v>0.05306103830866536</v>
+        <v>0.0263994061056561</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02412642175655366</v>
+        <v>0.02398961913845234</v>
       </c>
       <c r="K123" t="n">
         <v>0.05306103830866536</v>
       </c>
       <c r="L123" t="n">
-        <v>0.04915180704823041</v>
+        <v>0.05016504425465165</v>
       </c>
       <c r="M123" t="n">
-        <v>0.05287587208478278</v>
+        <v>0.05292412030619062</v>
       </c>
       <c r="N123" t="n">
-        <v>0.07706494822103044</v>
+        <v>0.07632208983441252</v>
       </c>
       <c r="O123" t="n">
-        <v>0.05287642843896353</v>
+        <v>0.05288318903683684</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02374170475463677</v>
+        <v>0.07187612977554707</v>
       </c>
       <c r="G124" t="n">
-        <v>0.05397588379674579</v>
+        <v>0.02685456827989155</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02374170475463677</v>
+        <v>0.02467151146130205</v>
       </c>
       <c r="K124" t="n">
         <v>0.05397588379674579</v>
       </c>
       <c r="L124" t="n">
-        <v>0.04833418505065837</v>
+        <v>0.05062844354909529</v>
       </c>
       <c r="M124" t="n">
-        <v>0.05378752505176179</v>
+        <v>0.05383660513905598</v>
       </c>
       <c r="N124" t="n">
-        <v>0.07608165821173857</v>
+        <v>0.07427285081685742</v>
       </c>
       <c r="O124" t="n">
-        <v>0.053788090998256</v>
+        <v>0.05379496815816162</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.02419320488472994</v>
+        <v>0.0720996300155627</v>
       </c>
       <c r="G125" t="n">
-        <v>0.05489072928482622</v>
+        <v>0.027309730454127</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02419320488472994</v>
+        <v>0.0235220314418061</v>
       </c>
       <c r="K125" t="n">
         <v>0.05489072928482622</v>
       </c>
       <c r="L125" t="n">
-        <v>0.05017419988978655</v>
+        <v>0.05119071318828203</v>
       </c>
       <c r="M125" t="n">
-        <v>0.05469917801874081</v>
+        <v>0.05474908997192134</v>
       </c>
       <c r="N125" t="n">
-        <v>0.07667115757447346</v>
+        <v>0.07290726944965875</v>
       </c>
       <c r="O125" t="n">
-        <v>0.05469975355754847</v>
+        <v>0.05470674727948639</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.02429305451979398</v>
+        <v>0.07231566559724317</v>
       </c>
       <c r="G126" t="n">
-        <v>0.05580557477290666</v>
+        <v>0.02776489262836245</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02429305451979398</v>
+        <v>0.02433761428951906</v>
       </c>
       <c r="K126" t="n">
         <v>0.05580557477290666</v>
       </c>
       <c r="L126" t="n">
-        <v>0.05107539633221397</v>
+        <v>0.05139254811140495</v>
       </c>
       <c r="M126" t="n">
-        <v>0.05561083098571982</v>
+        <v>0.05566157480478669</v>
       </c>
       <c r="N126" t="n">
-        <v>0.07548104207487227</v>
+        <v>0.07775987427365272</v>
       </c>
       <c r="O126" t="n">
-        <v>0.05561141611684094</v>
+        <v>0.05561852640081116</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.02385546681095786</v>
+        <v>0.07252433036596014</v>
       </c>
       <c r="G127" t="n">
-        <v>0.05672042026098709</v>
+        <v>0.0282200548025979</v>
       </c>
       <c r="J127" t="n">
-        <v>0.02385546681095786</v>
+        <v>0.024866676262915</v>
       </c>
       <c r="K127" t="n">
         <v>0.05672042026098709</v>
       </c>
       <c r="L127" t="n">
-        <v>0.0505744734989618</v>
+        <v>0.04947022178593441</v>
       </c>
       <c r="M127" t="n">
-        <v>0.05652248395269883</v>
+        <v>0.05657405963765205</v>
       </c>
       <c r="N127" t="n">
-        <v>0.07763779332418558</v>
+        <v>0.0729509452985308</v>
       </c>
       <c r="O127" t="n">
-        <v>0.05652307867613343</v>
+        <v>0.05653030552213593</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.02408734226709144</v>
+        <v>0.07272571816708523</v>
       </c>
       <c r="G128" t="n">
-        <v>0.05763526574906754</v>
+        <v>0.02867521697683335</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02408734226709144</v>
+        <v>0.02420967439902012</v>
       </c>
       <c r="K128" t="n">
         <v>0.05763526574906754</v>
       </c>
       <c r="L128" t="n">
-        <v>0.05201514082410108</v>
+        <v>0.04880716003794383</v>
       </c>
       <c r="M128" t="n">
-        <v>0.05743413691967785</v>
+        <v>0.0574865444705174</v>
       </c>
       <c r="N128" t="n">
-        <v>0.07962739025630572</v>
+        <v>0.07952267538803348</v>
       </c>
       <c r="O128" t="n">
-        <v>0.0574347412354259</v>
+        <v>0.05744208464346071</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.02422670429890382</v>
+        <v>0.07291992284599007</v>
       </c>
       <c r="G129" t="n">
-        <v>0.05855011123714797</v>
+        <v>0.0291303791510688</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02422670429890382</v>
+        <v>0.02403916543654952</v>
       </c>
       <c r="K129" t="n">
         <v>0.05855011123714797</v>
       </c>
       <c r="L129" t="n">
-        <v>0.05050817820913628</v>
+        <v>0.05187234928773127</v>
       </c>
       <c r="M129" t="n">
-        <v>0.05834578988665686</v>
+        <v>0.05839902930338275</v>
       </c>
       <c r="N129" t="n">
-        <v>0.078192761645548</v>
+        <v>0.07645252788052948</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05834640379471837</v>
+        <v>0.05835386376478548</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02428860311872902</v>
+        <v>0.07310703824804622</v>
       </c>
       <c r="G130" t="n">
-        <v>0.0594649567252284</v>
+        <v>0.02958554132530425</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02428860311872902</v>
+        <v>0.02397823469630875</v>
       </c>
       <c r="K130" t="n">
         <v>0.0594649567252284</v>
       </c>
       <c r="L130" t="n">
-        <v>0.04952032531169376</v>
+        <v>0.05170741542580889</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05925744285363588</v>
+        <v>0.05931151413624811</v>
       </c>
       <c r="N130" t="n">
-        <v>0.07734469742680816</v>
+        <v>0.07574169552748078</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05925806635401085</v>
+        <v>0.05926564288611025</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.02509066339094847</v>
+        <v>0.07328715821862536</v>
       </c>
       <c r="G131" t="n">
-        <v>0.06037980221330884</v>
+        <v>0.0300407034995397</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02509066339094847</v>
+        <v>0.02458440298969387</v>
       </c>
       <c r="K131" t="n">
         <v>0.06037980221330884</v>
       </c>
       <c r="L131" t="n">
-        <v>0.05059670872065053</v>
+        <v>0.04894769358791073</v>
       </c>
       <c r="M131" t="n">
-        <v>0.06016909582061489</v>
+        <v>0.06022399896911346</v>
       </c>
       <c r="N131" t="n">
-        <v>0.07993888412901112</v>
+        <v>0.07828896926789825</v>
       </c>
       <c r="O131" t="n">
-        <v>0.06016972891330332</v>
+        <v>0.06017742200743503</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02519558559872646</v>
+        <v>0.07346037660309908</v>
       </c>
       <c r="G132" t="n">
-        <v>0.06129464770138928</v>
+        <v>0.03049586567377515</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02519558559872646</v>
+        <v>0.02481976134846839</v>
       </c>
       <c r="K132" t="n">
         <v>0.06129464770138928</v>
       </c>
       <c r="L132" t="n">
-        <v>0.05071082686022221</v>
+        <v>0.05135436609128627</v>
       </c>
       <c r="M132" t="n">
-        <v>0.0610807487875939</v>
+        <v>0.06113648380197883</v>
       </c>
       <c r="N132" t="n">
-        <v>0.07413974756246156</v>
+        <v>0.07918262089109385</v>
       </c>
       <c r="O132" t="n">
-        <v>0.0610813914725958</v>
+        <v>0.0610892011287598</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.02537033095887287</v>
+        <v>0.07362678724683903</v>
       </c>
       <c r="G133" t="n">
-        <v>0.06220949318946972</v>
+        <v>0.0309510278480106</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02537033095887287</v>
+        <v>0.02392540586722806</v>
       </c>
       <c r="K133" t="n">
         <v>0.06220949318946972</v>
       </c>
       <c r="L133" t="n">
-        <v>0.04983557820214879</v>
+        <v>0.05327658279477429</v>
       </c>
       <c r="M133" t="n">
-        <v>0.06199240175457292</v>
+        <v>0.06204896863484418</v>
       </c>
       <c r="N133" t="n">
-        <v>0.07957450537066724</v>
+        <v>0.07452730866177226</v>
       </c>
       <c r="O133" t="n">
-        <v>0.06199305403188828</v>
+        <v>0.06200098025008458</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.02533256078959625</v>
+        <v>0.07378648399521678</v>
       </c>
       <c r="G134" t="n">
-        <v>0.06312433867755014</v>
+        <v>0.03140619002224605</v>
       </c>
       <c r="J134" t="n">
-        <v>0.02533256078959625</v>
+        <v>0.02438069179941828</v>
       </c>
       <c r="K134" t="n">
         <v>0.06312433867755014</v>
       </c>
       <c r="L134" t="n">
-        <v>0.0529086171527112</v>
+        <v>0.05021049773699976</v>
       </c>
       <c r="M134" t="n">
-        <v>0.06290405472155193</v>
+        <v>0.06296145346770954</v>
       </c>
       <c r="N134" t="n">
-        <v>0.07662792446870287</v>
+        <v>0.07495380882043862</v>
       </c>
       <c r="O134" t="n">
-        <v>0.06290471659118074</v>
+        <v>0.06291275937140935</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.02479605141993096</v>
+        <v>0.07393956069360402</v>
       </c>
       <c r="G135" t="n">
-        <v>0.06403918416563059</v>
+        <v>0.0318613521964815</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02479605141993096</v>
+        <v>0.02450846749942089</v>
       </c>
       <c r="K135" t="n">
         <v>0.06403918416563059</v>
       </c>
       <c r="L135" t="n">
-        <v>0.05171255978579148</v>
+        <v>0.05074295627163231</v>
       </c>
       <c r="M135" t="n">
-        <v>0.06381570768853095</v>
+        <v>0.0638739383005749</v>
       </c>
       <c r="N135" t="n">
-        <v>0.07917305254148538</v>
+        <v>0.07818690610357842</v>
       </c>
       <c r="O135" t="n">
-        <v>0.06381637915047322</v>
+        <v>0.06382453849273412</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02464077597772565</v>
+        <v>0.07408611118737231</v>
       </c>
       <c r="G136" t="n">
-        <v>0.06495402965371104</v>
+        <v>0.03231651437071695</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02464077597772565</v>
+        <v>0.025091474124325</v>
       </c>
       <c r="K136" t="n">
         <v>0.06495402965371104</v>
       </c>
       <c r="L136" t="n">
-        <v>0.05303341430762987</v>
+        <v>0.05282630009676911</v>
       </c>
       <c r="M136" t="n">
-        <v>0.06472736065550996</v>
+        <v>0.06478642313344025</v>
       </c>
       <c r="N136" t="n">
-        <v>0.08052009407463767</v>
+        <v>0.07470188253422516</v>
       </c>
       <c r="O136" t="n">
-        <v>0.06472804170976569</v>
+        <v>0.06473631761405889</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.02593564072829643</v>
+        <v>0.07422622932189331</v>
       </c>
       <c r="G137" t="n">
-        <v>0.06586887514179147</v>
+        <v>0.0327716765449524</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02593564072829643</v>
+        <v>0.0249129384962655</v>
       </c>
       <c r="K137" t="n">
         <v>0.06586887514179147</v>
       </c>
       <c r="L137" t="n">
-        <v>0.05112185912294928</v>
+        <v>0.05251541484744493</v>
       </c>
       <c r="M137" t="n">
-        <v>0.06563901362248897</v>
+        <v>0.06569890796630561</v>
       </c>
       <c r="N137" t="n">
-        <v>0.07552219955675332</v>
+        <v>0.07922415473800881</v>
       </c>
       <c r="O137" t="n">
-        <v>0.06563970426905817</v>
+        <v>0.06564809673538367</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.02531069839074605</v>
+        <v>0.07436000894253864</v>
       </c>
       <c r="G138" t="n">
-        <v>0.06678372062987191</v>
+        <v>0.03322683871918785</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02531069839074605</v>
+        <v>0.02521609121136485</v>
       </c>
       <c r="K138" t="n">
         <v>0.06678372062987191</v>
       </c>
       <c r="L138" t="n">
-        <v>0.05144463014186784</v>
+        <v>0.05268544467534098</v>
       </c>
       <c r="M138" t="n">
-        <v>0.066550666589468</v>
+        <v>0.06661139279917096</v>
       </c>
       <c r="N138" t="n">
-        <v>0.0768575363185745</v>
+        <v>0.07905820456301565</v>
       </c>
       <c r="O138" t="n">
-        <v>0.06655136682835065</v>
+        <v>0.06655987585670843</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.02580668237037313</v>
+        <v>0.07448754389467985</v>
       </c>
       <c r="G139" t="n">
-        <v>0.06769856611795234</v>
+        <v>0.0336820008934233</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02580668237037313</v>
+        <v>0.02473045329351178</v>
       </c>
       <c r="K139" t="n">
         <v>0.06769856611795234</v>
       </c>
       <c r="L139" t="n">
-        <v>0.05266679345041297</v>
+        <v>0.05341780034120852</v>
       </c>
       <c r="M139" t="n">
-        <v>0.06746231955644701</v>
+        <v>0.06752387763203631</v>
       </c>
       <c r="N139" t="n">
-        <v>0.07986946123609928</v>
+        <v>0.07611962195676875</v>
       </c>
       <c r="O139" t="n">
-        <v>0.06746302938764312</v>
+        <v>0.06747165497803322</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02473761594446595</v>
+        <v>0.07460892802368863</v>
       </c>
       <c r="G140" t="n">
-        <v>0.06861341160603278</v>
+        <v>0.03413716306765874</v>
       </c>
       <c r="J140" t="n">
-        <v>0.02473761594446595</v>
+        <v>0.02606171790517525</v>
       </c>
       <c r="K140" t="n">
         <v>0.06861341160603278</v>
       </c>
       <c r="L140" t="n">
-        <v>0.05006385652319148</v>
+        <v>0.05217033688241621</v>
       </c>
       <c r="M140" t="n">
-        <v>0.068373972523426</v>
+        <v>0.06843636246490167</v>
       </c>
       <c r="N140" t="n">
-        <v>0.07943584215021365</v>
+        <v>0.07665895860659361</v>
       </c>
       <c r="O140" t="n">
-        <v>0.06837469194693559</v>
+        <v>0.06838343409935799</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.02505937876443483</v>
+        <v>0.07472425517493661</v>
       </c>
       <c r="G141" t="n">
-        <v>0.06952825709411321</v>
+        <v>0.0345923252418942</v>
       </c>
       <c r="J141" t="n">
-        <v>0.02505937876443483</v>
+        <v>0.02517448350678594</v>
       </c>
       <c r="K141" t="n">
         <v>0.06952825709411321</v>
       </c>
       <c r="L141" t="n">
-        <v>0.05342618612494954</v>
+        <v>0.0527779511285793</v>
       </c>
       <c r="M141" t="n">
-        <v>0.06928562549040503</v>
+        <v>0.06934884729776702</v>
       </c>
       <c r="N141" t="n">
-        <v>0.0785289769658058</v>
+        <v>0.08080713545303586</v>
       </c>
       <c r="O141" t="n">
-        <v>0.06928635450622807</v>
+        <v>0.06929521322068276</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.02543004932845004</v>
+        <v>0.07483361919379539</v>
       </c>
       <c r="G142" t="n">
-        <v>0.07044310258219365</v>
+        <v>0.03504748741612965</v>
       </c>
       <c r="J142" t="n">
-        <v>0.02543004932845004</v>
+        <v>0.02598951847251192</v>
       </c>
       <c r="K142" t="n">
         <v>0.07044310258219365</v>
       </c>
       <c r="L142" t="n">
-        <v>0.05148188307984788</v>
+        <v>0.05140426797161746</v>
       </c>
       <c r="M142" t="n">
-        <v>0.07019727845738404</v>
+        <v>0.07026133213063238</v>
       </c>
       <c r="N142" t="n">
-        <v>0.08264549774052099</v>
+        <v>0.08273669121875415</v>
       </c>
       <c r="O142" t="n">
-        <v>0.07019801706552055</v>
+        <v>0.07020699234200753</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.0255956897321636</v>
+        <v>0.07493711392563655</v>
       </c>
       <c r="G143" t="n">
-        <v>0.07135794807027408</v>
+        <v>0.0355026495903651</v>
       </c>
       <c r="J143" t="n">
-        <v>0.0255956897321636</v>
+        <v>0.02578489917006788</v>
       </c>
       <c r="K143" t="n">
         <v>0.07135794807027408</v>
       </c>
       <c r="L143" t="n">
-        <v>0.05347648497046559</v>
+        <v>0.05116443371012416</v>
       </c>
       <c r="M143" t="n">
-        <v>0.07110893142436304</v>
+        <v>0.07117381696349774</v>
       </c>
       <c r="N143" t="n">
-        <v>0.0821000773053579</v>
+        <v>0.08035006761083774</v>
       </c>
       <c r="O143" t="n">
-        <v>0.07110967962481302</v>
+        <v>0.0711187714633323</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02617691492253399</v>
+        <v>0.07503483321583179</v>
       </c>
       <c r="G144" t="n">
-        <v>0.07227279355835452</v>
+        <v>0.03595781176460055</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02617691492253399</v>
+        <v>0.02572840405194214</v>
       </c>
       <c r="K144" t="n">
         <v>0.07227279355835452</v>
       </c>
       <c r="L144" t="n">
-        <v>0.05259773811958937</v>
+        <v>0.05196888525021295</v>
       </c>
       <c r="M144" t="n">
-        <v>0.07202058439134207</v>
+        <v>0.07208630179636309</v>
       </c>
       <c r="N144" t="n">
-        <v>0.07930405456317446</v>
+        <v>0.0768913181665391</v>
       </c>
       <c r="O144" t="n">
-        <v>0.0720213421841055</v>
+        <v>0.07203055058465707</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02573951180716284</v>
+        <v>0.07512687090975265</v>
       </c>
       <c r="G145" t="n">
-        <v>0.07318763904643495</v>
+        <v>0.036412973938836</v>
       </c>
       <c r="J145" t="n">
-        <v>0.02573951180716284</v>
+        <v>0.02571057986015288</v>
       </c>
       <c r="K145" t="n">
         <v>0.07318763904643495</v>
       </c>
       <c r="L145" t="n">
-        <v>0.05226664077622445</v>
+        <v>0.05083585260072759</v>
       </c>
       <c r="M145" t="n">
-        <v>0.07293223735832108</v>
+        <v>0.07299878662922844</v>
       </c>
       <c r="N145" t="n">
-        <v>0.07773680112695464</v>
+        <v>0.08318843655980268</v>
       </c>
       <c r="O145" t="n">
-        <v>0.07293300474339796</v>
+        <v>0.07294232970598186</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.02656507923677114</v>
+        <v>0.0752133208527708</v>
       </c>
       <c r="G146" t="n">
-        <v>0.0741024845345154</v>
+        <v>0.03686813611307145</v>
       </c>
       <c r="J146" t="n">
-        <v>0.02656507923677114</v>
+        <v>0.0255034871271231</v>
       </c>
       <c r="K146" t="n">
         <v>0.0741024845345154</v>
       </c>
       <c r="L146" t="n">
-        <v>0.05280230920506063</v>
+        <v>0.05468090818477067</v>
       </c>
       <c r="M146" t="n">
-        <v>0.07384389032530009</v>
+        <v>0.07391127146209379</v>
       </c>
       <c r="N146" t="n">
-        <v>0.08055454246514715</v>
+        <v>0.08300339127127943</v>
       </c>
       <c r="O146" t="n">
-        <v>0.07384466730269043</v>
+        <v>0.07385410882730663</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02646063193755303</v>
+        <v>0.07529427689025785</v>
       </c>
       <c r="G147" t="n">
-        <v>0.07501733002259584</v>
+        <v>0.0373232982873069</v>
       </c>
       <c r="J147" t="n">
-        <v>0.02646063193755303</v>
+        <v>0.02587423554179578</v>
       </c>
       <c r="K147" t="n">
         <v>0.07501733002259584</v>
       </c>
       <c r="L147" t="n">
-        <v>0.0533294954944962</v>
+        <v>0.0518609680589488</v>
       </c>
       <c r="M147" t="n">
-        <v>0.07475554329227911</v>
+        <v>0.07482375629495915</v>
       </c>
       <c r="N147" t="n">
-        <v>0.08209599626913927</v>
+        <v>0.08305067233127178</v>
       </c>
       <c r="O147" t="n">
-        <v>0.07475632986198293</v>
+        <v>0.0747658879486314</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02605897087560127</v>
+        <v>0.07536983286758542</v>
       </c>
       <c r="G148" t="n">
-        <v>0.07593217551067627</v>
+        <v>0.03777846046154235</v>
       </c>
       <c r="J148" t="n">
-        <v>0.02605897087560127</v>
+        <v>0.02585685947998607</v>
       </c>
       <c r="K148" t="n">
         <v>0.07593217551067627</v>
       </c>
       <c r="L148" t="n">
-        <v>0.05446423182549087</v>
+        <v>0.05568476752751408</v>
       </c>
       <c r="M148" t="n">
-        <v>0.07566719625925812</v>
+        <v>0.07573624112782451</v>
       </c>
       <c r="N148" t="n">
-        <v>0.07862370752498549</v>
+        <v>0.08094146515372452</v>
       </c>
       <c r="O148" t="n">
-        <v>0.07566799242127539</v>
+        <v>0.07567766706995617</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.0263075160274221</v>
+        <v>0.07544008263012511</v>
       </c>
       <c r="G149" t="n">
-        <v>0.07684702099875672</v>
+        <v>0.0382336226357778</v>
       </c>
       <c r="J149" t="n">
-        <v>0.0263075160274221</v>
+        <v>0.02577243312271085</v>
       </c>
       <c r="K149" t="n">
         <v>0.07684702099875672</v>
       </c>
       <c r="L149" t="n">
-        <v>0.05226610782872987</v>
+        <v>0.05466283645345027</v>
       </c>
       <c r="M149" t="n">
-        <v>0.07657884922623713</v>
+        <v>0.07664872596068988</v>
       </c>
       <c r="N149" t="n">
-        <v>0.08022237077605926</v>
+        <v>0.08104922078966825</v>
       </c>
       <c r="O149" t="n">
-        <v>0.07657965498056786</v>
+        <v>0.07658944619128094</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02583530460416619</v>
+        <v>0.07550512002324859</v>
       </c>
       <c r="G150" t="n">
-        <v>0.07776186648683715</v>
+        <v>0.03868878481001325</v>
       </c>
       <c r="J150" t="n">
-        <v>0.02583530460416619</v>
+        <v>0.02531602523932037</v>
       </c>
       <c r="K150" t="n">
         <v>0.07776186648683715</v>
       </c>
       <c r="L150" t="n">
-        <v>0.05436936934165135</v>
+        <v>0.05533680859474541</v>
       </c>
       <c r="M150" t="n">
-        <v>0.07749050219321614</v>
+        <v>0.07756121079355523</v>
       </c>
       <c r="N150" t="n">
-        <v>0.08458104312451492</v>
+        <v>0.08464352406634951</v>
       </c>
       <c r="O150" t="n">
-        <v>0.07749131753986034</v>
+        <v>0.07750122531260571</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02688966718442015</v>
+        <v>0.07556503889232744</v>
       </c>
       <c r="G151" t="n">
-        <v>0.07867671197491759</v>
+        <v>0.0391439469842487</v>
       </c>
       <c r="J151" t="n">
-        <v>0.02688966718442015</v>
+        <v>0.02573739051264093</v>
       </c>
       <c r="K151" t="n">
         <v>0.07867671197491759</v>
       </c>
       <c r="L151" t="n">
-        <v>0.05589653031092204</v>
+        <v>0.05324696856924549</v>
       </c>
       <c r="M151" t="n">
-        <v>0.07840215516019516</v>
+        <v>0.07847369562642059</v>
       </c>
       <c r="N151" t="n">
-        <v>0.08355856730138961</v>
+        <v>0.08455283977957523</v>
       </c>
       <c r="O151" t="n">
-        <v>0.07840298009915281</v>
+        <v>0.0784130044339305</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02573584051735366</v>
+        <v>0.07561993308273328</v>
       </c>
       <c r="G152" t="n">
-        <v>0.07959155746299802</v>
+        <v>0.03959910915848415</v>
       </c>
       <c r="J152" t="n">
-        <v>0.02573584051735366</v>
+        <v>0.02625596638280528</v>
       </c>
       <c r="K152" t="n">
         <v>0.07959155746299802</v>
       </c>
       <c r="L152" t="n">
-        <v>0.05475792718055475</v>
+        <v>0.05396489943947083</v>
       </c>
       <c r="M152" t="n">
-        <v>0.07931380812717417</v>
+        <v>0.07938618045928594</v>
       </c>
       <c r="N152" t="n">
-        <v>0.0812075513495038</v>
+        <v>0.08080415262028967</v>
       </c>
       <c r="O152" t="n">
-        <v>0.07931464265844529</v>
+        <v>0.07932478355525525</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02596424141417075</v>
+        <v>0.07566989643983775</v>
       </c>
       <c r="G153" t="n">
-        <v>0.08050640295107846</v>
+        <v>0.0400542713327196</v>
       </c>
       <c r="J153" t="n">
-        <v>0.02596424141417075</v>
+        <v>0.0259201577101766</v>
       </c>
       <c r="K153" t="n">
         <v>0.08050640295107846</v>
       </c>
       <c r="L153" t="n">
-        <v>0.05256012167704932</v>
+        <v>0.05580444328059944</v>
       </c>
       <c r="M153" t="n">
-        <v>0.08022546109415318</v>
+        <v>0.08029866529215129</v>
       </c>
       <c r="N153" t="n">
-        <v>0.07997968707761899</v>
+        <v>0.08004342433591755</v>
       </c>
       <c r="O153" t="n">
-        <v>0.08022630521773777</v>
+        <v>0.08023656267658004</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02601833090849519</v>
+        <v>0.07571502280901245</v>
       </c>
       <c r="G154" t="n">
-        <v>0.08142124843915889</v>
+        <v>0.04050943350695504</v>
       </c>
       <c r="J154" t="n">
-        <v>0.02601833090849519</v>
+        <v>0.02677507212152302</v>
       </c>
       <c r="K154" t="n">
         <v>0.08142124843915889</v>
       </c>
       <c r="L154" t="n">
-        <v>0.05457396643554108</v>
+        <v>0.05303211742954642</v>
       </c>
       <c r="M154" t="n">
-        <v>0.08113711406113221</v>
+        <v>0.08121115012501665</v>
       </c>
       <c r="N154" t="n">
-        <v>0.08417746175408819</v>
+        <v>0.08330880993838419</v>
       </c>
       <c r="O154" t="n">
-        <v>0.08113796777703024</v>
+        <v>0.08114834179790481</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02676085582352956</v>
+        <v>0.07575540603562901</v>
       </c>
       <c r="G155" t="n">
-        <v>0.08233609392723933</v>
+        <v>0.0409645956811905</v>
       </c>
       <c r="J155" t="n">
         <v>0.02676085582352956</v>
@@ -11919,2575 +11919,2575 @@
         <v>0.08233609392723933</v>
       </c>
       <c r="L155" t="n">
-        <v>0.05477579715947417</v>
+        <v>0.05503159736107541</v>
       </c>
       <c r="M155" t="n">
-        <v>0.08204876702811122</v>
+        <v>0.082123634957882</v>
       </c>
       <c r="N155" t="n">
-        <v>0.08074939662976038</v>
+        <v>0.08221226267559606</v>
       </c>
       <c r="O155" t="n">
-        <v>0.0820496303363227</v>
+        <v>0.08206012091922958</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.0260621587915453</v>
+        <v>0.07579113996505907</v>
       </c>
       <c r="G156" t="n">
-        <v>0.08325093941531976</v>
+        <v>0.04141975785542595</v>
       </c>
       <c r="J156" t="n">
-        <v>0.0260621587915453</v>
+        <v>0.02679042186368553</v>
       </c>
       <c r="K156" t="n">
         <v>0.08325093941531976</v>
       </c>
       <c r="L156" t="n">
-        <v>0.05339833792182377</v>
+        <v>0.0554082486173505</v>
       </c>
       <c r="M156" t="n">
-        <v>0.08296041999509023</v>
+        <v>0.08303611979074736</v>
       </c>
       <c r="N156" t="n">
-        <v>0.08315091160865312</v>
+        <v>0.08484817672478528</v>
       </c>
       <c r="O156" t="n">
-        <v>0.08296129289561519</v>
+        <v>0.08297190004055435</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02678934939438836</v>
+        <v>0.07582231844267422</v>
       </c>
       <c r="G157" t="n">
-        <v>0.08416578490340021</v>
+        <v>0.0418749200296614</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02678934939438836</v>
+        <v>0.02736509831657079</v>
       </c>
       <c r="K157" t="n">
         <v>0.08416578490340021</v>
       </c>
       <c r="L157" t="n">
-        <v>0.0548044063180699</v>
+        <v>0.05628220706014733</v>
       </c>
       <c r="M157" t="n">
-        <v>0.08387207296206925</v>
+        <v>0.08394860462361271</v>
       </c>
       <c r="N157" t="n">
-        <v>0.08495393802718743</v>
+        <v>0.08004600478098511</v>
       </c>
       <c r="O157" t="n">
-        <v>0.08387295545490767</v>
+        <v>0.08388367916187914</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.02667242175818954</v>
+        <v>0.07584903531384607</v>
       </c>
       <c r="G158" t="n">
-        <v>0.08508063039148064</v>
+        <v>0.04233008220389685</v>
       </c>
       <c r="J158" t="n">
-        <v>0.02667242175818954</v>
+        <v>0.02724136802568845</v>
       </c>
       <c r="K158" t="n">
         <v>0.08508063039148064</v>
       </c>
       <c r="L158" t="n">
-        <v>0.05607787271260245</v>
+        <v>0.05303133744996294</v>
       </c>
       <c r="M158" t="n">
-        <v>0.08478372592904826</v>
+        <v>0.08486108945647806</v>
       </c>
       <c r="N158" t="n">
-        <v>0.0808819015565313</v>
+        <v>0.08031075021481693</v>
       </c>
       <c r="O158" t="n">
-        <v>0.08478461801420013</v>
+        <v>0.0847954582832039</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02627072956621708</v>
+        <v>0.07587138442394629</v>
       </c>
       <c r="G159" t="n">
-        <v>0.08599547587956108</v>
+        <v>0.0427852443781323</v>
       </c>
       <c r="J159" t="n">
-        <v>0.02627072956621708</v>
+        <v>0.02706296490005544</v>
       </c>
       <c r="K159" t="n">
         <v>0.08599547587956108</v>
       </c>
       <c r="L159" t="n">
-        <v>0.05352208703486325</v>
+        <v>0.05601775382706434</v>
       </c>
       <c r="M159" t="n">
-        <v>0.08569537889602727</v>
+        <v>0.08577357428934343</v>
       </c>
       <c r="N159" t="n">
-        <v>0.08311746729936476</v>
+        <v>0.08117603358729614</v>
       </c>
       <c r="O159" t="n">
-        <v>0.08569628057349261</v>
+        <v>0.08570723740452868</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.0263449487422948</v>
+        <v>0.07588945961834649</v>
       </c>
       <c r="G160" t="n">
-        <v>0.08691032136764151</v>
+        <v>0.04324040655236775</v>
       </c>
       <c r="J160" t="n">
-        <v>0.0263449487422948</v>
+        <v>0.02689158966209139</v>
       </c>
       <c r="K160" t="n">
         <v>0.08691032136764151</v>
       </c>
       <c r="L160" t="n">
-        <v>0.05532571868965722</v>
+        <v>0.05601968252273026</v>
       </c>
       <c r="M160" t="n">
-        <v>0.08660703186300629</v>
+        <v>0.08668605912220878</v>
       </c>
       <c r="N160" t="n">
-        <v>0.08097734236750315</v>
+        <v>0.08438340365814895</v>
       </c>
       <c r="O160" t="n">
-        <v>0.08660794313278508</v>
+        <v>0.08661901652585345</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02678906799539461</v>
+        <v>0.07590335474241824</v>
       </c>
       <c r="G161" t="n">
-        <v>0.08782516685572196</v>
+        <v>0.0436955687266032</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02678906799539461</v>
+        <v>0.02728210623011096</v>
       </c>
       <c r="K161" t="n">
         <v>0.08782516685572196</v>
       </c>
       <c r="L161" t="n">
-        <v>0.05414690037797718</v>
+        <v>0.05689674926198329</v>
       </c>
       <c r="M161" t="n">
-        <v>0.0875186848299853</v>
+        <v>0.08759854395507413</v>
       </c>
       <c r="N161" t="n">
-        <v>0.08134109175523557</v>
+        <v>0.08207306145593019</v>
       </c>
       <c r="O161" t="n">
-        <v>0.08751960569207756</v>
+        <v>0.08753079564717821</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02704134085955338</v>
+        <v>0.07591316364153319</v>
       </c>
       <c r="G162" t="n">
-        <v>0.0887400123438024</v>
+        <v>0.04415073090083865</v>
       </c>
       <c r="J162" t="n">
-        <v>0.02704134085955338</v>
+        <v>0.02699449038004952</v>
       </c>
       <c r="K162" t="n">
         <v>0.0887400123438024</v>
       </c>
       <c r="L162" t="n">
-        <v>0.05491648485532183</v>
+        <v>0.05676528953519872</v>
       </c>
       <c r="M162" t="n">
-        <v>0.0884303377969643</v>
+        <v>0.08851102878793948</v>
       </c>
       <c r="N162" t="n">
-        <v>0.08475235959262323</v>
+        <v>0.08350859114588821</v>
       </c>
       <c r="O162" t="n">
-        <v>0.08843126825137004</v>
+        <v>0.08844257476850299</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02645062341932727</v>
+        <v>0.07591898016106301</v>
       </c>
       <c r="G163" t="n">
-        <v>0.08965485783188283</v>
+        <v>0.0446058930750741</v>
       </c>
       <c r="J163" t="n">
-        <v>0.02645062341932727</v>
+        <v>0.02702277394371196</v>
       </c>
       <c r="K163" t="n">
         <v>0.08965485783188283</v>
       </c>
       <c r="L163" t="n">
-        <v>0.05801933056763911</v>
+        <v>0.05624459070517548</v>
       </c>
       <c r="M163" t="n">
-        <v>0.08934199076394332</v>
+        <v>0.08942351362080485</v>
       </c>
       <c r="N163" t="n">
-        <v>0.08592206145953152</v>
+        <v>0.0873923605349427</v>
       </c>
       <c r="O163" t="n">
-        <v>0.08934293081066251</v>
+        <v>0.08935435388982776</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.0272741820503897</v>
+        <v>0.07592089814637926</v>
       </c>
       <c r="G164" t="n">
-        <v>0.09056970331996327</v>
+        <v>0.04506105524930955</v>
       </c>
       <c r="J164" t="n">
-        <v>0.0272741820503897</v>
+        <v>0.02776110378340084</v>
       </c>
       <c r="K164" t="n">
         <v>0.09056970331996327</v>
       </c>
       <c r="L164" t="n">
-        <v>0.05711587262307904</v>
+        <v>0.05559277609244248</v>
       </c>
       <c r="M164" t="n">
-        <v>0.09025364373092233</v>
+        <v>0.0903359984536702</v>
       </c>
       <c r="N164" t="n">
-        <v>0.08568424481363796</v>
+        <v>0.08145700572081049</v>
       </c>
       <c r="O164" t="n">
-        <v>0.09025459336995498</v>
+        <v>0.09026613301115254</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02773560718520235</v>
+        <v>0.07542089814637924</v>
       </c>
       <c r="G165" t="n">
-        <v>0.0914845488080437</v>
+        <v>0.04506105524930955</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02773560718520235</v>
+        <v>0.02730180165653658</v>
       </c>
       <c r="K165" t="n">
         <v>0.0914845488080437</v>
       </c>
       <c r="L165" t="n">
-        <v>0.05625705879428514</v>
+        <v>0.05522526786626294</v>
       </c>
       <c r="M165" t="n">
-        <v>0.09116529669790134</v>
+        <v>0.09124848328653556</v>
       </c>
       <c r="N165" t="n">
-        <v>0.08429917539649195</v>
+        <v>0.0849035520676919</v>
       </c>
       <c r="O165" t="n">
-        <v>0.09116625592924746</v>
+        <v>0.09117791213247731</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02716016255417576</v>
+        <v>0.07479456727029606</v>
       </c>
       <c r="G166" t="n">
-        <v>0.09239939429612413</v>
+        <v>0.04509553467979599</v>
       </c>
       <c r="J166" t="n">
-        <v>0.02716016255417576</v>
+        <v>0.02749247334859996</v>
       </c>
       <c r="K166" t="n">
         <v>0.09239939429612413</v>
       </c>
       <c r="L166" t="n">
-        <v>0.05798248122312044</v>
+        <v>0.05806880562743491</v>
       </c>
       <c r="M166" t="n">
-        <v>0.09207694966488036</v>
+        <v>0.09216096811940092</v>
       </c>
       <c r="N166" t="n">
-        <v>0.08204978656925227</v>
+        <v>0.08405642944119285</v>
       </c>
       <c r="O166" t="n">
-        <v>0.09207791848853994</v>
+        <v>0.09208969125380209</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02791519150996648</v>
+        <v>0.07416650187732679</v>
       </c>
       <c r="G167" t="n">
-        <v>0.09331423978420457</v>
+        <v>0.04512912433727181</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02791519150996648</v>
+        <v>0.02717185345724499</v>
       </c>
       <c r="K167" t="n">
         <v>0.09331423978420457</v>
       </c>
       <c r="L167" t="n">
-        <v>0.05854917840686666</v>
+        <v>0.05442085575950331</v>
       </c>
       <c r="M167" t="n">
-        <v>0.09298860263185937</v>
+        <v>0.09307345295226628</v>
       </c>
       <c r="N167" t="n">
-        <v>0.08351623645107342</v>
+        <v>0.08798296780491754</v>
       </c>
       <c r="O167" t="n">
-        <v>0.09298958104783241</v>
+        <v>0.09300147037512685</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.0274143368676813</v>
+        <v>0.07353670196747153</v>
       </c>
       <c r="G168" t="n">
-        <v>0.09422908527228502</v>
+        <v>0.04516182422173705</v>
       </c>
       <c r="J168" t="n">
-        <v>0.0274143368676813</v>
+        <v>0.02743071311160233</v>
       </c>
       <c r="K168" t="n">
         <v>0.09422908527228502</v>
       </c>
       <c r="L168" t="n">
-        <v>0.05614271042327709</v>
+        <v>0.05646402147974447</v>
       </c>
       <c r="M168" t="n">
-        <v>0.09390025559883838</v>
+        <v>0.09398593778513163</v>
       </c>
       <c r="N168" t="n">
-        <v>0.08499200922603689</v>
+        <v>0.08531935777957894</v>
       </c>
       <c r="O168" t="n">
-        <v>0.09390124360712489</v>
+        <v>0.09391324949645163</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.0267120906934132</v>
+        <v>0.0729051675407302</v>
       </c>
       <c r="G169" t="n">
-        <v>0.09514393076036545</v>
+        <v>0.04519363433319167</v>
       </c>
       <c r="J169" t="n">
-        <v>0.0267120906934132</v>
+        <v>0.0279089726750166</v>
       </c>
       <c r="K169" t="n">
         <v>0.09514393076036545</v>
       </c>
       <c r="L169" t="n">
-        <v>0.05503004642193343</v>
+        <v>0.05884057810203963</v>
       </c>
       <c r="M169" t="n">
-        <v>0.09481190856581741</v>
+        <v>0.09489842261799698</v>
       </c>
       <c r="N169" t="n">
-        <v>0.08958668759923266</v>
+        <v>0.08914930627594253</v>
       </c>
       <c r="O169" t="n">
-        <v>0.09481290616641735</v>
+        <v>0.09482502861777641</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02696917940496985</v>
+        <v>0.07227189859710287</v>
       </c>
       <c r="G170" t="n">
-        <v>0.09605877624844589</v>
+        <v>0.04522455467163569</v>
       </c>
       <c r="J170" t="n">
-        <v>0.02696917940496985</v>
+        <v>0.02722001887229848</v>
       </c>
       <c r="K170" t="n">
         <v>0.09605877624844589</v>
       </c>
       <c r="L170" t="n">
-        <v>0.05640559410275217</v>
+        <v>0.0585927085329058</v>
       </c>
       <c r="M170" t="n">
-        <v>0.09572356153279642</v>
+        <v>0.09581090745086233</v>
       </c>
       <c r="N170" t="n">
-        <v>0.08685320565815591</v>
+        <v>0.08706051019788119</v>
       </c>
       <c r="O170" t="n">
-        <v>0.09572456872570982</v>
+        <v>0.09573680773910118</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02747306845698103</v>
+        <v>0.07163689513658951</v>
       </c>
       <c r="G171" t="n">
-        <v>0.09697362173652632</v>
+        <v>0.04525458523706912</v>
       </c>
       <c r="J171" t="n">
-        <v>0.02747306845698103</v>
+        <v>0.02764309222810074</v>
       </c>
       <c r="K171" t="n">
         <v>0.09697362173652632</v>
       </c>
       <c r="L171" t="n">
-        <v>0.05617276951800254</v>
+        <v>0.05597576105604635</v>
       </c>
       <c r="M171" t="n">
-        <v>0.09663521449977543</v>
+        <v>0.09672339228372769</v>
       </c>
       <c r="N171" t="n">
-        <v>0.08856362281324159</v>
+        <v>0.083277851704601</v>
       </c>
       <c r="O171" t="n">
-        <v>0.09663623128500232</v>
+        <v>0.09664858686042595</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02759823889550968</v>
+        <v>0.0710001571591901</v>
       </c>
       <c r="G172" t="n">
-        <v>0.09788846722460676</v>
+        <v>0.04528372602949193</v>
       </c>
       <c r="J172" t="n">
-        <v>0.02759823889550968</v>
+        <v>0.02827453133594947</v>
       </c>
       <c r="K172" t="n">
         <v>0.09788846722460676</v>
       </c>
       <c r="L172" t="n">
-        <v>0.05647365010577238</v>
+        <v>0.05784565627379101</v>
       </c>
       <c r="M172" t="n">
-        <v>0.09754686746675445</v>
+        <v>0.09763587711659305</v>
       </c>
       <c r="N172" t="n">
-        <v>0.08465012705121994</v>
+        <v>0.08751427908921627</v>
       </c>
       <c r="O172" t="n">
-        <v>0.09754789384429478</v>
+        <v>0.09756036598175073</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02719566954106291</v>
+        <v>0.07036168466490468</v>
       </c>
       <c r="G173" t="n">
-        <v>0.09880331271268719</v>
+        <v>0.04531197704890415</v>
       </c>
       <c r="J173" t="n">
-        <v>0.02719566954106291</v>
+        <v>0.02784911775984221</v>
       </c>
       <c r="K173" t="n">
         <v>0.09880331271268719</v>
       </c>
       <c r="L173" t="n">
-        <v>0.05599480118566058</v>
+        <v>0.05812127975604317</v>
       </c>
       <c r="M173" t="n">
-        <v>0.09845852043373346</v>
+        <v>0.0985483619494584</v>
       </c>
       <c r="N173" t="n">
-        <v>0.08403636856776331</v>
+        <v>0.08531815085758626</v>
       </c>
       <c r="O173" t="n">
-        <v>0.09845955640358725</v>
+        <v>0.09847214510307549</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02751776823890775</v>
+        <v>0.06972147765373318</v>
       </c>
       <c r="G174" t="n">
-        <v>0.09971815820076764</v>
+        <v>0.04533933829530575</v>
       </c>
       <c r="J174" t="n">
-        <v>0.02751776823890775</v>
+        <v>0.02794052562451359</v>
       </c>
       <c r="K174" t="n">
         <v>0.09971815820076764</v>
       </c>
       <c r="L174" t="n">
-        <v>0.05934969246238028</v>
+        <v>0.05719684010092008</v>
       </c>
       <c r="M174" t="n">
-        <v>0.09937017340071247</v>
+        <v>0.09946084678232375</v>
       </c>
       <c r="N174" t="n">
-        <v>0.09063345976675929</v>
+        <v>0.0843631013485206</v>
       </c>
       <c r="O174" t="n">
-        <v>0.09937121896287973</v>
+        <v>0.09938392422440027</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02748104183354827</v>
+        <v>0.0690795361256757</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1006330036888481</v>
+        <v>0.04536580976869677</v>
       </c>
       <c r="J175" t="n">
-        <v>0.02748104183354827</v>
+        <v>0.02847286711166994</v>
       </c>
       <c r="K175" t="n">
         <v>0.1006330036888481</v>
       </c>
       <c r="L175" t="n">
-        <v>0.05716281951474442</v>
+        <v>0.05985502075011057</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1002818263676915</v>
+        <v>0.1003733316151891</v>
       </c>
       <c r="N175" t="n">
-        <v>0.08678575328453841</v>
+        <v>0.08961008912574264</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1002828815221722</v>
+        <v>0.100295703345725</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02781308975881318</v>
+        <v>0.06843586008073217</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1015478491769285</v>
+        <v>0.04539139146907717</v>
       </c>
       <c r="J176" t="n">
-        <v>0.02781308975881318</v>
+        <v>0.0288807704164513</v>
       </c>
       <c r="K176" t="n">
         <v>0.1015478491769285</v>
       </c>
       <c r="L176" t="n">
-        <v>0.0584120093028761</v>
+        <v>0.05810401617645458</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1011934793346705</v>
+        <v>0.1012858164480545</v>
       </c>
       <c r="N176" t="n">
-        <v>0.08667739150659343</v>
+        <v>0.08839746466528825</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1011945440814647</v>
+        <v>0.1012074824670498</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02873870804210546</v>
+        <v>0.0677904495189026</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1024626946650089</v>
+        <v>0.04541608339644698</v>
       </c>
       <c r="J177" t="n">
-        <v>0.02873870804210546</v>
+        <v>0.0286056960452063</v>
       </c>
       <c r="K177" t="n">
         <v>0.1024626946650089</v>
       </c>
       <c r="L177" t="n">
-        <v>0.05843277105202652</v>
+        <v>0.05863736531860847</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1021051323016495</v>
+        <v>0.1021983012809198</v>
       </c>
       <c r="N177" t="n">
-        <v>0.08709963489167888</v>
+        <v>0.08791341893273014</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1021062066407572</v>
+        <v>0.1021192615883746</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02781946861059649</v>
+        <v>0.06714330444018703</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1033775401530894</v>
+        <v>0.04543988555080618</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02781946861059649</v>
+        <v>0.02857550693353907</v>
       </c>
       <c r="K178" t="n">
         <v>0.1033775401530894</v>
       </c>
       <c r="L178" t="n">
-        <v>0.05702400649468822</v>
+        <v>0.05962984252697012</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1030167852686285</v>
+        <v>0.1031107861137852</v>
       </c>
       <c r="N178" t="n">
-        <v>0.0889108411802933</v>
+        <v>0.09020084559996444</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1030178692000496</v>
+        <v>0.1030310407096994</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02826061012245179</v>
+        <v>0.06649442484458537</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1042923856411698</v>
+        <v>0.04546279793215478</v>
       </c>
       <c r="J179" t="n">
-        <v>0.02826061012245179</v>
+        <v>0.02782163644785018</v>
       </c>
       <c r="K179" t="n">
         <v>0.1042923856411698</v>
       </c>
       <c r="L179" t="n">
-        <v>0.05953797168630237</v>
+        <v>0.05952255123606889</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1039284382356075</v>
+        <v>0.1040232709466505</v>
       </c>
       <c r="N179" t="n">
-        <v>0.0869379455778288</v>
+        <v>0.08623549130452518</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1039295317593421</v>
+        <v>0.1039428198310241</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02791183263280057</v>
+        <v>0.06584381073209773</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1052072311292503</v>
+        <v>0.04548482054049278</v>
       </c>
       <c r="J180" t="n">
-        <v>0.02791183263280057</v>
+        <v>0.02861013606727381</v>
       </c>
       <c r="K180" t="n">
         <v>0.1052072311292503</v>
       </c>
       <c r="L180" t="n">
-        <v>0.05885028093020062</v>
+        <v>0.05954311329342318</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1048400912025866</v>
+        <v>0.1049357557795159</v>
       </c>
       <c r="N180" t="n">
-        <v>0.08940090804501322</v>
+        <v>0.08923573425021075</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1048411943186346</v>
+        <v>0.1048545989523489</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02805701593293435</v>
+        <v>0.06519146210272403</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1061220766173307</v>
+        <v>0.04550595337582016</v>
       </c>
       <c r="J181" t="n">
-        <v>0.02805701593293435</v>
+        <v>0.02819628292245049</v>
       </c>
       <c r="K181" t="n">
         <v>0.1061220766173307</v>
       </c>
       <c r="L181" t="n">
-        <v>0.05737587663931831</v>
+        <v>0.0594474647204852</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1057517441695656</v>
+        <v>0.1058482406123812</v>
       </c>
       <c r="N181" t="n">
-        <v>0.0898979012125895</v>
+        <v>0.08671946180104156</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1057528568779271</v>
+        <v>0.1057663780736737</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02919647570137421</v>
+        <v>0.06453737895646432</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1070369221054111</v>
+        <v>0.04552619643813696</v>
       </c>
       <c r="J182" t="n">
-        <v>0.02919647570137421</v>
+        <v>0.02807239669141921</v>
       </c>
       <c r="K182" t="n">
         <v>0.1070369221054111</v>
       </c>
       <c r="L182" t="n">
-        <v>0.06069161506549731</v>
+        <v>0.05774392019681379</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1066633971365446</v>
+        <v>0.1067607254452466</v>
       </c>
       <c r="N182" t="n">
-        <v>0.09142985329542164</v>
+        <v>0.08917641997400066</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1066645194372195</v>
+        <v>0.1066781571949984</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02898904043804984</v>
+        <v>0.06388156129331854</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1079517675934916</v>
+        <v>0.04554554972744312</v>
       </c>
       <c r="J183" t="n">
-        <v>0.02898904043804984</v>
+        <v>0.02856873670423911</v>
       </c>
       <c r="K183" t="n">
         <v>0.1079517675934916</v>
       </c>
       <c r="L183" t="n">
-        <v>0.05874391688326849</v>
+        <v>0.05912107916805401</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1075750501035236</v>
+        <v>0.107673210278112</v>
       </c>
       <c r="N183" t="n">
-        <v>0.09194953173022002</v>
+        <v>0.08887160199012312</v>
       </c>
       <c r="O183" t="n">
-        <v>0.107576181996512</v>
+        <v>0.1075899363163232</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02880732136638525</v>
+        <v>0.06322400911328677</v>
       </c>
       <c r="G184" t="n">
-        <v>0.108866613081572</v>
+        <v>0.04556401324373872</v>
       </c>
       <c r="J184" t="n">
-        <v>0.02880732136638525</v>
+        <v>0.02841905318074901</v>
       </c>
       <c r="K184" t="n">
         <v>0.108866613081572</v>
       </c>
       <c r="L184" t="n">
-        <v>0.06038005684190953</v>
+        <v>0.05802011769069912</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1084867030705026</v>
+        <v>0.1085856951109773</v>
       </c>
       <c r="N184" t="n">
-        <v>0.08913537107432334</v>
+        <v>0.09143040031795541</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1084878445558045</v>
+        <v>0.108501715437648</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02819541098106663</v>
+        <v>0.06256472241636896</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1097814585696524</v>
+        <v>0.0455815869870237</v>
       </c>
       <c r="J185" t="n">
-        <v>0.02819541098106663</v>
+        <v>0.02798505455427884</v>
       </c>
       <c r="K185" t="n">
         <v>0.1097814585696524</v>
       </c>
       <c r="L185" t="n">
-        <v>0.05842031022458205</v>
+        <v>0.05685275986097013</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1093983560374816</v>
+        <v>0.1094981799438427</v>
       </c>
       <c r="N185" t="n">
-        <v>0.0879904710489704</v>
+        <v>0.08863638348792413</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1093995071150969</v>
+        <v>0.1094134945589728</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02942504588639998</v>
+        <v>0.0619037012025651</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1106963040577329</v>
+        <v>0.04559827095729808</v>
       </c>
       <c r="J186" t="n">
-        <v>0.02942504588639998</v>
+        <v>0.02910155927508978</v>
       </c>
       <c r="K186" t="n">
         <v>0.1106963040577329</v>
       </c>
       <c r="L186" t="n">
-        <v>0.05853478419194269</v>
+        <v>0.06147962059588932</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1103100090044606</v>
+        <v>0.110410664776708</v>
       </c>
       <c r="N186" t="n">
-        <v>0.0887358765075219</v>
+        <v>0.09244727197794583</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1103111696743894</v>
+        <v>0.1103252736802975</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02958049442552191</v>
+        <v>0.06124094547187522</v>
       </c>
       <c r="G187" t="n">
-        <v>0.1116111495458133</v>
+        <v>0.04561406515456186</v>
       </c>
       <c r="J187" t="n">
-        <v>0.02958049442552191</v>
+        <v>0.02877764000417909</v>
       </c>
       <c r="K187" t="n">
         <v>0.1116111495458133</v>
       </c>
       <c r="L187" t="n">
-        <v>0.06050957993428352</v>
+        <v>0.05857892608408372</v>
       </c>
       <c r="M187" t="n">
-        <v>0.1112216619714396</v>
+        <v>0.1113231496095734</v>
       </c>
       <c r="N187" t="n">
-        <v>0.08913139417884325</v>
+        <v>0.08761992942326585</v>
       </c>
       <c r="O187" t="n">
-        <v>0.1112228322336819</v>
+        <v>0.1112370528016223</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02901963060348456</v>
+        <v>0.0605764552242993</v>
       </c>
       <c r="G188" t="n">
-        <v>0.1125259950338938</v>
+        <v>0.04562896957881502</v>
       </c>
       <c r="J188" t="n">
-        <v>0.02901963060348456</v>
+        <v>0.02836631049350213</v>
       </c>
       <c r="K188" t="n">
         <v>0.1125259950338938</v>
       </c>
       <c r="L188" t="n">
-        <v>0.05797884135440229</v>
+        <v>0.0614850610391981</v>
       </c>
       <c r="M188" t="n">
-        <v>0.1121333149384187</v>
+        <v>0.1122356344424387</v>
       </c>
       <c r="N188" t="n">
-        <v>0.08957253268818183</v>
+        <v>0.08921167998980689</v>
       </c>
       <c r="O188" t="n">
-        <v>0.1121344947929744</v>
+        <v>0.1121488319229471</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02972331392809192</v>
+        <v>0.05991023045983734</v>
       </c>
       <c r="G189" t="n">
-        <v>0.1134408405219742</v>
+        <v>0.04564298423005759</v>
       </c>
       <c r="J189" t="n">
-        <v>0.02972331392809192</v>
+        <v>0.02805169767369357</v>
       </c>
       <c r="K189" t="n">
         <v>0.1134408405219742</v>
       </c>
       <c r="L189" t="n">
-        <v>0.05846460473395479</v>
+        <v>0.06061797581699471</v>
       </c>
       <c r="M189" t="n">
-        <v>0.1130449679053977</v>
+        <v>0.1131481192753041</v>
       </c>
       <c r="N189" t="n">
-        <v>0.09363365155184544</v>
+        <v>0.09047391460582926</v>
       </c>
       <c r="O189" t="n">
-        <v>0.1130461573522669</v>
+        <v>0.1130606110442719</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02900852648126966</v>
+        <v>0.05924227117848935</v>
       </c>
       <c r="G190" t="n">
-        <v>0.1143556860100546</v>
+        <v>0.04565610910828955</v>
       </c>
       <c r="J190" t="n">
-        <v>0.02900852648126966</v>
+        <v>0.02984998725361349</v>
       </c>
       <c r="K190" t="n">
         <v>0.1143556860100546</v>
       </c>
       <c r="L190" t="n">
-        <v>0.06084309178679964</v>
+        <v>0.05774211259791698</v>
       </c>
       <c r="M190" t="n">
-        <v>0.1139566208723767</v>
+        <v>0.1140606041081694</v>
       </c>
       <c r="N190" t="n">
-        <v>0.09099570325808237</v>
+        <v>0.0881636775382611</v>
       </c>
       <c r="O190" t="n">
-        <v>0.1139578199115593</v>
+        <v>0.1139723901655966</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02841331382963172</v>
+        <v>0.05857257738025537</v>
       </c>
       <c r="G191" t="n">
-        <v>0.1152705314981351</v>
+        <v>0.04566834421351092</v>
       </c>
       <c r="J191" t="n">
-        <v>0.02841331382963172</v>
+        <v>0.028197460560812</v>
       </c>
       <c r="K191" t="n">
         <v>0.1152705314981351</v>
       </c>
       <c r="L191" t="n">
-        <v>0.06208383109769677</v>
+        <v>0.06214194342432924</v>
       </c>
       <c r="M191" t="n">
-        <v>0.1148682738393557</v>
+        <v>0.1149730889410348</v>
       </c>
       <c r="N191" t="n">
-        <v>0.09382733262620835</v>
+        <v>0.09150079483793128</v>
       </c>
       <c r="O191" t="n">
-        <v>0.1148694824708518</v>
+        <v>0.1148841692869214</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02906393462358246</v>
+        <v>0.05790114906513533</v>
       </c>
       <c r="G192" t="n">
-        <v>0.1161853769862155</v>
+        <v>0.04567968954572168</v>
       </c>
       <c r="J192" t="n">
-        <v>0.02906393462358246</v>
+        <v>0.02974476725998473</v>
       </c>
       <c r="K192" t="n">
         <v>0.1161853769862155</v>
       </c>
       <c r="L192" t="n">
-        <v>0.0606841687468378</v>
+        <v>0.06025840434258264</v>
       </c>
       <c r="M192" t="n">
-        <v>0.1157799268063347</v>
+        <v>0.1158855737739001</v>
       </c>
       <c r="N192" t="n">
-        <v>0.09321970468361351</v>
+        <v>0.09494013971515997</v>
       </c>
       <c r="O192" t="n">
-        <v>0.1157811450301443</v>
+        <v>0.1157959484082462</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02836757185413789</v>
+        <v>0.05722798623312925</v>
       </c>
       <c r="G193" t="n">
-        <v>0.1171002224742959</v>
+        <v>0.04569014510492184</v>
       </c>
       <c r="J193" t="n">
-        <v>0.02836757185413789</v>
+        <v>0.02940612264986116</v>
       </c>
       <c r="K193" t="n">
         <v>0.1171002224742959</v>
       </c>
       <c r="L193" t="n">
-        <v>0.06260074815155683</v>
+        <v>0.0613478555409997</v>
       </c>
       <c r="M193" t="n">
-        <v>0.1166915797733137</v>
+        <v>0.1167980586067655</v>
       </c>
       <c r="N193" t="n">
-        <v>0.09449090317527242</v>
+        <v>0.09162695786365282</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1166928075894367</v>
+        <v>0.116707727529571</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02910199183579255</v>
+        <v>0.05655308888423713</v>
       </c>
       <c r="G194" t="n">
-        <v>0.1180150679623764</v>
+        <v>0.04569971089111139</v>
       </c>
       <c r="J194" t="n">
-        <v>0.02910199183579255</v>
+        <v>0.03014328658995644</v>
       </c>
       <c r="K194" t="n">
         <v>0.1180150679623764</v>
       </c>
       <c r="L194" t="n">
-        <v>0.06030402163284446</v>
+        <v>0.05946182827628524</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1176032327402927</v>
+        <v>0.1177105434396309</v>
       </c>
       <c r="N194" t="n">
-        <v>0.09326272531267682</v>
+        <v>0.09236576047712475</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1176044701487292</v>
+        <v>0.1176195066508957</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02999889777904179</v>
+        <v>0.05587645701845902</v>
       </c>
       <c r="G195" t="n">
-        <v>0.1189299134504568</v>
+        <v>0.04570838690429035</v>
       </c>
       <c r="J195" t="n">
-        <v>0.02999889777904179</v>
+        <v>0.03003524786016955</v>
       </c>
       <c r="K195" t="n">
         <v>0.1189299134504568</v>
       </c>
       <c r="L195" t="n">
-        <v>0.0610418158542026</v>
+        <v>0.0624878969038862</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1185148857072718</v>
+        <v>0.1186230282724962</v>
       </c>
       <c r="N195" t="n">
-        <v>0.09358416861546603</v>
+        <v>0.09212072956074091</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1185161327080217</v>
+        <v>0.1185312857722205</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02998984491396689</v>
+        <v>0.05519809063579482</v>
       </c>
       <c r="G196" t="n">
-        <v>0.1198447589385372</v>
+        <v>0.04571617314445869</v>
       </c>
       <c r="J196" t="n">
-        <v>0.02998984491396689</v>
+        <v>0.02981998765846956</v>
       </c>
       <c r="K196" t="n">
         <v>0.1198447589385372</v>
       </c>
       <c r="L196" t="n">
-        <v>0.06223078963426237</v>
+        <v>0.06264674054473088</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1194265386742508</v>
+        <v>0.1195355131053616</v>
       </c>
       <c r="N196" t="n">
-        <v>0.09481312621850391</v>
+        <v>0.09105067790231736</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1194277952673142</v>
+        <v>0.1194430648935453</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02941577923612408</v>
+        <v>0.05451798973624461</v>
       </c>
       <c r="G197" t="n">
-        <v>0.1207596044266177</v>
+        <v>0.04572306961161644</v>
       </c>
       <c r="J197" t="n">
-        <v>0.02941577923612408</v>
+        <v>0.02914041408362161</v>
       </c>
       <c r="K197" t="n">
         <v>0.1207596044266177</v>
       </c>
       <c r="L197" t="n">
-        <v>0.05917661062732399</v>
+        <v>0.05938002873594536</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1203381916412298</v>
+        <v>0.1204479979382269</v>
       </c>
       <c r="N197" t="n">
-        <v>0.09281851199920249</v>
+        <v>0.08902803267247172</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1203394578266066</v>
+        <v>0.1203548440148701</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.03031229399413138</v>
+        <v>0.0538361543198084</v>
       </c>
       <c r="G198" t="n">
-        <v>0.1216744499146981</v>
+        <v>0.04572907630576358</v>
       </c>
       <c r="J198" t="n">
-        <v>0.03031229399413138</v>
+        <v>0.02891177829489014</v>
       </c>
       <c r="K198" t="n">
         <v>0.1216744499146981</v>
       </c>
       <c r="L198" t="n">
-        <v>0.05977064666375409</v>
+        <v>0.06139345047495778</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1212498446082088</v>
+        <v>0.1213604827710923</v>
       </c>
       <c r="N198" t="n">
-        <v>0.09569911684524363</v>
+        <v>0.08983629594839654</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1212511203858991</v>
+        <v>0.1212666231361948</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02920604326854576</v>
+        <v>0.05315258438648612</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1225892954027786</v>
+        <v>0.04573419322690013</v>
       </c>
       <c r="J199" t="n">
-        <v>0.02920604326854576</v>
+        <v>0.02971298878684099</v>
       </c>
       <c r="K199" t="n">
         <v>0.1225892954027786</v>
       </c>
       <c r="L199" t="n">
-        <v>0.05954327056658298</v>
+        <v>0.06307147205540803</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1221614975751878</v>
+        <v>0.1222729676039577</v>
       </c>
       <c r="N199" t="n">
-        <v>0.09533472207722371</v>
+        <v>0.09245630078905115</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1221627829451916</v>
+        <v>0.1221784022575196</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02946469913975679</v>
+        <v>0.05246727993627781</v>
       </c>
       <c r="G200" t="n">
-        <v>0.123504140890859</v>
+        <v>0.04573842037502606</v>
       </c>
       <c r="J200" t="n">
-        <v>0.02946469913975679</v>
+        <v>0.03004415924680871</v>
       </c>
       <c r="K200" t="n">
         <v>0.123504140890859</v>
       </c>
       <c r="L200" t="n">
-        <v>0.06304617091453213</v>
+        <v>0.06101375123713246</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1230731505421668</v>
+        <v>0.123185452436823</v>
       </c>
       <c r="N200" t="n">
-        <v>0.09678634168144162</v>
+        <v>0.09314584856720937</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1230744455044841</v>
+        <v>0.1230901813788444</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02987996727867374</v>
+        <v>0.05178024096918349</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1244189863789394</v>
+        <v>0.04574175775014139</v>
       </c>
       <c r="J201" t="n">
-        <v>0.02987996727867374</v>
+        <v>0.03037999713417387</v>
       </c>
       <c r="K201" t="n">
         <v>0.1244189863789394</v>
       </c>
       <c r="L201" t="n">
-        <v>0.06283039359026155</v>
+        <v>0.06314781874026107</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1239848035091458</v>
+        <v>0.1240979372696884</v>
       </c>
       <c r="N201" t="n">
-        <v>0.09354217926791791</v>
+        <v>0.09570298282465217</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1239861080637766</v>
+        <v>0.1240019605001692</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02957919315196914</v>
+        <v>0.05109146748520314</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1253338318670199</v>
+        <v>0.04574420535224613</v>
       </c>
       <c r="J202" t="n">
-        <v>0.02957919315196914</v>
+        <v>0.02939910551185257</v>
       </c>
       <c r="K202" t="n">
         <v>0.1253338318670199</v>
       </c>
       <c r="L202" t="n">
-        <v>0.06115395917279126</v>
+        <v>0.06299315734373118</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1248964564761249</v>
+        <v>0.1250104221025537</v>
       </c>
       <c r="N202" t="n">
-        <v>0.09096623623399358</v>
+        <v>0.09412615552586118</v>
       </c>
       <c r="O202" t="n">
-        <v>0.124897770623069</v>
+        <v>0.1249137396214939</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02941847519337064</v>
+        <v>0.05040095948433673</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1262486773551003</v>
+        <v>0.04574576318134026</v>
       </c>
       <c r="J203" t="n">
-        <v>0.02941847519337064</v>
+        <v>0.02979945671890451</v>
       </c>
       <c r="K203" t="n">
         <v>0.1262486773551003</v>
       </c>
       <c r="L203" t="n">
-        <v>0.05978174806888883</v>
+        <v>0.06144057775447306</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1258081094431039</v>
+        <v>0.1259229069354191</v>
       </c>
       <c r="N203" t="n">
-        <v>0.09295981335608333</v>
+        <v>0.09162192488762921</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1258094331823615</v>
+        <v>0.1258255187428187</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.03003608302848701</v>
+        <v>0.04970871696658428</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1271635228431807</v>
+        <v>0.04574643123742378</v>
       </c>
       <c r="J204" t="n">
-        <v>0.03003608302848701</v>
+        <v>0.02949356517810833</v>
       </c>
       <c r="K204" t="n">
         <v>0.1271635228431807</v>
       </c>
       <c r="L204" t="n">
-        <v>0.06110231465512211</v>
+        <v>0.06265289531115975</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1267197624100829</v>
+        <v>0.1268353917682844</v>
       </c>
       <c r="N204" t="n">
-        <v>0.09434671531699595</v>
+        <v>0.09621519863127792</v>
       </c>
       <c r="O204" t="n">
-        <v>0.126721095741654</v>
+        <v>0.1267372978641435</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.03080620309933553</v>
+        <v>0.04901473993194584</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1280783683312612</v>
+        <v>0.0457462095204967</v>
       </c>
       <c r="J205" t="n">
-        <v>0.03080620309933553</v>
+        <v>0.02990745151702341</v>
       </c>
       <c r="K205" t="n">
         <v>0.1280783683312612</v>
       </c>
       <c r="L205" t="n">
-        <v>0.060662676291033</v>
+        <v>0.06278331262095763</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1276314153770619</v>
+        <v>0.1277478766011498</v>
       </c>
       <c r="N205" t="n">
-        <v>0.09599529208836988</v>
+        <v>0.09306326078512239</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1276327583009464</v>
+        <v>0.1276490769854682</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.03034126973065236</v>
+        <v>0.04831902838042135</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1289932138193416</v>
+        <v>0.04574509803055903</v>
       </c>
       <c r="J206" t="n">
-        <v>0.03034126973065236</v>
+        <v>0.03019754485438961</v>
       </c>
       <c r="K206" t="n">
         <v>0.1289932138193416</v>
       </c>
       <c r="L206" t="n">
-        <v>0.0623269772785327</v>
+        <v>0.06121490857555648</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1285430683440409</v>
+        <v>0.1286603614340151</v>
       </c>
       <c r="N206" t="n">
-        <v>0.09518678474130399</v>
+        <v>0.09132133063521786</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1285444208602389</v>
+        <v>0.128560856106793</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.03111845797643598</v>
+        <v>0.04762158231201082</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1299080593074221</v>
+        <v>0.04574309676761074</v>
       </c>
       <c r="J207" t="n">
-        <v>0.03111845797643598</v>
+        <v>0.03016891095957087</v>
       </c>
       <c r="K207" t="n">
         <v>0.1299080593074221</v>
       </c>
       <c r="L207" t="n">
-        <v>0.06022071316840943</v>
+        <v>0.06307507537807214</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1294547213110199</v>
+        <v>0.1295728462668805</v>
       </c>
       <c r="N207" t="n">
-        <v>0.09365334946123233</v>
+        <v>0.09355405208592732</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1294560834195314</v>
+        <v>0.1294726352281178</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.03033938653582562</v>
+        <v>0.04692240172671427</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1308229047955025</v>
+        <v>0.04574020573165185</v>
       </c>
       <c r="J208" t="n">
-        <v>0.03033938653582562</v>
+        <v>0.0303944011415217</v>
       </c>
       <c r="K208" t="n">
         <v>0.1308229047955025</v>
       </c>
       <c r="L208" t="n">
-        <v>0.06363898243263275</v>
+        <v>0.06255100767170882</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1303663742779989</v>
+        <v>0.1304853310997458</v>
       </c>
       <c r="N208" t="n">
-        <v>0.09185558829647189</v>
+        <v>0.09776473910442562</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1303677459788239</v>
+        <v>0.1303844143494426</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.03017035939852919</v>
+        <v>0.04622148662453168</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1317377502835829</v>
+        <v>0.04573642492268237</v>
       </c>
       <c r="J209" t="n">
-        <v>0.03017035939852919</v>
+        <v>0.03094111058525489</v>
       </c>
       <c r="K209" t="n">
         <v>0.1317377502835829</v>
       </c>
       <c r="L209" t="n">
-        <v>0.06493567039429152</v>
+        <v>0.06229095949373678</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1312780272449779</v>
+        <v>0.1313978159326112</v>
       </c>
       <c r="N209" t="n">
-        <v>0.09359807108611184</v>
+        <v>0.09521001235360904</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1312794085381163</v>
+        <v>0.1312961934707673</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.03041924155093806</v>
+        <v>0.04551883700546307</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1326525957716634</v>
+        <v>0.04573175434070228</v>
       </c>
       <c r="J210" t="n">
-        <v>0.03041924155093806</v>
+        <v>0.03024800728665659</v>
       </c>
       <c r="K210" t="n">
         <v>0.1326525957716634</v>
       </c>
       <c r="L210" t="n">
-        <v>0.06112965039880033</v>
+        <v>0.06247374198808828</v>
       </c>
       <c r="M210" t="n">
-        <v>0.132189680211957</v>
+        <v>0.1323103007654766</v>
       </c>
       <c r="N210" t="n">
-        <v>0.09581911504302082</v>
+        <v>0.09701308923287705</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1321910710974088</v>
+        <v>0.1322079725920921</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.03124670064845855</v>
+        <v>0.04481445286950839</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1335674412597438</v>
+        <v>0.04572619398571157</v>
       </c>
       <c r="J211" t="n">
-        <v>0.03124670064845855</v>
+        <v>0.03077510698114683</v>
       </c>
       <c r="K211" t="n">
         <v>0.1335674412597438</v>
       </c>
       <c r="L211" t="n">
-        <v>0.06434949008572388</v>
+        <v>0.06233497002895971</v>
       </c>
       <c r="M211" t="n">
-        <v>0.133101333178936</v>
+        <v>0.1332227855983419</v>
       </c>
       <c r="N211" t="n">
-        <v>0.09592023423169038</v>
+        <v>0.09306834653982499</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1331027336567013</v>
+        <v>0.1331197517134169</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.03141730453008874</v>
+        <v>0.04410833421666772</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1344822867478243</v>
+        <v>0.04571974385771028</v>
       </c>
       <c r="J212" t="n">
-        <v>0.03141730453008874</v>
+        <v>0.03050871078165208</v>
       </c>
       <c r="K212" t="n">
         <v>0.1344822867478243</v>
       </c>
       <c r="L212" t="n">
-        <v>0.06253746553707834</v>
+        <v>0.06520129940208505</v>
       </c>
       <c r="M212" t="n">
-        <v>0.134012986145915</v>
+        <v>0.1341352704312073</v>
       </c>
       <c r="N212" t="n">
-        <v>0.09639426175477367</v>
+        <v>0.09314411872118417</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1340143962159938</v>
+        <v>0.1340315308347416</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.03105084182383661</v>
+        <v>0.04340048104694101</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1353971322359047</v>
+        <v>0.04571240395669838</v>
       </c>
       <c r="J213" t="n">
-        <v>0.03105084182383661</v>
+        <v>0.03072709170670523</v>
       </c>
       <c r="K213" t="n">
         <v>0.1353971322359047</v>
       </c>
       <c r="L213" t="n">
-        <v>0.06213394478010958</v>
+        <v>0.06539146567759316</v>
       </c>
       <c r="M213" t="n">
-        <v>0.134924639112894</v>
+        <v>0.1350477552640726</v>
       </c>
       <c r="N213" t="n">
-        <v>0.09514422516106957</v>
+        <v>0.09834664154139511</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1349260587752862</v>
+        <v>0.1349433099560664</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.03024580420339273</v>
+        <v>0.04269089336032825</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1363119777239851</v>
+        <v>0.04570417428267587</v>
       </c>
       <c r="J214" t="n">
-        <v>0.03024580420339273</v>
+        <v>0.03051871832910491</v>
       </c>
       <c r="K214" t="n">
         <v>0.1363119777239851</v>
       </c>
       <c r="L214" t="n">
-        <v>0.06417004766666418</v>
+        <v>0.06462599594658211</v>
       </c>
       <c r="M214" t="n">
-        <v>0.135836292079873</v>
+        <v>0.135960240096938</v>
       </c>
       <c r="N214" t="n">
-        <v>0.09576460332046682</v>
+        <v>0.09762414428978555</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1358377213345787</v>
+        <v>0.1358550890773912</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.03039109058628053</v>
+        <v>0.04197957115682949</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1372268232120656</v>
+        <v>0.04569505483564278</v>
       </c>
       <c r="J215" t="n">
-        <v>0.03039109058628053</v>
+        <v>0.03116690441032142</v>
       </c>
       <c r="K215" t="n">
         <v>0.1372268232120656</v>
       </c>
       <c r="L215" t="n">
-        <v>0.06463045268348161</v>
+        <v>0.06562984970073935</v>
       </c>
       <c r="M215" t="n">
-        <v>0.136747945046852</v>
+        <v>0.1368727249298033</v>
       </c>
       <c r="N215" t="n">
-        <v>0.09476776155006</v>
+        <v>0.09325950203248168</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1367493838938712</v>
+        <v>0.136766868198716</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.03030904388281522</v>
+        <v>0.04126651443644466</v>
       </c>
       <c r="G216" t="n">
-        <v>0.138141668700146</v>
+        <v>0.04568504561559907</v>
       </c>
       <c r="J216" t="n">
-        <v>0.03030904388281522</v>
+        <v>0.03105063979341552</v>
       </c>
       <c r="K216" t="n">
         <v>0.138141668700146</v>
       </c>
       <c r="L216" t="n">
-        <v>0.06396316318485223</v>
+        <v>0.06261327993720331</v>
       </c>
       <c r="M216" t="n">
-        <v>0.137659598013831</v>
+        <v>0.1377852097626687</v>
       </c>
       <c r="N216" t="n">
-        <v>0.09447484576473664</v>
+        <v>0.09442596500631462</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1376610464531637</v>
+        <v>0.1376786473200408</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.03034088415814358</v>
+        <v>0.04055172319917383</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1390565141882264</v>
+        <v>0.04567414662254476</v>
       </c>
       <c r="J217" t="n">
-        <v>0.03034088415814358</v>
+        <v>0.03069525965426495</v>
       </c>
       <c r="K217" t="n">
         <v>0.1390565141882264</v>
       </c>
       <c r="L217" t="n">
-        <v>0.06471743307233363</v>
+        <v>0.06413850765302079</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1385712509808101</v>
+        <v>0.138697694595534</v>
       </c>
       <c r="N217" t="n">
-        <v>0.09542484050939987</v>
+        <v>0.09792209977268668</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1385727090124561</v>
+        <v>0.1385904264413655</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.03129112900807086</v>
+        <v>0.03983519744501694</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1399713596763069</v>
+        <v>0.04566235785647984</v>
       </c>
       <c r="J218" t="n">
-        <v>0.03129112900807086</v>
+        <v>0.03072423553714654</v>
       </c>
       <c r="K218" t="n">
         <v>0.1399713596763069</v>
       </c>
       <c r="L218" t="n">
-        <v>0.0642774629324977</v>
+        <v>0.06369172774786769</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1394829039477891</v>
+        <v>0.1396101794283994</v>
       </c>
       <c r="N218" t="n">
-        <v>0.09708064675070266</v>
+        <v>0.09780104076401908</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1394843715717486</v>
+        <v>0.1395022055626903</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.0316160394320557</v>
+        <v>0.03911693717397403</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1408862051643873</v>
+        <v>0.04564967931740432</v>
       </c>
       <c r="J219" t="n">
-        <v>0.0316160394320557</v>
+        <v>0.03095202127628491</v>
       </c>
       <c r="K219" t="n">
         <v>0.1408862051643873</v>
       </c>
       <c r="L219" t="n">
-        <v>0.06381468805142898</v>
+        <v>0.06300744117469542</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1403945569147681</v>
+        <v>0.1405226642612648</v>
       </c>
       <c r="N219" t="n">
-        <v>0.0949434446815105</v>
+        <v>0.09596493790456895</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1403960341310411</v>
+        <v>0.1404139846840151</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.0314604813252251</v>
+        <v>0.0383969423860451</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1418010506524677</v>
+        <v>0.0456361110053182</v>
       </c>
       <c r="J220" t="n">
-        <v>0.0314604813252251</v>
+        <v>0.03209606375429058</v>
       </c>
       <c r="K220" t="n">
         <v>0.1418010506524677</v>
       </c>
       <c r="L220" t="n">
-        <v>0.06300191563483115</v>
+        <v>0.06520089786207747</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1413062098817471</v>
+        <v>0.1414351490941301</v>
       </c>
       <c r="N220" t="n">
-        <v>0.09816294317349655</v>
+        <v>0.1002743535543809</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1413076966903336</v>
+        <v>0.1413257638053398</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.0311450740185738</v>
+        <v>0.03767521308123013</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1427158961405482</v>
+        <v>0.04562165292022148</v>
       </c>
       <c r="J221" t="n">
-        <v>0.0311450740185738</v>
+        <v>0.03136317038306777</v>
       </c>
       <c r="K221" t="n">
         <v>0.1427158961405482</v>
       </c>
       <c r="L221" t="n">
-        <v>0.06691715344831212</v>
+        <v>0.06333276545845792</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1422178628487261</v>
+        <v>0.1423476339269955</v>
       </c>
       <c r="N221" t="n">
-        <v>0.09931454022543018</v>
+        <v>0.09740040190131222</v>
       </c>
       <c r="O221" t="n">
-        <v>0.142219359249626</v>
+        <v>0.1422375429266646</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.03054133866687561</v>
+        <v>0.03695174925952911</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1436307416286286</v>
+        <v>0.04560630506211415</v>
       </c>
       <c r="J222" t="n">
-        <v>0.03054133866687561</v>
+        <v>0.03147205090763747</v>
       </c>
       <c r="K222" t="n">
         <v>0.1436307416286286</v>
       </c>
       <c r="L222" t="n">
-        <v>0.06506992584225824</v>
+        <v>0.06254804270641121</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1431295158157051</v>
+        <v>0.1432601187598608</v>
       </c>
       <c r="N222" t="n">
-        <v>0.09518443649199143</v>
+        <v>0.09546222659120746</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1431310218089185</v>
+        <v>0.1431493220479894</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.03211430679288976</v>
+        <v>0.03622655092094208</v>
       </c>
       <c r="G223" t="n">
-        <v>0.144545587116709</v>
+        <v>0.04559006743099622</v>
       </c>
       <c r="J223" t="n">
-        <v>0.03211430679288976</v>
+        <v>0.0308270084452144</v>
       </c>
       <c r="K223" t="n">
         <v>0.144545587116709</v>
       </c>
       <c r="L223" t="n">
-        <v>0.06479211129175233</v>
+        <v>0.0663801528049949</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1440411687826841</v>
+        <v>0.1441726035927262</v>
       </c>
       <c r="N223" t="n">
-        <v>0.0965618644234314</v>
+        <v>0.09830136983567861</v>
       </c>
       <c r="O223" t="n">
-        <v>0.144042684368211</v>
+        <v>0.1440611011693141</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.03093540117646536</v>
+        <v>0.03549961806546902</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1454604326047895</v>
+        <v>0.04557294002686769</v>
       </c>
       <c r="J224" t="n">
-        <v>0.03093540117646536</v>
+        <v>0.03071270422942968</v>
       </c>
       <c r="K224" t="n">
         <v>0.1454604326047895</v>
       </c>
       <c r="L224" t="n">
-        <v>0.06480336246257198</v>
+        <v>0.06293161745437315</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1449528217496631</v>
+        <v>0.1450850884255915</v>
       </c>
       <c r="N224" t="n">
-        <v>0.09997509550927625</v>
+        <v>0.09619480748248022</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1449543469275035</v>
+        <v>0.1449728802906389</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.03249032217263916</v>
+        <v>0.03477095069310991</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1463752780928699</v>
+        <v>0.04555492284972856</v>
       </c>
       <c r="J225" t="n">
-        <v>0.03249032217263916</v>
+        <v>0.03088848979294193</v>
       </c>
       <c r="K225" t="n">
         <v>0.1463752780928699</v>
       </c>
       <c r="L225" t="n">
-        <v>0.06356154292647626</v>
+        <v>0.06748220472678229</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1458644747166422</v>
+        <v>0.1459975732584569</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1005931663186979</v>
+        <v>0.1001472339401852</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1458660094867959</v>
+        <v>0.1458846594119637</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.03104154159012837</v>
+        <v>0.03404054880386478</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1472901235809504</v>
+        <v>0.04553601589957882</v>
       </c>
       <c r="J226" t="n">
-        <v>0.03104154159012837</v>
+        <v>0.031174323408585</v>
       </c>
       <c r="K226" t="n">
         <v>0.1472901235809504</v>
       </c>
       <c r="L226" t="n">
-        <v>0.06681404968753818</v>
+        <v>0.06336434377948624</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1467761276836212</v>
+        <v>0.1469100580913223</v>
       </c>
       <c r="N226" t="n">
-        <v>0.09860920107646071</v>
+        <v>0.1006766471334136</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1467776720460884</v>
+        <v>0.1467964385332885</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.03159651742911598</v>
+        <v>0.03330841239773362</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1482049690690308</v>
+        <v>0.04551621917641848</v>
       </c>
       <c r="J227" t="n">
-        <v>0.03159651742911598</v>
+        <v>0.03266294450671263</v>
       </c>
       <c r="K227" t="n">
         <v>0.1482049690690308</v>
       </c>
       <c r="L227" t="n">
-        <v>0.06771831657613259</v>
+        <v>0.06677270114744699</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1476877806506002</v>
+        <v>0.1478225429241876</v>
       </c>
       <c r="N227" t="n">
-        <v>0.09930716910735193</v>
+        <v>0.0991560947900812</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1476893346053809</v>
+        <v>0.1477082176546133</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.03161850112435542</v>
+        <v>0.03257454147471642</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1491198145571112</v>
+        <v>0.04549553268024754</v>
       </c>
       <c r="J228" t="n">
-        <v>0.03161850112435542</v>
+        <v>0.03227539046942066</v>
       </c>
       <c r="K228" t="n">
         <v>0.1491198145571112</v>
       </c>
       <c r="L228" t="n">
-        <v>0.06389672761695611</v>
+        <v>0.06402121848254638</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1485994336175792</v>
+        <v>0.148735027757053</v>
       </c>
       <c r="N228" t="n">
-        <v>0.09776884319271645</v>
+        <v>0.1023677525379957</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1486009971646733</v>
+        <v>0.148619996775938</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.03246071939693591</v>
+        <v>0.03183893603481319</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1500346600451917</v>
+        <v>0.04547395641106599</v>
       </c>
       <c r="J229" t="n">
-        <v>0.03246071939693591</v>
+        <v>0.03274838262616871</v>
       </c>
       <c r="K229" t="n">
         <v>0.1500346600451917</v>
       </c>
       <c r="L229" t="n">
-        <v>0.06781306825040026</v>
+        <v>0.06847572833452914</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1495110865845582</v>
+        <v>0.1496475125899183</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1030343356365049</v>
+        <v>0.09793972291844794</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1495126597239659</v>
+        <v>0.1495317758972628</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.03182358353584677</v>
+        <v>0.03110159607802393</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1509495055332721</v>
+        <v>0.04545149036887384</v>
       </c>
       <c r="J230" t="n">
-        <v>0.03182358353584677</v>
+        <v>0.03218556198704095</v>
       </c>
       <c r="K230" t="n">
         <v>0.1509495055332721</v>
       </c>
       <c r="L230" t="n">
-        <v>0.06667287478133596</v>
+        <v>0.06602968677316806</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1504227395515372</v>
+        <v>0.1505599974227837</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1003877154334946</v>
+        <v>0.100947948957727</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1504243222832583</v>
+        <v>0.1504435550185876</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.03194972904712928</v>
+        <v>0.03036252160434863</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1518643510213525</v>
+        <v>0.04542813455367109</v>
       </c>
       <c r="J231" t="n">
-        <v>0.03194972904712928</v>
+        <v>0.03148740587590551</v>
       </c>
       <c r="K231" t="n">
         <v>0.1518643510213525</v>
       </c>
       <c r="L231" t="n">
-        <v>0.06791248111284032</v>
+        <v>0.06583901985989343</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1513343925185162</v>
+        <v>0.151472482255649</v>
       </c>
       <c r="N231" t="n">
-        <v>0.09774942418355215</v>
+        <v>0.09913134740497836</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1513359848425508</v>
+        <v>0.1513553341399123</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.03200198411235719</v>
+        <v>0.02962171261378732</v>
       </c>
       <c r="G232" t="n">
-        <v>0.152779196509433</v>
+        <v>0.04540388896545774</v>
       </c>
       <c r="J232" t="n">
-        <v>0.03200198411235719</v>
+        <v>0.03216792373663262</v>
       </c>
       <c r="K232" t="n">
         <v>0.152779196509433</v>
       </c>
       <c r="L232" t="n">
-        <v>0.06685162803074199</v>
+        <v>0.06587105464696902</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1522460454854953</v>
+        <v>0.1523849670885144</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1002261419237026</v>
+        <v>0.1018708440553756</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1522476474018432</v>
+        <v>0.1522671132612371</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.03213063535607784</v>
+        <v>0.02887916910633995</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1536940419975134</v>
+        <v>0.04537875360423377</v>
       </c>
       <c r="J233" t="n">
-        <v>0.03213063535607784</v>
+        <v>0.03295566430517062</v>
       </c>
       <c r="K233" t="n">
         <v>0.1536940419975134</v>
       </c>
       <c r="L233" t="n">
-        <v>0.06703355031042776</v>
+        <v>0.06863111116193665</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1531576984524743</v>
+        <v>0.1532974519213798</v>
       </c>
       <c r="N233" t="n">
-        <v>0.09941537420784796</v>
+        <v>0.09946833298996355</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1531593099611357</v>
+        <v>0.1531788923825619</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.03158848868593397</v>
+        <v>0.02813489108200656</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1546088874855939</v>
+        <v>0.04535272846999922</v>
       </c>
       <c r="J234" t="n">
-        <v>0.03158848868593397</v>
+        <v>0.03195094379158951</v>
       </c>
       <c r="K234" t="n">
         <v>0.1546088874855939</v>
       </c>
       <c r="L234" t="n">
-        <v>0.06615251904719943</v>
+        <v>0.06481017975280409</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1540693514194533</v>
+        <v>0.1542099367542451</v>
       </c>
       <c r="N234" t="n">
-        <v>0.09859406825753186</v>
+        <v>0.1045327432661357</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1540709725204282</v>
+        <v>0.1540906715038867</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.0328001735201663</v>
+        <v>0.02738887854078714</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1555237329736743</v>
+        <v>0.04532581356275406</v>
       </c>
       <c r="J235" t="n">
-        <v>0.0328001735201663</v>
+        <v>0.03247699245946505</v>
       </c>
       <c r="K235" t="n">
         <v>0.1555237329736743</v>
       </c>
       <c r="L235" t="n">
-        <v>0.06768262265644023</v>
+        <v>0.06516583793388317</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1549810043864323</v>
+        <v>0.1551224215871105</v>
       </c>
       <c r="N235" t="n">
-        <v>0.104514825279582</v>
+        <v>0.09993600487390492</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1549826350797207</v>
+        <v>0.1550024506252114</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.03205131876713187</v>
+        <v>0.02664113148268168</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1564385784617547</v>
+        <v>0.04529800888249829</v>
       </c>
       <c r="J236" t="n">
-        <v>0.03205131876713187</v>
+        <v>0.03296143725703651</v>
       </c>
       <c r="K236" t="n">
         <v>0.1564385784617547</v>
       </c>
       <c r="L236" t="n">
-        <v>0.06513840232190451</v>
+        <v>0.0689403966085044</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1558926573534113</v>
+        <v>0.1560349064199758</v>
       </c>
       <c r="N236" t="n">
-        <v>0.104719905390969</v>
+        <v>0.1002156336925753</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1558942976390132</v>
+        <v>0.1559142297465362</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.03331210418334928</v>
+        <v>0.0258916499076902</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1573534239498352</v>
+        <v>0.04526931442923192</v>
       </c>
       <c r="J237" t="n">
-        <v>0.03331210418334928</v>
+        <v>0.03218642078200699</v>
       </c>
       <c r="K237" t="n">
         <v>0.1573534239498352</v>
       </c>
       <c r="L237" t="n">
-        <v>0.06847607115108895</v>
+        <v>0.06714841623152012</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1568043103203903</v>
+        <v>0.1569473912528412</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1036435281361177</v>
+        <v>0.1048419576904714</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1568059601983056</v>
+        <v>0.156826008867861</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.0333419625580252</v>
+        <v>0.02514043381581268</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1582682694379156</v>
+        <v>0.04523973020295495</v>
       </c>
       <c r="J238" t="n">
-        <v>0.0333419625580252</v>
+        <v>0.03263735627773193</v>
       </c>
       <c r="K238" t="n">
         <v>0.1582682694379156</v>
       </c>
       <c r="L238" t="n">
-        <v>0.06747967031130234</v>
+        <v>0.06718375304050517</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1577159632873693</v>
+        <v>0.1578598760857065</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1049179084961826</v>
+        <v>0.1007364292751362</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1577176227575981</v>
+        <v>0.1577377879891858</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.03220162437081396</v>
+        <v>0.02438748320704914</v>
       </c>
       <c r="G239" t="n">
-        <v>0.159183114925996</v>
+        <v>0.04520925620366737</v>
       </c>
       <c r="J239" t="n">
-        <v>0.03220162437081396</v>
+        <v>0.0332549529049356</v>
       </c>
       <c r="K239" t="n">
         <v>0.159183114925996</v>
       </c>
       <c r="L239" t="n">
-        <v>0.06647149166097749</v>
+        <v>0.06657164713339017</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1586276162543483</v>
+        <v>0.1587723609185719</v>
       </c>
       <c r="N239" t="n">
-        <v>0.101380494731193</v>
+        <v>0.1059335697247125</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1586292853168906</v>
+        <v>0.1586495671105105</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.03313407971692769</v>
+        <v>0.02363279808139956</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1600979604140765</v>
+        <v>0.04517789243136919</v>
       </c>
       <c r="J240" t="n">
-        <v>0.03313407971692769</v>
+        <v>0.03359916925889977</v>
       </c>
       <c r="K240" t="n">
         <v>0.1600979604140765</v>
       </c>
       <c r="L240" t="n">
-        <v>0.06948952422807206</v>
+        <v>0.06717724577453488</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1595392692213274</v>
+        <v>0.1596848457514372</v>
       </c>
       <c r="N240" t="n">
-        <v>0.09990450246633004</v>
+        <v>0.1001396058565545</v>
       </c>
       <c r="O240" t="n">
-        <v>0.159540947876183</v>
+        <v>0.1595613462318353</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.03251473378943585</v>
+        <v>0.02287637843886395</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1610128059021569</v>
+        <v>0.04514563888606041</v>
       </c>
       <c r="J241" t="n">
-        <v>0.03251473378943585</v>
+        <v>0.03272255914108969</v>
       </c>
       <c r="K241" t="n">
         <v>0.1610128059021569</v>
       </c>
       <c r="L241" t="n">
-        <v>0.06956806729473947</v>
+        <v>0.06578084162465817</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1604509221883064</v>
+        <v>0.1605973305843026</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1048962881787527</v>
+        <v>0.104895565357557</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1604526104354755</v>
+        <v>0.1604731253531601</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.03241780498368968</v>
+        <v>0.02211822427944229</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1619276513902373</v>
+        <v>0.04511249556774103</v>
       </c>
       <c r="J242" t="n">
-        <v>0.03241780498368968</v>
+        <v>0.03338302458063881</v>
       </c>
       <c r="K242" t="n">
         <v>0.1619276513902373</v>
       </c>
       <c r="L242" t="n">
-        <v>0.06621863486249502</v>
+        <v>0.0672363860179559</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1613625751552854</v>
+        <v>0.1615098154171679</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1049393957068473</v>
+        <v>0.1060890241903106</v>
       </c>
       <c r="O242" t="n">
-        <v>0.161364272994768</v>
+        <v>0.1613849044744848</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.03303712299320508</v>
+        <v>0.02135833560313462</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1628424968783178</v>
+        <v>0.04507846247641104</v>
       </c>
       <c r="J243" t="n">
-        <v>0.03303712299320508</v>
+        <v>0.03316210910510446</v>
       </c>
       <c r="K243" t="n">
         <v>0.1628424968783178</v>
       </c>
       <c r="L243" t="n">
-        <v>0.06833685622433849</v>
+        <v>0.06751873533844666</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1622742281222644</v>
+        <v>0.1624223002500333</v>
       </c>
       <c r="N243" t="n">
-        <v>0.1039100729738704</v>
+        <v>0.1007315559603865</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1622759355540605</v>
+        <v>0.1622966835958096</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.0325318853025045</v>
+        <v>0.0205967124099409</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1637573423663982</v>
+        <v>0.04504353961207045</v>
       </c>
       <c r="J244" t="n">
-        <v>0.0325318853025045</v>
+        <v>0.03399915673479575</v>
       </c>
       <c r="K244" t="n">
         <v>0.1637573423663982</v>
       </c>
       <c r="L244" t="n">
-        <v>0.06655706597927671</v>
+        <v>0.06727617000376007</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1631858810892434</v>
+        <v>0.1633347850828986</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1067234512346326</v>
+        <v>0.1016157224114859</v>
       </c>
       <c r="O244" t="n">
-        <v>0.163187598113353</v>
+        <v>0.1632084627171344</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.03270145341252188</v>
+        <v>0.01983335469986117</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1646721878544787</v>
+        <v>0.04500772697471927</v>
       </c>
       <c r="J245" t="n">
-        <v>0.03270145341252188</v>
+        <v>0.03341933710448777</v>
       </c>
       <c r="K245" t="n">
         <v>0.1646721878544787</v>
       </c>
       <c r="L245" t="n">
-        <v>0.06856580629940104</v>
+        <v>0.06921039846089433</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1640975340562224</v>
+        <v>0.164247269915764</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1011943583290089</v>
+        <v>0.1026761969395765</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1640992606726454</v>
+        <v>0.1641202418384592</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.03384006264837064</v>
+        <v>0.0190682624728954</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1655870333425591</v>
+        <v>0.04497102456435748</v>
       </c>
       <c r="J246" t="n">
-        <v>0.03384006264837064</v>
+        <v>0.03415744795987692</v>
       </c>
       <c r="K246" t="n">
         <v>0.1655870333425591</v>
       </c>
       <c r="L246" t="n">
-        <v>0.0699941823170146</v>
+        <v>0.06837284298143118</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1650091870232014</v>
+        <v>0.1651597547486293</v>
       </c>
       <c r="N246" t="n">
-        <v>0.1020241483518394</v>
+        <v>0.1041065812610234</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1650109232319379</v>
+        <v>0.1650320209597839</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.03360993915206886</v>
+        <v>0.01830143572904359</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1665018788306395</v>
+        <v>0.04493343238098507</v>
       </c>
       <c r="J247" t="n">
-        <v>0.03360993915206886</v>
+        <v>0.03423662505397214</v>
       </c>
       <c r="K247" t="n">
         <v>0.1665018788306395</v>
       </c>
       <c r="L247" t="n">
-        <v>0.06726869289151927</v>
+        <v>0.06800211854978391</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1659208399901805</v>
+        <v>0.1660722395814947</v>
       </c>
       <c r="N247" t="n">
-        <v>0.1071070458933852</v>
+        <v>0.1053027161784022</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1659225857912304</v>
+        <v>0.1659438000811087</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.03341248758690979</v>
+        <v>0.01753287446830575</v>
       </c>
       <c r="G248" t="n">
-        <v>0.16741672431872</v>
+        <v>0.04489495042460206</v>
       </c>
       <c r="J248" t="n">
-        <v>0.03341248758690979</v>
+        <v>0.03363842205096569</v>
       </c>
       <c r="K248" t="n">
         <v>0.16741672431872</v>
       </c>
       <c r="L248" t="n">
-        <v>0.07128631920565043</v>
+        <v>0.06882370632083507</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1668324929571595</v>
+        <v>0.1669847244143601</v>
       </c>
       <c r="N248" t="n">
-        <v>0.1044797418966191</v>
+        <v>0.1059224475916313</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1668342483505229</v>
+        <v>0.1668555792024335</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.03393433443539887</v>
+        <v>0.01676257869068189</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1683315698068004</v>
+        <v>0.04485557869520847</v>
       </c>
       <c r="J249" t="n">
-        <v>0.03393433443539887</v>
+        <v>0.03298051303609796</v>
       </c>
       <c r="K249" t="n">
         <v>0.1683315698068004</v>
       </c>
       <c r="L249" t="n">
-        <v>0.0691968291440421</v>
+        <v>0.06839934097206687</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1677441459241385</v>
+        <v>0.1678972092472254</v>
       </c>
       <c r="N249" t="n">
-        <v>0.1021119061451138</v>
+        <v>0.1014403526020293</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1677459109098153</v>
+        <v>0.1677673583237583</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.033811292142593</v>
+        <v>0.01599054839617198</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1692464152948809</v>
+        <v>0.04481531719280427</v>
       </c>
       <c r="J250" t="n">
-        <v>0.033811292142593</v>
+        <v>0.03356997765274586</v>
       </c>
       <c r="K250" t="n">
         <v>0.1692464152948809</v>
       </c>
       <c r="L250" t="n">
-        <v>0.07150938776271171</v>
+        <v>0.07111394655805486</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1686557988911175</v>
+        <v>0.1688096940800908</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1052841138060312</v>
+        <v>0.1066755426764087</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1686575734691078</v>
+        <v>0.168679137445083</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.03430096930358131</v>
+        <v>0.01521678358477605</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1701612607829613</v>
+        <v>0.04477416591738945</v>
       </c>
       <c r="J251" t="n">
-        <v>0.03430096930358131</v>
+        <v>0.03377370095768845</v>
       </c>
       <c r="K251" t="n">
         <v>0.1701612607829613</v>
       </c>
       <c r="L251" t="n">
-        <v>0.06773757103430753</v>
+        <v>0.06931293277415615</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1695674518580965</v>
+        <v>0.1697221789129561</v>
       </c>
       <c r="N251" t="n">
-        <v>0.1021877150431516</v>
+        <v>0.1047720751839848</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1695692360284003</v>
+        <v>0.1695909165664078</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.03455624173114644</v>
+        <v>0.01444128425649407</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1710761062710417</v>
+        <v>0.04473212486896404</v>
       </c>
       <c r="J252" t="n">
-        <v>0.03455624173114644</v>
+        <v>0.03305434270777029</v>
       </c>
       <c r="K252" t="n">
         <v>0.1710761062710417</v>
       </c>
       <c r="L252" t="n">
-        <v>0.06763945917014452</v>
+        <v>0.06738556917595562</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1704791048250755</v>
+        <v>0.1706346637458215</v>
       </c>
       <c r="N252" t="n">
-        <v>0.1035699333187589</v>
+        <v>0.1091140705420559</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1704808985876927</v>
+        <v>0.1705026956877326</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.03370210077307759</v>
+        <v>0.01366405041132608</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1719909517591222</v>
+        <v>0.04468919404752802</v>
       </c>
       <c r="J253" t="n">
-        <v>0.03370210077307759</v>
+        <v>0.03375343040484892</v>
       </c>
       <c r="K253" t="n">
         <v>0.1719909517591222</v>
       </c>
       <c r="L253" t="n">
-        <v>0.07101508597746478</v>
+        <v>0.06804366329212938</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1713907577920545</v>
+        <v>0.1715471485786869</v>
       </c>
       <c r="N253" t="n">
-        <v>0.1049270361346136</v>
+        <v>0.1039484819659743</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1713925611469852</v>
+        <v>0.1714144748090574</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.03342040868388055</v>
+        <v>0.01288508204927205</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1729057972472026</v>
+        <v>0.04464537345308141</v>
       </c>
       <c r="J254" t="n">
-        <v>0.03342040868388055</v>
+        <v>0.03471534659603825</v>
       </c>
       <c r="K254" t="n">
         <v>0.1729057972472026</v>
@@ -14496,475 +14496,1875 @@
         <v>0.07202519989546374</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1723024107590335</v>
+        <v>0.1724596334115522</v>
       </c>
       <c r="N254" t="n">
-        <v>0.109128809404498</v>
+        <v>0.1029791366207291</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1723042237062777</v>
+        <v>0.1723262539303821</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.0332047336098784</v>
+        <v>0.012104379170332</v>
       </c>
       <c r="G255" t="n">
-        <v>0.173820642735283</v>
+        <v>0.04460066308562418</v>
       </c>
       <c r="J255" t="n">
-        <v>0.0332047336098784</v>
+        <v>0.03317946487870736</v>
       </c>
       <c r="K255" t="n">
         <v>0.173820642735283</v>
       </c>
       <c r="L255" t="n">
-        <v>0.07054871863795215</v>
+        <v>0.07101207743168456</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1732140637260126</v>
+        <v>0.1733721182444176</v>
       </c>
       <c r="N255" t="n">
-        <v>0.1066984579029249</v>
+        <v>0.1065907802664264</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1732158862655702</v>
+        <v>0.1732380330517069</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.03466174983464915</v>
+        <v>0.01132194177450591</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1747354882233635</v>
+        <v>0.04455506294515637</v>
       </c>
       <c r="J256" t="n">
-        <v>0.03466174983464915</v>
+        <v>0.03493632924887161</v>
       </c>
       <c r="K256" t="n">
         <v>0.1747354882233635</v>
       </c>
       <c r="L256" t="n">
-        <v>0.07254231975988221</v>
+        <v>0.06919636367503226</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1741257166929916</v>
+        <v>0.1742846030772829</v>
       </c>
       <c r="N256" t="n">
-        <v>0.1028858416724004</v>
+        <v>0.1032427512525202</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1741275488248626</v>
+        <v>0.1741498121730317</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.03345923345481497</v>
+        <v>0.01053776986179377</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1756503337114439</v>
+        <v>0.04450857303167793</v>
       </c>
       <c r="J257" t="n">
-        <v>0.03345923345481497</v>
+        <v>0.0334701990008027</v>
       </c>
       <c r="K257" t="n">
         <v>0.1756503337114439</v>
       </c>
       <c r="L257" t="n">
-        <v>0.07235294787477181</v>
+        <v>0.07107878109027432</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1750373696599706</v>
+        <v>0.1751970879101483</v>
       </c>
       <c r="N257" t="n">
-        <v>0.1091140705420559</v>
+        <v>0.1047215564020679</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1750392113841551</v>
+        <v>0.1750615912943564</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.03493632924887161</v>
+        <v>0.009751863432195612</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1765651791995244</v>
+        <v>0.04446119334518891</v>
       </c>
       <c r="J258" t="n">
-        <v>0.03493632924887161</v>
+        <v>0.03394110429240031</v>
       </c>
       <c r="K258" t="n">
         <v>0.1765651791995244</v>
       </c>
       <c r="L258" t="n">
-        <v>0.06946484517226659</v>
+        <v>0.06998082340292716</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1759490226269496</v>
+        <v>0.1761095727430136</v>
       </c>
       <c r="N258" t="n">
-        <v>0.1095718637244208</v>
+        <v>0.1054945071770031</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1759508739434476</v>
+        <v>0.1759733704156812</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.0340022827714991</v>
+        <v>0.008964222485711416</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1774800246876048</v>
+        <v>0.04441292388568927</v>
       </c>
       <c r="J259" t="n">
-        <v>0.0340022827714991</v>
+        <v>0.03397282152438638</v>
       </c>
       <c r="K259" t="n">
         <v>0.1774800246876048</v>
       </c>
       <c r="L259" t="n">
-        <v>0.06874994124922534</v>
+        <v>0.07079682735619539</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1768606755939286</v>
+        <v>0.177022057575879</v>
       </c>
       <c r="N259" t="n">
-        <v>0.1095751912417261</v>
+        <v>0.1053929836215649</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1768625365027401</v>
+        <v>0.176885149537006</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.03363650350078265</v>
+        <v>0.008174847022341204</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1783948701756852</v>
+        <v>0.04436376465317904</v>
       </c>
       <c r="J260" t="n">
-        <v>0.03363650350078265</v>
+        <v>0.0343711680599679</v>
       </c>
       <c r="K260" t="n">
         <v>0.1783948701756852</v>
       </c>
       <c r="L260" t="n">
-        <v>0.06896476306851868</v>
+        <v>0.07249479026795688</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1777723285609076</v>
+        <v>0.1779345424087443</v>
       </c>
       <c r="N260" t="n">
-        <v>0.1072132591884697</v>
+        <v>0.1106079804113945</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1777741990620325</v>
+        <v>0.1777969286583307</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.03496802224392591</v>
+        <v>0.007383737042084955</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1793097156637657</v>
+        <v>0.0443137156476582</v>
       </c>
       <c r="J261" t="n">
-        <v>0.03496802224392591</v>
+        <v>0.03419396616385721</v>
       </c>
       <c r="K261" t="n">
         <v>0.1793097156637657</v>
       </c>
       <c r="L261" t="n">
-        <v>0.07250416227280529</v>
+        <v>0.07060924153897588</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1786839815278866</v>
+        <v>0.1788470272416097</v>
       </c>
       <c r="N261" t="n">
-        <v>0.1072368219237244</v>
+        <v>0.1052789336339657</v>
       </c>
       <c r="O261" t="n">
-        <v>0.178685861621325</v>
+        <v>0.1787087077796555</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.0353386648111657</v>
+        <v>0.006590892544942661</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1802245611518461</v>
+        <v>0.04426277686912676</v>
       </c>
       <c r="J262" t="n">
-        <v>0.0353386648111657</v>
+        <v>0.03410435951542139</v>
       </c>
       <c r="K262" t="n">
         <v>0.1802245611518461</v>
       </c>
       <c r="L262" t="n">
-        <v>0.06993806078973122</v>
+        <v>0.07222176573119488</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1795956344948657</v>
+        <v>0.179759512074475</v>
       </c>
       <c r="N262" t="n">
-        <v>0.1088572111395742</v>
+        <v>0.1088212859513302</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1795975241806175</v>
+        <v>0.1796204869009803</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.03497652363170504</v>
+        <v>0.005796313530914345</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1811394066399265</v>
+        <v>0.04421094831758472</v>
       </c>
       <c r="J263" t="n">
-        <v>0.03497652363170504</v>
+        <v>0.03510563948331838</v>
       </c>
       <c r="K263" t="n">
         <v>0.1811394066399265</v>
       </c>
       <c r="L263" t="n">
-        <v>0.07291707796746419</v>
+        <v>0.06976614434289752</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1805072874618447</v>
+        <v>0.1806719969073404</v>
       </c>
       <c r="N263" t="n">
-        <v>0.1055137852858374</v>
+        <v>0.1066056840339688</v>
       </c>
       <c r="O263" t="n">
-        <v>0.18050918673991</v>
+        <v>0.1805322660223051</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.03519963186954311</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
-        <v>0.182054252128007</v>
+        <v>0.04415822999303207</v>
       </c>
       <c r="J264" t="n">
-        <v>0.03519963186954311</v>
+        <v>0.0353393771865386</v>
       </c>
       <c r="K264" t="n">
         <v>0.182054252128007</v>
       </c>
       <c r="L264" t="n">
-        <v>0.07170317469556828</v>
+        <v>0.07022644113612231</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1814189404288237</v>
+        <v>0.1815844817402057</v>
       </c>
       <c r="N264" t="n">
-        <v>0.1112792488852298</v>
+        <v>0.1065234747117493</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1814208492992024</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1814440451436299</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.04415822999303207</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005636380870981693</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.04412375056254564</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.006274394228444349</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.04409016090506981</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.006914040072387988</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.04405746102060458</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.007555318402812587</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.04402565090914995</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.008198229219718162</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.04399473057070593</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.008842772523104718</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.04396470000527251</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.009488948312972229</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.04393555921284969</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.01013675658932073</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.04390730819343748</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.01078619735215017</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.04387994694703586</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01143727060146061</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.04385347547364486</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01208997633725201</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.04382789377326444</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01274431455952438</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.04380320184589464</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.01340028526827775</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.04377939969153545</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.01405788846351205</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.04375648731018685</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01471712414522735</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.04373446470184886</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.0153779923134236</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.04371333186652145</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01604049296810083</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.04369308880420467</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01670462610925903</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.04367373551489848</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01737039173689821</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.0436552719986029</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01803778985101837</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.04363769825531792</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01870682045161947</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.04362101428504354</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01937748353870157</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.04360522008777976</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.02004977911226462</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.0435903156635266</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.02072370717230865</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.04357630101228403</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.02139926771883366</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.04356317613405205</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.02207646075183964</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.0435509410288307</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.02275528627132657</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.04353959569661994</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.0234357442772945</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.04352914013741978</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.02411783476974337</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.04351957435123023</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.02480155774867324</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.04351089833805127</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.02548691321408406</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.04350311209788293</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.02617390116597586</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.04349621563072517</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.02686252160434864</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.04349020893657804</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.02755277452920239</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.0434850920154415</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.0282446599405371</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.04348086486731556</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.02893817783835279</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.04347752749220022</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.02963332822264945</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.0434750798900955</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.03033011109342706</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.04347352206100136</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.03102852645068566</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.04347285400491783</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.03172857429442524</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.04347307572184491</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.0324302546246458</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.0434741872117826</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.03313356744134729</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.04347618847473087</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.03383851274452979</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.04347907951068977</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.03454509053419325</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.04348286031965926</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.03525330081033767</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.04348753090163935</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.03596314357296307</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.04349309125663003</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.03667461882206945</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.04349954138463134</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.03738772655765678</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.04350688128564323</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.03810246677972509</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.04351511095966573</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.0388188394882744</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.04352423040669885</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.03953684468330465</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.04353423962674256</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.04025648236481588</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.04354513861979686</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.04097775253280807</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.04355692738586178</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.04170065518728125</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.0435696059249373</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.04242519032823538</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.04358317423702342</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.0431513579556705</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.04359763232212015</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.04387915806958657</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.04361298018022747</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.04460859066998364</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.0436292178113454</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.04533965575686168</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.04364634521547393</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.04607235333022067</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.04366436239261306</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.04680668339006064</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.0436832693427628</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.04754264593638158</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.04370306606592314</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.0482802409691835</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.04372375256209408</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.04901946848846638</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.04374532883127563</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.04976032849423022</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.04376779487346778</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.05050282098647506</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.04379115068867053</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.05124694596520085</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.04381539627688389</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.05199270343040761</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.04384053163810784</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.05274009338209537</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.0438665567723424</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.05348911582026408</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.04389347167958756</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.05423977074491376</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.04392127635984333</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.0549920581560444</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.0439499708131097</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.05574597805365604</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.04397955503938668</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.05650153043774864</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.04401002903867425</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.05725871530832222</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.04404139281097243</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.05801753266537675</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.04407364635628121</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.05877798250891225</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.04410678967460059</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.05954006483892874</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.04414082276593057</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.06030377965542617</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.04417574563027116</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.06106912695840462</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.04421155826762236</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.06183610674786402</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.04424826067798415</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.06260471902380439</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.04428585286135655</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.06337496378622572</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.04432433481773955</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.06414684103512804</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.04436370654713315</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.06492035077051132</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.04440396804953736</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.06569549299237556</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.04444511932495217</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.06647226770072079</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.04448716037337758</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.06725067489554698</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.04453009119481359</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.06803071457685417</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.04457391178926021</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.0688123867446423</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.04461862215671743</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.06959569139891141</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.04466422229718526</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.0703806285396615</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.04471071221066368</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.07116719816689253</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.04475809189715271</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.07195540028060456</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.04480636135665234</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.07274523488079757</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.04485552058916258</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.07353670196747153</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.04490556959468342</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.07432980154062646</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.04495650837321486</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.07512453360026237</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.0450083369247569</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.07592089814637924</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.04506105524930955</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.07542089814637924</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.04506105524930955</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.07488759472277354</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.04688234261058921</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.07437316423408591</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.04870362997186888</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.07387780295083006</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.05052491733314855</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.07340170714351965</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.05234620469442821</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.07294507308266833</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.05416749205570788</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.07250809703878976</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.05598877941698754</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.07209097528239763</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.05781006677826721</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.07169390408400558</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.05963135413954687</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.07131707971412729</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.06145264150082654</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.07096069844327643</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.0632739288621062</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.07062495654196665</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.06509521622338586</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.07031005028071163</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.06691650358466554</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.07001617593002503</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.06873779094594519</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.0697435297604205</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.07055907830722485</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.06949230804241173</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.07238036566850453</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.06926270704651237</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.0742016530297842</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.0690549230432361</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.07602294039106386</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.06886915230309655</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.07784422775234352</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.06870559109660743</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.07966551511362319</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.06856443569428237</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.08148680247490285</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.06844588236663507</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.08330808983618251</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.06835012738417917</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.08512937719746218</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.06827736701742833</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.08695066455874186</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.06822779753689623</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.08877195192002152</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.06820161521309655</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.09059323928130118</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.06820014743157582</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.09241452664258085</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.06823409996986449</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.09423581400386051</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.0683050752022822</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.09605710136514017</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.06841181736415015</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.09787838872641984</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.06855307069078952</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.0996996760876995</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.0687275794175215</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1015209634489792</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.06893408777966725</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1033422508102588</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.06917134001254799</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1051635381715385</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.06943808035148485</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1069848255328182</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.06973305303179907</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1088061128940978</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.0700550022888118</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1106274002553775</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.0704026723578442</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1124486876166572</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.07077480747421751</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1142699749779368</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.07117015187325285</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1160912623392165</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.07158744979027146</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1179125497004962</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.07202544546059446</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1197338370617758</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.0724828831195431</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1215551244230555</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.07295850700243851</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1233764117843351</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.0734510613446019</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1251976991456148</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.07395929038135444</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1270189865068945</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.07448193834801732</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1288402738681741</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.07501774947991172</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1306615612294538</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.07556546801235882</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1324828485907335</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.07612383818067979</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1343041359520132</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.07669160422019584</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1361254233132928</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.07726751036622813</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1379467106745725</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.07785030085409785</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1397679980358521</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.07843871991912618</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1415892853971318</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.07903151179663429</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1434105727584115</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.0796274207219434</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1452318601196911</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.08022519093037467</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1470531474809708</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.08082356665724927</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1488744348422505</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.08142129213788839</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.08201711160761321</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1525170095648098</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.08260976930174493</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1543382969260895</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.08319800945560474</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1561595842873691</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.08378057630451374</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1579808716486488</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.08435621408379324</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1598021590099284</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.0849236670287643</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1616234463712081</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.08548167937474818</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1634447337324878</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.08602899535706607</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1652660210937675</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.08656435921103911</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1670873084550471</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.08708651517198845</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1689085958163268</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.08759420747523536</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1707298831776064</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.08808618035610097</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1725511705388861</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.08856117804990649</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1743724579001658</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.08901824740783898</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1761937452614454</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.08946898716264409</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1780150326227251</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.08991986006556532</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1798363199840048</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.09037086369213043</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1816576073452844</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.09082199561786727</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1834788947065641</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.09127325341830364</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1853001820678438</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.09172463466896733</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1871214694291234</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.09217613694538615</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1889427567904031</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.09262775782308796</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1907640441516828</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.09307949487760053</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1925853315129624</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.09353134568445165</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.1944066188742421</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.09398330781916917</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.1962279062355217</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.0944353788572809</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.1980491935968014</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.09488755637431462</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.1998704809580811</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.09533983794579817</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.2016917683193608</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.09579222114725935</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.2035130556806404</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.09624470355422601</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.2053343430419201</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.09669728274222589</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.2071556304031997</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.09714995628678685</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.2089769177644794</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.09760272176343671</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.2107982051257591</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.09805557674770321</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.2126194924870388</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.09850851881511427</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.2144407798483184</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.0989615455411976</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.2162620672095981</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.09941465450148107</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2180833545708778</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.09986784327149245</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2199046419321574</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.1003211094267596</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2217259292934371</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.1012278641951723</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2235472166547167</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.1012278641951723</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2253685040159964</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
